--- a/solr/EvaluationM3.xlsx
+++ b/solr/EvaluationM3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\PRI\solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27843C55-D1ED-4515-9956-C2DC3B90281C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6489B339-6EA1-4565-8002-00B7524219EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -214,10 +214,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -536,15 +536,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
   <dimension ref="A1:AC211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D134" sqref="D134"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="25" width="9.1328125" style="1"/>
-    <col min="26" max="26" width="9.40625" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.1328125" style="1"/>
+    <col min="1" max="25" width="9.140625" style="1"/>
+    <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -555,39 +555,39 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29" ht="14.75">
-      <c r="J2" s="8" t="s">
+    <row r="2" spans="1:29" ht="15">
+      <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="O2" s="8" t="s">
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="O2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="T2" s="8" t="s">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+      <c r="R2" s="9"/>
+      <c r="T2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
       <c r="X2" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Y2" s="7">
         <v>1</v>
       </c>
-      <c r="Z2" s="8" t="s">
+      <c r="Z2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="8"/>
-      <c r="AC2" s="8"/>
-    </row>
-    <row r="3" spans="1:29" ht="14.5">
+      <c r="AA2" s="9"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+    </row>
+    <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -655,7 +655,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:29" ht="14.5">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -720,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" ht="14.5">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -754,7 +754,7 @@
         <v>1</v>
       </c>
       <c r="Q5" s="1">
-        <f>L5*D5</f>
+        <f t="shared" ref="Q5:Q33" si="2">L5*D5</f>
         <v>1</v>
       </c>
       <c r="T5" s="1">
@@ -773,19 +773,19 @@
         <v>0.1</v>
       </c>
       <c r="Z5" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y5)</f>
+        <f t="shared" ref="Z5:Z14" si="3">_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y5)</f>
         <v>1</v>
       </c>
       <c r="AA5" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y5)</f>
+        <f t="shared" ref="AA5:AA14" si="4">_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y5)</f>
         <v>1</v>
       </c>
       <c r="AB5" s="1">
-        <f t="shared" ref="AB5:AB14" si="2">_xlfn.MAXIFS(L$4:L$33,V$4:V$33,"&gt;="&amp;$Y5)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29" ht="14.5">
+        <f t="shared" ref="AB5:AB14" si="5">_xlfn.MAXIFS(L$4:L$33,V$4:V$33,"&gt;="&amp;$Y5)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="1">
-        <f>L6*D6</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T6" s="1">
@@ -838,19 +838,19 @@
         <v>0.2</v>
       </c>
       <c r="Z6" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA6" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y6)</f>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AB6" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29" ht="14.5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -884,7 +884,7 @@
         <v>0.75</v>
       </c>
       <c r="Q7" s="1">
-        <f>L7*D7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="T7" s="1">
@@ -903,19 +903,19 @@
         <v>0.3</v>
       </c>
       <c r="Z7" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y7)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AA7" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y7)</f>
+        <f t="shared" si="4"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AB7" s="1">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29" ht="14.5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -949,7 +949,7 @@
         <v>0.8</v>
       </c>
       <c r="Q8" s="1">
-        <f>L8*D8</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T8" s="1">
@@ -968,19 +968,19 @@
         <v>0.4</v>
       </c>
       <c r="Z8" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y8)</f>
+        <f t="shared" si="3"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AA8" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y8)</f>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="AB8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="9" spans="1:29" ht="14.5">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="Q9" s="1">
-        <f>L9*D9</f>
+        <f t="shared" si="2"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="T9" s="1">
@@ -1033,19 +1033,19 @@
         <v>0.5</v>
       </c>
       <c r="Z9" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y9)</f>
+        <f t="shared" si="3"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA9" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y9)</f>
+        <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="AB9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="10" spans="1:29" ht="14.5">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="Q10" s="1">
-        <f>L10*D10</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T10" s="1">
@@ -1098,19 +1098,19 @@
         <v>0.6</v>
       </c>
       <c r="Z10" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y10)</f>
+        <f t="shared" si="3"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="AA10" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y10)</f>
+        <f t="shared" si="4"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="AB10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5714285714285714</v>
       </c>
     </row>
-    <row r="11" spans="1:29" ht="14.5">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -1144,7 +1144,7 @@
         <v>0.75</v>
       </c>
       <c r="Q11" s="1">
-        <f>L11*D11</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T11" s="1">
@@ -1163,19 +1163,19 @@
         <v>0.7</v>
       </c>
       <c r="Z11" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y11)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AA11" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y11)</f>
+        <f t="shared" si="4"/>
         <v>0.58823529411764708</v>
       </c>
       <c r="AB11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.5625</v>
       </c>
     </row>
-    <row r="12" spans="1:29" ht="14.5">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="Q12" s="1">
-        <f>L12*D12</f>
+        <f t="shared" si="2"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="T12" s="1">
@@ -1228,19 +1228,19 @@
         <v>0.8</v>
       </c>
       <c r="Z12" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y12)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AA12" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y12)</f>
+        <f t="shared" si="4"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="AB12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="13" spans="1:29" ht="14.5">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="Q13" s="1">
-        <f>L13*D13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T13" s="1">
@@ -1293,19 +1293,19 @@
         <v>0.9</v>
       </c>
       <c r="Z13" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y13)</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="AA13" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y13)</f>
+        <f t="shared" si="4"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="AB13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.45833333333333331</v>
       </c>
     </row>
-    <row r="14" spans="1:29" ht="14.5">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="Q14" s="1">
-        <f>L14*D14</f>
+        <f t="shared" si="2"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="T14" s="1">
@@ -1358,15 +1358,15 @@
         <v>1</v>
       </c>
       <c r="Z14" s="1">
-        <f>_xlfn.MAXIFS(J$4:J$33,T$4:T$33,"&gt;="&amp;$Y14)</f>
+        <f t="shared" si="3"/>
         <v>0.39285714285714285</v>
       </c>
       <c r="AA14" s="1">
-        <f>_xlfn.MAXIFS(K$4:K$33,U$4:U$33,"&gt;="&amp;$Y14)</f>
+        <f t="shared" si="4"/>
         <v>0.4642857142857143</v>
       </c>
       <c r="AB14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0.42857142857142855</v>
       </c>
     </row>
@@ -1404,7 +1404,7 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="Q15" s="1">
-        <f>L15*D15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T15" s="1">
@@ -1454,7 +1454,7 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="Q16" s="1">
-        <f>L16*D16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T16" s="1">
@@ -1504,7 +1504,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="Q17" s="1">
-        <f>L17*D17</f>
+        <f t="shared" si="2"/>
         <v>0.5714285714285714</v>
       </c>
       <c r="T17" s="1">
@@ -1520,7 +1520,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:29" ht="14.5">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="Q18" s="1">
-        <f>L18*D18</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T18" s="1">
@@ -1569,14 +1569,14 @@
         <f>SUMIF(D$4:D18,"=1")/SUMIF(D$4:D$33,"=1")</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="Z18" s="8" t="s">
+      <c r="Z18" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA18" s="8"/>
-      <c r="AB18" s="8"/>
-      <c r="AC18" s="8"/>
-    </row>
-    <row r="19" spans="1:29" ht="14.5">
+      <c r="AA18" s="9"/>
+      <c r="AB18" s="9"/>
+      <c r="AC18" s="9"/>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0</v>
       </c>
       <c r="Q19" s="1">
-        <f>L19*D19</f>
+        <f t="shared" si="2"/>
         <v>0.5625</v>
       </c>
       <c r="T19" s="1">
@@ -1641,7 +1641,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:29" ht="14.5">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>0.58823529411764708</v>
       </c>
       <c r="Q20" s="1">
-        <f>L20*D20</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T20" s="1">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" ht="14.5">
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>0</v>
       </c>
       <c r="Q21" s="1">
-        <f>L21*D21</f>
+        <f t="shared" si="2"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="T21" s="1">
@@ -1759,19 +1759,19 @@
         <v>0.1</v>
       </c>
       <c r="Z21" s="1">
-        <f t="shared" ref="Z21:AB21" si="3">(1 + $Y$2^2) * (Z5*$Y5/($Y$2^2 * Z5 +$Y5))</f>
+        <f t="shared" ref="Z21:AB21" si="6">(1 + $Y$2^2) * (Z5*$Y5/($Y$2^2 * Z5 +$Y5))</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="AA21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="AB21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="22" spans="1:29" ht="14.5">
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -1805,7 +1805,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="1">
-        <f>L22*D22</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T22" s="1">
@@ -1824,19 +1824,19 @@
         <v>0.2</v>
       </c>
       <c r="Z22" s="1">
-        <f t="shared" ref="Z22:AB22" si="4">(1 + $Y$2^2) * (Z6*$Y6/($Y$2^2 * Z6 +$Y6))</f>
+        <f t="shared" ref="Z22:AB22" si="7">(1 + $Y$2^2) * (Z6*$Y6/($Y$2^2 * Z6 +$Y6))</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="AA22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.32258064516129031</v>
       </c>
       <c r="AB22" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:29" ht="14.5">
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="Q23" s="1">
-        <f>L23*D23</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T23" s="1">
@@ -1889,19 +1889,19 @@
         <v>0.3</v>
       </c>
       <c r="Z23" s="1">
-        <f t="shared" ref="Z23:AB23" si="5">(1 + $Y$2^2) * (Z7*$Y7/($Y$2^2 * Z7 +$Y7))</f>
+        <f t="shared" ref="Z23:AB23" si="8">(1 + $Y$2^2) * (Z7*$Y7/($Y$2^2 * Z7 +$Y7))</f>
         <v>0.46153846153846151</v>
       </c>
       <c r="AA23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.44117647058823528</v>
       </c>
       <c r="AB23" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0.46153846153846151</v>
       </c>
     </row>
-    <row r="24" spans="1:29" ht="14.5">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -1935,7 +1935,7 @@
         <v>0</v>
       </c>
       <c r="Q24" s="1">
-        <f>L24*D24</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T24" s="1">
@@ -1954,19 +1954,19 @@
         <v>0.4</v>
       </c>
       <c r="Z24" s="1">
-        <f t="shared" ref="Z24:AB24" si="6">(1 + $Y$2^2) * (Z8*$Y8/($Y$2^2 * Z8 +$Y8))</f>
+        <f t="shared" ref="Z24:AB24" si="9">(1 + $Y$2^2) * (Z8*$Y8/($Y$2^2 * Z8 +$Y8))</f>
         <v>0.54054054054054057</v>
       </c>
       <c r="AA24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.52173913043478271</v>
       </c>
       <c r="AB24" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0.54054054054054057</v>
       </c>
     </row>
-    <row r="25" spans="1:29" ht="14.5">
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>0</v>
       </c>
       <c r="Q25" s="1">
-        <f>L25*D25</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T25" s="1">
@@ -2019,19 +2019,19 @@
         <v>0.5</v>
       </c>
       <c r="Z25" s="1">
-        <f t="shared" ref="Z25:AB25" si="7">(1 + $Y$2^2) * (Z9*$Y9/($Y$2^2 * Z9 +$Y9))</f>
+        <f t="shared" ref="Z25:AB25" si="10">(1 + $Y$2^2) * (Z9*$Y9/($Y$2^2 * Z9 +$Y9))</f>
         <v>0.57142857142857151</v>
       </c>
       <c r="AA25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.56250000000000011</v>
       </c>
       <c r="AB25" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="26" spans="1:29" ht="14.5">
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="Q26" s="1">
-        <f>L26*D26</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T26" s="1">
@@ -2084,19 +2084,19 @@
         <v>0.6</v>
       </c>
       <c r="Z26" s="1">
-        <f t="shared" ref="Z26:AB26" si="8">(1 + $Y$2^2) * (Z10*$Y10/($Y$2^2 * Z10 +$Y10))</f>
+        <f t="shared" ref="Z26:AB26" si="11">(1 + $Y$2^2) * (Z10*$Y10/($Y$2^2 * Z10 +$Y10))</f>
         <v>0.59154929577464799</v>
       </c>
       <c r="AA26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.62068965517241381</v>
       </c>
       <c r="AB26" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="11"/>
         <v>0.58536585365853655</v>
       </c>
     </row>
-    <row r="27" spans="1:29" ht="14.5">
+    <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -2130,7 +2130,7 @@
         <v>0</v>
       </c>
       <c r="Q27" s="1">
-        <f>L27*D27</f>
+        <f t="shared" si="2"/>
         <v>0.45833333333333331</v>
       </c>
       <c r="T27" s="1">
@@ -2149,19 +2149,19 @@
         <v>0.7</v>
       </c>
       <c r="Z27" s="1">
-        <f t="shared" ref="Z27:AB27" si="9">(1 + $Y$2^2) * (Z11*$Y11/($Y$2^2 * Z11 +$Y11))</f>
+        <f t="shared" ref="Z27:AB27" si="12">(1 + $Y$2^2) * (Z11*$Y11/($Y$2^2 * Z11 +$Y11))</f>
         <v>0.58333333333333337</v>
       </c>
       <c r="AA27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.63926940639269414</v>
       </c>
       <c r="AB27" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="12"/>
         <v>0.62376237623762376</v>
       </c>
     </row>
-    <row r="28" spans="1:29" ht="14.5">
+    <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -2195,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="1">
-        <f>L28*D28</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T28" s="1">
@@ -2214,19 +2214,19 @@
         <v>0.8</v>
       </c>
       <c r="Z28" s="1">
-        <f t="shared" ref="Z28:AB28" si="10">(1 + $Y$2^2) * (Z12*$Y12/($Y$2^2 * Z12 +$Y12))</f>
+        <f t="shared" ref="Z28:AB28" si="13">(1 + $Y$2^2) * (Z12*$Y12/($Y$2^2 * Z12 +$Y12))</f>
         <v>0.61538461538461542</v>
       </c>
       <c r="AA28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.58757062146892658</v>
       </c>
       <c r="AB28" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="13"/>
         <v>0.65573770491803285</v>
       </c>
     </row>
-    <row r="29" spans="1:29" ht="14.5">
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>0.42307692307692307</v>
       </c>
       <c r="Q29" s="1">
-        <f>L29*D29</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T29" s="1">
@@ -2279,19 +2279,19 @@
         <v>0.9</v>
       </c>
       <c r="Z29" s="1">
-        <f t="shared" ref="Z29:AB29" si="11">(1 + $Y$2^2) * (Z13*$Y13/($Y$2^2 * Z13 +$Y13))</f>
+        <f t="shared" ref="Z29:AB29" si="14">(1 + $Y$2^2) * (Z13*$Y13/($Y$2^2 * Z13 +$Y13))</f>
         <v>0.6428571428571429</v>
       </c>
       <c r="AA29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.61256544502617805</v>
       </c>
       <c r="AB29" s="1">
-        <f t="shared" si="11"/>
+        <f t="shared" si="14"/>
         <v>0.60736196319018398</v>
       </c>
     </row>
-    <row r="30" spans="1:29" ht="14.5">
+    <row r="30" spans="1:29">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -2325,7 +2325,7 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="Q30" s="1">
-        <f>L30*D30</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T30" s="1">
@@ -2344,15 +2344,15 @@
         <v>1</v>
       </c>
       <c r="Z30" s="1">
-        <f t="shared" ref="Z30:AB30" si="12">(1 + $Y$2^2) * (Z14*$Y14/($Y$2^2 * Z14 +$Y14))</f>
+        <f t="shared" ref="Z30:AB30" si="15">(1 + $Y$2^2) * (Z14*$Y14/($Y$2^2 * Z14 +$Y14))</f>
         <v>0.5641025641025641</v>
       </c>
       <c r="AA30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.63414634146341464</v>
       </c>
       <c r="AB30" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="15"/>
         <v>0.6</v>
       </c>
     </row>
@@ -2390,7 +2390,7 @@
         <v>0.4642857142857143</v>
       </c>
       <c r="Q31" s="1">
-        <f>L31*D31</f>
+        <f t="shared" si="2"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="T31" s="1">
@@ -2440,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="1">
-        <f>L32*D32</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T32" s="1">
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="Q33" s="1">
-        <f>L33*D33</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="T33" s="1">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" ht="14.75">
+    <row r="34" spans="1:29" ht="15">
       <c r="I34" s="5" t="s">
         <v>8</v>
       </c>
@@ -2530,34 +2530,34 @@
       </c>
     </row>
     <row r="37" spans="1:29" ht="15" customHeight="1">
-      <c r="J37" s="8" t="s">
+      <c r="J37" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K37" s="8"/>
-      <c r="L37" s="8"/>
-      <c r="M37" s="8"/>
-      <c r="O37" s="8" t="s">
+      <c r="K37" s="9"/>
+      <c r="L37" s="9"/>
+      <c r="M37" s="9"/>
+      <c r="O37" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="T37" s="8" t="s">
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="T37" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U37" s="8"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="8"/>
-      <c r="X37" s="9"/>
-      <c r="Y37" s="9"/>
-      <c r="Z37" s="8" t="s">
+      <c r="U37" s="9"/>
+      <c r="V37" s="9"/>
+      <c r="W37" s="9"/>
+      <c r="X37" s="8"/>
+      <c r="Y37" s="8"/>
+      <c r="Z37" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA37" s="8"/>
-      <c r="AB37" s="8"/>
-      <c r="AC37" s="8"/>
-    </row>
-    <row r="38" spans="1:29" ht="14.5">
+      <c r="AA37" s="9"/>
+      <c r="AB37" s="9"/>
+      <c r="AC37" s="9"/>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -2625,7 +2625,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:29" ht="14.5">
+    <row r="39" spans="1:29">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -2651,15 +2651,15 @@
         <v>0</v>
       </c>
       <c r="O39" s="1">
-        <f>J39*B39</f>
+        <f t="shared" ref="O39:O68" si="16">J39*B39</f>
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <f>K39*C39</f>
+        <f t="shared" ref="P39:P68" si="17">K39*C39</f>
         <v>0</v>
       </c>
       <c r="Q39" s="1">
-        <f>L39*D39</f>
+        <f t="shared" ref="Q39:Q68" si="18">L39*D39</f>
         <v>0</v>
       </c>
       <c r="T39" s="1">
@@ -2690,7 +2690,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="40" spans="1:29" ht="14.5">
+    <row r="40" spans="1:29">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -2716,15 +2716,15 @@
         <v>0.5</v>
       </c>
       <c r="O40" s="1">
-        <f>J40*B40</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="P40" s="1">
-        <f>K40*C40</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="Q40" s="1">
-        <f>L40*D40</f>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="T40" s="1">
@@ -2743,19 +2743,19 @@
         <v>0.1</v>
       </c>
       <c r="Z40" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y40)</f>
+        <f t="shared" ref="Z40:Z49" si="19">_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y40)</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA40" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y40)</f>
+        <f t="shared" ref="AA40:AA49" si="20">_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y40)</f>
         <v>0.77777777777777779</v>
       </c>
       <c r="AB40" s="1">
-        <f t="shared" ref="AB40:AB49" si="13">_xlfn.MAXIFS(L$39:L$68,V$39:V$68,"&gt;="&amp;$Y40)</f>
+        <f t="shared" ref="AB40:AB49" si="21">_xlfn.MAXIFS(L$39:L$68,V$39:V$68,"&gt;="&amp;$Y40)</f>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="41" spans="1:29" ht="14.5">
+    <row r="41" spans="1:29">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -2781,15 +2781,15 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="O41" s="1">
-        <f>J41*B41</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <f>K41*C41</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q41" s="1">
-        <f>L41*D41</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T41" s="1">
@@ -2808,19 +2808,19 @@
         <v>0.2</v>
       </c>
       <c r="Z41" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y41)</f>
+        <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA41" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y41)</f>
+        <f t="shared" si="20"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AB41" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="42" spans="1:29" ht="14.5">
+    <row r="42" spans="1:29">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -2846,15 +2846,15 @@
         <v>0.5</v>
       </c>
       <c r="O42" s="1">
-        <f>J42*B42</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="P42" s="1">
-        <f>K42*C42</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="Q42" s="1">
-        <f>L42*D42</f>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="T42" s="1">
@@ -2873,19 +2873,19 @@
         <v>0.3</v>
       </c>
       <c r="Z42" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y42)</f>
+        <f t="shared" si="19"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA42" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y42)</f>
+        <f t="shared" si="20"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AB42" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="1:29" ht="14.5">
+    <row r="43" spans="1:29">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -2911,15 +2911,15 @@
         <v>0.6</v>
       </c>
       <c r="O43" s="1">
-        <f>J43*B43</f>
+        <f t="shared" si="16"/>
         <v>0.6</v>
       </c>
       <c r="P43" s="1">
-        <f>K43*C43</f>
+        <f t="shared" si="17"/>
         <v>0.6</v>
       </c>
       <c r="Q43" s="1">
-        <f>L43*D43</f>
+        <f t="shared" si="18"/>
         <v>0.6</v>
       </c>
       <c r="T43" s="1">
@@ -2938,19 +2938,19 @@
         <v>0.4</v>
       </c>
       <c r="Z43" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y43)</f>
+        <f t="shared" si="19"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="AA43" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y43)</f>
+        <f t="shared" si="20"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AB43" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="44" spans="1:29" ht="14.5">
+    <row r="44" spans="1:29">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -2976,15 +2976,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="O44" s="1">
-        <f>J44*B44</f>
+        <f t="shared" si="16"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P44" s="1">
-        <f>K44*C44</f>
+        <f t="shared" si="17"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="Q44" s="1">
-        <f>L44*D44</f>
+        <f t="shared" si="18"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="T44" s="1">
@@ -3003,19 +3003,19 @@
         <v>0.5</v>
       </c>
       <c r="Z44" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y44)</f>
+        <f t="shared" si="19"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="AA44" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y44)</f>
+        <f t="shared" si="20"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="AB44" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="45" spans="1:29" ht="14.5">
+    <row r="45" spans="1:29">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -3041,15 +3041,15 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="O45" s="1">
-        <f>J45*B45</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <f>K45*C45</f>
+        <f t="shared" si="17"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="Q45" s="1">
-        <f>L45*D45</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T45" s="1">
@@ -3068,19 +3068,19 @@
         <v>0.6</v>
       </c>
       <c r="Z45" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y45)</f>
+        <f t="shared" si="19"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="AA45" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y45)</f>
+        <f t="shared" si="20"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="AB45" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
-    <row r="46" spans="1:29" ht="14.5">
+    <row r="46" spans="1:29">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -3106,15 +3106,15 @@
         <v>0.5</v>
       </c>
       <c r="O46" s="1">
-        <f>J46*B46</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <f>K46*C46</f>
+        <f t="shared" si="17"/>
         <v>0.75</v>
       </c>
       <c r="Q46" s="1">
-        <f>L46*D46</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T46" s="1">
@@ -3133,19 +3133,19 @@
         <v>0.7</v>
       </c>
       <c r="Z46" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y46)</f>
+        <f t="shared" si="19"/>
         <v>0.43478260869565216</v>
       </c>
       <c r="AA46" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y46)</f>
+        <f t="shared" si="20"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="AB46" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
-    <row r="47" spans="1:29" ht="14.5">
+    <row r="47" spans="1:29">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -3171,15 +3171,15 @@
         <v>0.44444444444444442</v>
       </c>
       <c r="O47" s="1">
-        <f>J47*B47</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f>K47*C47</f>
+        <f t="shared" si="17"/>
         <v>0.77777777777777779</v>
       </c>
       <c r="Q47" s="1">
-        <f>L47*D47</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T47" s="1">
@@ -3198,19 +3198,19 @@
         <v>0.8</v>
       </c>
       <c r="Z47" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y47)</f>
+        <f t="shared" si="19"/>
         <v>0.43478260869565216</v>
       </c>
       <c r="AA47" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y47)</f>
+        <f t="shared" si="20"/>
         <v>0.48275862068965519</v>
       </c>
       <c r="AB47" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
-    <row r="48" spans="1:29" ht="14.5">
+    <row r="48" spans="1:29">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -3236,15 +3236,15 @@
         <v>0.5</v>
       </c>
       <c r="O48" s="1">
-        <f>J48*B48</f>
+        <f t="shared" si="16"/>
         <v>0.5</v>
       </c>
       <c r="P48" s="1">
-        <f>K48*C48</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q48" s="1">
-        <f>L48*D48</f>
+        <f t="shared" si="18"/>
         <v>0.5</v>
       </c>
       <c r="T48" s="1">
@@ -3263,19 +3263,19 @@
         <v>0.9</v>
       </c>
       <c r="Z48" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y48)</f>
+        <f t="shared" si="19"/>
         <v>0.43478260869565216</v>
       </c>
       <c r="AA48" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y48)</f>
+        <f t="shared" si="20"/>
         <v>0.48275862068965519</v>
       </c>
       <c r="AB48" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.42307692307692307</v>
       </c>
     </row>
-    <row r="49" spans="1:29" ht="14.5">
+    <row r="49" spans="1:29">
       <c r="A49" s="1">
         <v>11</v>
       </c>
@@ -3301,15 +3301,15 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="O49" s="1">
-        <f>J49*B49</f>
+        <f t="shared" si="16"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="P49" s="1">
-        <f>K49*C49</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q49" s="1">
-        <f>L49*D49</f>
+        <f t="shared" si="18"/>
         <v>0.54545454545454541</v>
       </c>
       <c r="T49" s="1">
@@ -3328,15 +3328,15 @@
         <v>1</v>
       </c>
       <c r="Z49" s="1">
-        <f>_xlfn.MAXIFS(J$39:J$68,T$39:T$68,"&gt;="&amp;$Y49)</f>
+        <f t="shared" si="19"/>
         <v>0.40740740740740738</v>
       </c>
       <c r="AA49" s="1">
-        <f>_xlfn.MAXIFS(K$39:K$68,U$39:U$68,"&gt;="&amp;$Y49)</f>
+        <f t="shared" si="20"/>
         <v>0.48275862068965519</v>
       </c>
       <c r="AB49" s="1">
-        <f t="shared" si="13"/>
+        <f t="shared" si="21"/>
         <v>0.4</v>
       </c>
     </row>
@@ -3366,15 +3366,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="O50" s="1">
-        <f>J50*B50</f>
+        <f t="shared" si="16"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="P50" s="1">
-        <f>K50*C50</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q50" s="1">
-        <f>L50*D50</f>
+        <f t="shared" si="18"/>
         <v>0.58333333333333337</v>
       </c>
       <c r="T50" s="1">
@@ -3416,15 +3416,15 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="O51" s="1">
-        <f>J51*B51</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P51" s="1">
-        <f>K51*C51</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q51" s="1">
-        <f>L51*D51</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T51" s="1">
@@ -3466,15 +3466,15 @@
         <v>0.5</v>
       </c>
       <c r="O52" s="1">
-        <f>J52*B52</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P52" s="1">
-        <f>K52*C52</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q52" s="1">
-        <f>L52*D52</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T52" s="1">
@@ -3490,7 +3490,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="53" spans="1:29" ht="14.5">
+    <row r="53" spans="1:29">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -3516,15 +3516,15 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="O53" s="1">
-        <f>J53*B53</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P53" s="1">
-        <f>K53*C53</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q53" s="1">
-        <f>L53*D53</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T53" s="1">
@@ -3539,14 +3539,14 @@
         <f>SUMIF(D$39:D53,"=1")/SUMIF(D$39:D$68,"=1")</f>
         <v>0.58333333333333337</v>
       </c>
-      <c r="Z53" s="8" t="s">
+      <c r="Z53" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA53" s="8"/>
-      <c r="AB53" s="8"/>
-      <c r="AC53" s="8"/>
-    </row>
-    <row r="54" spans="1:29" ht="14.5">
+      <c r="AA53" s="9"/>
+      <c r="AB53" s="9"/>
+      <c r="AC53" s="9"/>
+    </row>
+    <row r="54" spans="1:29">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -3572,15 +3572,15 @@
         <v>0.4375</v>
       </c>
       <c r="O54" s="1">
-        <f>J54*B54</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f>K54*C54</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="Q54" s="1">
-        <f>L54*D54</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T54" s="1">
@@ -3611,7 +3611,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:29" ht="14.5">
+    <row r="55" spans="1:29">
       <c r="A55" s="1">
         <v>17</v>
       </c>
@@ -3637,15 +3637,15 @@
         <v>0.41176470588235292</v>
       </c>
       <c r="O55" s="1">
-        <f>J55*B55</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <f>K55*C55</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q55" s="1">
-        <f>L55*D55</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T55" s="1">
@@ -3676,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" ht="14.5">
+    <row r="56" spans="1:29">
       <c r="A56" s="1">
         <v>18</v>
       </c>
@@ -3702,15 +3702,15 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="O56" s="1">
-        <f>J56*B56</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <f>K56*C56</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="Q56" s="1">
-        <f>L56*D56</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T56" s="1">
@@ -3729,19 +3729,19 @@
         <v>0.1</v>
       </c>
       <c r="Z56" s="1">
-        <f t="shared" ref="Z56:AB56" si="14">(1 + $Y$2^2) * (Z40*$Y40/($Y$2^2 * Z40 +$Y40))</f>
+        <f t="shared" ref="Z56:AB56" si="22">(1 + $Y$2^2) * (Z40*$Y40/($Y$2^2 * Z40 +$Y40))</f>
         <v>0.17391304347826089</v>
       </c>
       <c r="AA56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.17721518987341772</v>
       </c>
       <c r="AB56" s="1">
-        <f t="shared" si="14"/>
+        <f t="shared" si="22"/>
         <v>0.17391304347826089</v>
       </c>
     </row>
-    <row r="57" spans="1:29" ht="14.5">
+    <row r="57" spans="1:29">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -3767,15 +3767,15 @@
         <v>0.36842105263157893</v>
       </c>
       <c r="O57" s="1">
-        <f>J57*B57</f>
+        <f t="shared" si="16"/>
         <v>0.42105263157894735</v>
       </c>
       <c r="P57" s="1">
-        <f>K57*C57</f>
+        <f t="shared" si="17"/>
         <v>0.52631578947368418</v>
       </c>
       <c r="Q57" s="1">
-        <f>L57*D57</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T57" s="1">
@@ -3794,19 +3794,19 @@
         <v>0.2</v>
       </c>
       <c r="Z57" s="1">
-        <f t="shared" ref="Z57:AB57" si="15">(1 + $Y$2^2) * (Z41*$Y41/($Y$2^2 * Z41 +$Y41))</f>
+        <f t="shared" ref="Z57:AB57" si="23">(1 + $Y$2^2) * (Z41*$Y41/($Y$2^2 * Z41 +$Y41))</f>
         <v>0.30769230769230765</v>
       </c>
       <c r="AA57" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.31818181818181818</v>
       </c>
       <c r="AB57" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v>0.30769230769230765</v>
       </c>
     </row>
-    <row r="58" spans="1:29" ht="14.5">
+    <row r="58" spans="1:29">
       <c r="A58" s="1">
         <v>20</v>
       </c>
@@ -3832,15 +3832,15 @@
         <v>0.4</v>
       </c>
       <c r="O58" s="1">
-        <f>J58*B58</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P58" s="1">
-        <f>K58*C58</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q58" s="1">
-        <f>L58*D58</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="T58" s="1">
@@ -3859,19 +3859,19 @@
         <v>0.3</v>
       </c>
       <c r="Z58" s="1">
-        <f t="shared" ref="Z58:AB58" si="16">(1 + $Y$2^2) * (Z42*$Y42/($Y$2^2 * Z42 +$Y42))</f>
+        <f t="shared" ref="Z58:AB58" si="24">(1 + $Y$2^2) * (Z42*$Y42/($Y$2^2 * Z42 +$Y42))</f>
         <v>0.41379310344827586</v>
       </c>
       <c r="AA58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.4329896907216495</v>
       </c>
       <c r="AB58" s="1">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v>0.41379310344827586</v>
       </c>
     </row>
-    <row r="59" spans="1:29" ht="14.5">
+    <row r="59" spans="1:29">
       <c r="A59" s="1">
         <v>21</v>
       </c>
@@ -3897,15 +3897,15 @@
         <v>0.38095238095238093</v>
       </c>
       <c r="O59" s="1">
-        <f>J59*B59</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P59" s="1">
-        <f>K59*C59</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q59" s="1">
-        <f>L59*D59</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T59" s="1">
@@ -3924,19 +3924,19 @@
         <v>0.4</v>
       </c>
       <c r="Z59" s="1">
-        <f t="shared" ref="Z59:AB59" si="17">(1 + $Y$2^2) * (Z43*$Y43/($Y$2^2 * Z43 +$Y43))</f>
+        <f t="shared" ref="Z59:AB59" si="25">(1 + $Y$2^2) * (Z43*$Y43/($Y$2^2 * Z43 +$Y43))</f>
         <v>0.47457627118644069</v>
       </c>
       <c r="AA59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.52830188679245282</v>
       </c>
       <c r="AB59" s="1">
-        <f t="shared" si="17"/>
+        <f t="shared" si="25"/>
         <v>0.47457627118644069</v>
       </c>
     </row>
-    <row r="60" spans="1:29" ht="14.5">
+    <row r="60" spans="1:29">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -3962,15 +3962,15 @@
         <v>0.40909090909090912</v>
       </c>
       <c r="O60" s="1">
-        <f>J60*B60</f>
+        <f t="shared" si="16"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="P60" s="1">
-        <f>K60*C60</f>
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
       <c r="Q60" s="1">
-        <f>L60*D60</f>
+        <f t="shared" si="18"/>
         <v>0.40909090909090912</v>
       </c>
       <c r="T60" s="1">
@@ -3989,19 +3989,19 @@
         <v>0.5</v>
       </c>
       <c r="Z60" s="1">
-        <f t="shared" ref="Z60:AB60" si="18">(1 + $Y$2^2) * (Z44*$Y44/($Y$2^2 * Z44 +$Y44))</f>
+        <f t="shared" ref="Z60:AB60" si="26">(1 + $Y$2^2) * (Z44*$Y44/($Y$2^2 * Z44 +$Y44))</f>
         <v>0.53846153846153844</v>
       </c>
       <c r="AA60" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.60869565217391308</v>
       </c>
       <c r="AB60" s="1">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>0.53846153846153844</v>
       </c>
     </row>
-    <row r="61" spans="1:29" ht="14.5">
+    <row r="61" spans="1:29">
       <c r="A61" s="1">
         <v>23</v>
       </c>
@@ -4027,15 +4027,15 @@
         <v>0.39130434782608697</v>
       </c>
       <c r="O61" s="1">
-        <f>J61*B61</f>
+        <f t="shared" si="16"/>
         <v>0.43478260869565216</v>
       </c>
       <c r="P61" s="1">
-        <f>K61*C61</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q61" s="1">
-        <f>L61*D61</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T61" s="1">
@@ -4054,19 +4054,19 @@
         <v>0.6</v>
       </c>
       <c r="Z61" s="1">
-        <f t="shared" ref="Z61:AB61" si="19">(1 + $Y$2^2) * (Z45*$Y45/($Y$2^2 * Z45 +$Y45))</f>
+        <f t="shared" ref="Z61:AB61" si="27">(1 + $Y$2^2) * (Z45*$Y45/($Y$2^2 * Z45 +$Y45))</f>
         <v>0.59154929577464799</v>
       </c>
       <c r="AA61" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.56074766355140182</v>
       </c>
       <c r="AB61" s="1">
-        <f t="shared" si="19"/>
+        <f t="shared" si="27"/>
         <v>0.49624060150375943</v>
       </c>
     </row>
-    <row r="62" spans="1:29" ht="14.5">
+    <row r="62" spans="1:29">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -4092,15 +4092,15 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="O62" s="1">
-        <f>J62*B62</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P62" s="1">
-        <f>K62*C62</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q62" s="1">
-        <f>L62*D62</f>
+        <f t="shared" si="18"/>
         <v>0.41666666666666669</v>
       </c>
       <c r="T62" s="1">
@@ -4119,19 +4119,19 @@
         <v>0.7</v>
       </c>
       <c r="Z62" s="1">
-        <f t="shared" ref="Z62:AB62" si="20">(1 + $Y$2^2) * (Z46*$Y46/($Y$2^2 * Z46 +$Y46))</f>
+        <f t="shared" ref="Z62:AB62" si="28">(1 + $Y$2^2) * (Z46*$Y46/($Y$2^2 * Z46 +$Y46))</f>
         <v>0.53639846743295017</v>
       </c>
       <c r="AA62" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.60085836909871237</v>
       </c>
       <c r="AB62" s="1">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>0.5273972602739726</v>
       </c>
     </row>
-    <row r="63" spans="1:29" ht="14.5">
+    <row r="63" spans="1:29">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -4157,15 +4157,15 @@
         <v>0.4</v>
       </c>
       <c r="O63" s="1">
-        <f>J63*B63</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P63" s="1">
-        <f>K63*C63</f>
+        <f t="shared" si="17"/>
         <v>0.48</v>
       </c>
       <c r="Q63" s="1">
-        <f>L63*D63</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T63" s="1">
@@ -4184,19 +4184,19 @@
         <v>0.8</v>
       </c>
       <c r="Z63" s="1">
-        <f t="shared" ref="Z63:AB63" si="21">(1 + $Y$2^2) * (Z47*$Y47/($Y$2^2 * Z47 +$Y47))</f>
+        <f t="shared" ref="Z63:AB63" si="29">(1 + $Y$2^2) * (Z47*$Y47/($Y$2^2 * Z47 +$Y47))</f>
         <v>0.56338028169014087</v>
       </c>
       <c r="AA63" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.60215053763440862</v>
       </c>
       <c r="AB63" s="1">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>0.55345911949685533</v>
       </c>
     </row>
-    <row r="64" spans="1:29" ht="14.5">
+    <row r="64" spans="1:29">
       <c r="A64" s="1">
         <v>26</v>
       </c>
@@ -4222,15 +4222,15 @@
         <v>0.42307692307692307</v>
       </c>
       <c r="O64" s="1">
-        <f>J64*B64</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P64" s="1">
-        <f>K64*C64</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q64" s="1">
-        <f>L64*D64</f>
+        <f t="shared" si="18"/>
         <v>0.42307692307692307</v>
       </c>
       <c r="T64" s="1">
@@ -4249,19 +4249,19 @@
         <v>0.9</v>
       </c>
       <c r="Z64" s="1">
-        <f t="shared" ref="Z64:AB64" si="22">(1 + $Y$2^2) * (Z48*$Y48/($Y$2^2 * Z48 +$Y48))</f>
+        <f t="shared" ref="Z64:AB64" si="30">(1 + $Y$2^2) * (Z48*$Y48/($Y$2^2 * Z48 +$Y48))</f>
         <v>0.58631921824104238</v>
       </c>
       <c r="AA64" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.62842892768079806</v>
       </c>
       <c r="AB64" s="1">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>0.57558139534883723</v>
       </c>
     </row>
-    <row r="65" spans="1:29" ht="14.5">
+    <row r="65" spans="1:29">
       <c r="A65" s="1">
         <v>27</v>
       </c>
@@ -4287,15 +4287,15 @@
         <v>0.40740740740740738</v>
       </c>
       <c r="O65" s="1">
-        <f>J65*B65</f>
+        <f t="shared" si="16"/>
         <v>0.40740740740740738</v>
       </c>
       <c r="P65" s="1">
-        <f>K65*C65</f>
+        <f t="shared" si="17"/>
         <v>0.48148148148148145</v>
       </c>
       <c r="Q65" s="1">
-        <f>L65*D65</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T65" s="1">
@@ -4314,15 +4314,15 @@
         <v>1</v>
       </c>
       <c r="Z65" s="1">
-        <f t="shared" ref="Z65:AB65" si="23">(1 + $Y$2^2) * (Z49*$Y49/($Y$2^2 * Z49 +$Y49))</f>
+        <f t="shared" ref="Z65:AB65" si="31">(1 + $Y$2^2) * (Z49*$Y49/($Y$2^2 * Z49 +$Y49))</f>
         <v>0.57894736842105254</v>
       </c>
       <c r="AA65" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.65116279069767447</v>
       </c>
       <c r="AB65" s="1">
-        <f t="shared" si="23"/>
+        <f t="shared" si="31"/>
         <v>0.57142857142857151</v>
       </c>
     </row>
@@ -4352,15 +4352,15 @@
         <v>0.39285714285714285</v>
       </c>
       <c r="O66" s="1">
-        <f>J66*B66</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P66" s="1">
-        <f>K66*C66</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q66" s="1">
-        <f>L66*D66</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T66" s="1">
@@ -4402,15 +4402,15 @@
         <v>0.37931034482758619</v>
       </c>
       <c r="O67" s="1">
-        <f>J67*B67</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P67" s="1">
-        <f>K67*C67</f>
+        <f t="shared" si="17"/>
         <v>0.48275862068965519</v>
       </c>
       <c r="Q67" s="1">
-        <f>L67*D67</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="T67" s="1">
@@ -4452,15 +4452,15 @@
         <v>0.4</v>
       </c>
       <c r="O68" s="1">
-        <f>J68*B68</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P68" s="1">
-        <f>K68*C68</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Q68" s="1">
-        <f>L68*D68</f>
+        <f t="shared" si="18"/>
         <v>0.4</v>
       </c>
       <c r="T68" s="1">
@@ -4476,7 +4476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:29" ht="14.75">
+    <row r="69" spans="1:29" ht="15">
       <c r="I69" s="5" t="s">
         <v>8</v>
       </c>
@@ -4500,34 +4500,34 @@
       </c>
     </row>
     <row r="72" spans="1:29" ht="15" customHeight="1">
-      <c r="J72" s="8" t="s">
+      <c r="J72" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K72" s="8"/>
-      <c r="L72" s="8"/>
-      <c r="M72" s="8"/>
-      <c r="O72" s="8" t="s">
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="O72" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P72" s="8"/>
-      <c r="Q72" s="8"/>
-      <c r="R72" s="8"/>
-      <c r="T72" s="8" t="s">
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="T72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U72" s="8"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="8"/>
-      <c r="X72" s="9"/>
-      <c r="Y72" s="9"/>
-      <c r="Z72" s="8" t="s">
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
+      <c r="W72" s="9"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="8"/>
+      <c r="Z72" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA72" s="8"/>
-      <c r="AB72" s="8"/>
-      <c r="AC72" s="8"/>
-    </row>
-    <row r="73" spans="1:29" ht="14.5">
+      <c r="AA72" s="9"/>
+      <c r="AB72" s="9"/>
+      <c r="AC72" s="9"/>
+    </row>
+    <row r="73" spans="1:29">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -4595,7 +4595,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:29" ht="14.5">
+    <row r="74" spans="1:29">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -4621,15 +4621,15 @@
         <v>1</v>
       </c>
       <c r="O74" s="1">
-        <f>J74*B74</f>
+        <f t="shared" ref="O74:O105" si="32">J74*B74</f>
         <v>1</v>
       </c>
       <c r="P74" s="1">
-        <f>K74*C74</f>
+        <f t="shared" ref="P74:P105" si="33">K74*C74</f>
         <v>0</v>
       </c>
       <c r="Q74" s="1">
-        <f>L74*D74</f>
+        <f t="shared" ref="Q74:Q105" si="34">L74*D74</f>
         <v>1</v>
       </c>
       <c r="T74" s="1">
@@ -4642,25 +4642,25 @@
       </c>
       <c r="V74" s="1">
         <f>SUMIF(D$74:D74,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>3.3333333333333333E-2</v>
+        <v>2.1739130434782608E-2</v>
       </c>
       <c r="Y74" s="4">
         <v>0</v>
       </c>
       <c r="Z74" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y74)</f>
+        <f t="shared" ref="Z74:Z84" si="35">_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y74)</f>
         <v>1</v>
       </c>
       <c r="AA74" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y74)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" ref="AA74:AA84" si="36">_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y74)</f>
+        <v>0.15</v>
       </c>
       <c r="AB74" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y74)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:29" ht="14.5">
+        <f t="shared" ref="AB74:AB84" si="37">_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y74)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:29">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -4686,15 +4686,15 @@
         <v>1</v>
       </c>
       <c r="O75" s="1">
-        <f>J75*B75</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P75" s="1">
-        <f>K75*C75</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q75" s="1">
-        <f>L75*D75</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T75" s="1">
@@ -4707,25 +4707,25 @@
       </c>
       <c r="V75" s="1">
         <f>SUMIF(D$74:D75,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>6.6666666666666666E-2</v>
+        <v>4.3478260869565216E-2</v>
       </c>
       <c r="Y75" s="4">
         <v>0.1</v>
       </c>
       <c r="Z75" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y75)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA75" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y75)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB75" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y75)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:29">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -4751,15 +4751,15 @@
         <v>1</v>
       </c>
       <c r="O76" s="1">
-        <f>J76*B76</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P76" s="1">
-        <f>K76*C76</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q76" s="1">
-        <f>L76*D76</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T76" s="1">
@@ -4772,25 +4772,25 @@
       </c>
       <c r="V76" s="1">
         <f>SUMIF(D$74:D76,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.1</v>
+        <v>6.5217391304347824E-2</v>
       </c>
       <c r="Y76" s="4">
         <v>0.2</v>
       </c>
       <c r="Z76" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y76)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA76" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y76)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB76" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y76)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:29">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -4816,15 +4816,15 @@
         <v>1</v>
       </c>
       <c r="O77" s="1">
-        <f>J77*B77</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P77" s="1">
-        <f>K77*C77</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q77" s="1">
-        <f>L77*D77</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T77" s="1">
@@ -4837,25 +4837,25 @@
       </c>
       <c r="V77" s="1">
         <f>SUMIF(D$74:D77,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.13333333333333333</v>
+        <v>8.6956521739130432E-2</v>
       </c>
       <c r="Y77" s="4">
         <v>0.3</v>
       </c>
       <c r="Z77" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y77)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA77" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y77)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB77" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y77)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:29">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -4881,15 +4881,15 @@
         <v>1</v>
       </c>
       <c r="O78" s="1">
-        <f>J78*B78</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P78" s="1">
-        <f>K78*C78</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q78" s="1">
-        <f>L78*D78</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T78" s="1">
@@ -4902,25 +4902,25 @@
       </c>
       <c r="V78" s="1">
         <f>SUMIF(D$74:D78,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.16666666666666666</v>
+        <v>0.10869565217391304</v>
       </c>
       <c r="Y78" s="4">
         <v>0.4</v>
       </c>
       <c r="Z78" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y78)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA78" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y78)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB78" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y78)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:29">
       <c r="A79" s="1">
         <v>6</v>
       </c>
@@ -4946,15 +4946,15 @@
         <v>1</v>
       </c>
       <c r="O79" s="1">
-        <f>J79*B79</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P79" s="1">
-        <f>K79*C79</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q79" s="1">
-        <f>L79*D79</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T79" s="1">
@@ -4967,25 +4967,25 @@
       </c>
       <c r="V79" s="1">
         <f>SUMIF(D$74:D79,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="Y79" s="4">
         <v>0.5</v>
       </c>
       <c r="Z79" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y79)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA79" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y79)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB79" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y79)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:29">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -5011,15 +5011,15 @@
         <v>1</v>
       </c>
       <c r="O80" s="1">
-        <f>J80*B80</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P80" s="1">
-        <f>K80*C80</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q80" s="1">
-        <f>L80*D80</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T80" s="1">
@@ -5032,25 +5032,25 @@
       </c>
       <c r="V80" s="1">
         <f>SUMIF(D$74:D80,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.23333333333333334</v>
+        <v>0.15217391304347827</v>
       </c>
       <c r="Y80" s="4">
         <v>0.6</v>
       </c>
       <c r="Z80" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y80)</f>
+        <f t="shared" si="35"/>
         <v>1</v>
       </c>
       <c r="AA80" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y80)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB80" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y80)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:29">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -5076,15 +5076,15 @@
         <v>1</v>
       </c>
       <c r="O81" s="1">
-        <f>J81*B81</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P81" s="1">
-        <f>K81*C81</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q81" s="1">
-        <f>L81*D81</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T81" s="1">
@@ -5097,25 +5097,25 @@
       </c>
       <c r="V81" s="1">
         <f>SUMIF(D$74:D81,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.26666666666666666</v>
+        <v>0.17391304347826086</v>
       </c>
       <c r="Y81" s="4">
         <v>0.7</v>
       </c>
       <c r="Z81" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y81)</f>
+        <f t="shared" si="35"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="AA81" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y81)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB81" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y81)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>0.94285714285714284</v>
+      </c>
+    </row>
+    <row r="82" spans="1:29">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -5141,15 +5141,15 @@
         <v>1</v>
       </c>
       <c r="O82" s="1">
-        <f>J82*B82</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P82" s="1">
-        <f>K82*C82</f>
+        <f t="shared" si="33"/>
         <v>0.1111111111111111</v>
       </c>
       <c r="Q82" s="1">
-        <f>L82*D82</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T82" s="1">
@@ -5158,29 +5158,29 @@
       </c>
       <c r="U82" s="1">
         <f>SUMIF(C$74:C82,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V82" s="1">
         <f>SUMIF(D$74:D82,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.3</v>
+        <v>0.19565217391304349</v>
       </c>
       <c r="Y82" s="4">
         <v>0.8</v>
       </c>
       <c r="Z82" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y82)</f>
+        <f t="shared" si="35"/>
         <v>0.91111111111111109</v>
       </c>
       <c r="AA82" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y82)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.15</v>
       </c>
       <c r="AB82" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y82)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>0.91111111111111109</v>
+      </c>
+    </row>
+    <row r="83" spans="1:29">
       <c r="A83" s="1">
         <v>10</v>
       </c>
@@ -5206,15 +5206,15 @@
         <v>1</v>
       </c>
       <c r="O83" s="1">
-        <f>J83*B83</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P83" s="1">
-        <f>K83*C83</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q83" s="1">
-        <f>L83*D83</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T83" s="1">
@@ -5223,29 +5223,29 @@
       </c>
       <c r="U83" s="1">
         <f>SUMIF(C$74:C83,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V83" s="1">
         <f>SUMIF(D$74:D83,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.21739130434782608</v>
       </c>
       <c r="Y83" s="4">
         <v>0.9</v>
       </c>
       <c r="Z83" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y83)</f>
+        <f t="shared" si="35"/>
         <v>0.8936170212765957</v>
       </c>
       <c r="AA83" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y83)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="AB83" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y83)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:29" ht="14.5">
+        <f t="shared" si="37"/>
+        <v>0.8936170212765957</v>
+      </c>
+    </row>
+    <row r="84" spans="1:29">
       <c r="A84" s="1">
         <v>11</v>
       </c>
@@ -5271,15 +5271,15 @@
         <v>1</v>
       </c>
       <c r="O84" s="1">
-        <f>J84*B84</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P84" s="1">
-        <f>K84*C84</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q84" s="1">
-        <f>L84*D84</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T84" s="1">
@@ -5288,26 +5288,26 @@
       </c>
       <c r="U84" s="1">
         <f>SUMIF(C$74:C84,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V84" s="1">
         <f>SUMIF(D$74:D84,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.36666666666666664</v>
+        <v>0.2391304347826087</v>
       </c>
       <c r="Y84" s="4">
         <v>1</v>
       </c>
       <c r="Z84" s="1">
-        <f>_xlfn.MAXIFS(J$74:J$133,T$74:T$133,"&gt;="&amp;$Y84)</f>
+        <f t="shared" si="35"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="AA84" s="1">
-        <f>_xlfn.MAXIFS(K$74:K$133,U$74:U$133,"&gt;="&amp;$Y84)</f>
-        <v>0.13636363636363635</v>
+        <f t="shared" si="36"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="AB84" s="1">
-        <f>_xlfn.MAXIFS(L$74:L$133,V$74:V$133,"&gt;="&amp;$Y84)</f>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>0.76666666666666672</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -5336,15 +5336,15 @@
         <v>1</v>
       </c>
       <c r="O85" s="1">
-        <f>J85*B85</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P85" s="1">
-        <f>K85*C85</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q85" s="1">
-        <f>L85*D85</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T85" s="1">
@@ -5353,11 +5353,11 @@
       </c>
       <c r="U85" s="1">
         <f>SUMIF(C$74:C85,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V85" s="1">
         <f>SUMIF(D$74:D85,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.4</v>
+        <v>0.2608695652173913</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -5386,15 +5386,15 @@
         <v>1</v>
       </c>
       <c r="O86" s="1">
-        <f>J86*B86</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P86" s="1">
-        <f>K86*C86</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q86" s="1">
-        <f>L86*D86</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T86" s="1">
@@ -5403,11 +5403,11 @@
       </c>
       <c r="U86" s="1">
         <f>SUMIF(C$74:C86,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V86" s="1">
         <f>SUMIF(D$74:D86,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.43333333333333335</v>
+        <v>0.28260869565217389</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -5436,15 +5436,15 @@
         <v>1</v>
       </c>
       <c r="O87" s="1">
-        <f>J87*B87</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P87" s="1">
-        <f>K87*C87</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q87" s="1">
-        <f>L87*D87</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T87" s="1">
@@ -5453,14 +5453,14 @@
       </c>
       <c r="U87" s="1">
         <f>SUMIF(C$74:C87,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V87" s="1">
         <f>SUMIF(D$74:D87,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.46666666666666667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:29" ht="14.5">
+        <v>0.30434782608695654</v>
+      </c>
+    </row>
+    <row r="88" spans="1:29">
       <c r="A88" s="1">
         <v>15</v>
       </c>
@@ -5486,15 +5486,15 @@
         <v>1</v>
       </c>
       <c r="O88" s="1">
-        <f>J88*B88</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P88" s="1">
-        <f>K88*C88</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q88" s="1">
-        <f>L88*D88</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T88" s="1">
@@ -5503,20 +5503,20 @@
       </c>
       <c r="U88" s="1">
         <f>SUMIF(C$74:C88,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.33333333333333331</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="V88" s="1">
         <f>SUMIF(D$74:D88,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.5</v>
-      </c>
-      <c r="Z88" s="8" t="s">
+        <v>0.32608695652173914</v>
+      </c>
+      <c r="Z88" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA88" s="8"/>
-      <c r="AB88" s="8"/>
-      <c r="AC88" s="8"/>
-    </row>
-    <row r="89" spans="1:29" ht="14.5">
+      <c r="AA88" s="9"/>
+      <c r="AB88" s="9"/>
+      <c r="AC88" s="9"/>
+    </row>
+    <row r="89" spans="1:29">
       <c r="A89" s="1">
         <v>16</v>
       </c>
@@ -5542,15 +5542,15 @@
         <v>1</v>
       </c>
       <c r="O89" s="1">
-        <f>J89*B89</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P89" s="1">
-        <f>K89*C89</f>
+        <f t="shared" si="33"/>
         <v>0.125</v>
       </c>
       <c r="Q89" s="1">
-        <f>L89*D89</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T89" s="1">
@@ -5559,11 +5559,11 @@
       </c>
       <c r="U89" s="1">
         <f>SUMIF(C$74:C89,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V89" s="1">
         <f>SUMIF(D$74:D89,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.53333333333333333</v>
+        <v>0.34782608695652173</v>
       </c>
       <c r="Y89" s="3" t="s">
         <v>11</v>
@@ -5581,7 +5581,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:29" ht="14.5">
+    <row r="90" spans="1:29">
       <c r="A90" s="1">
         <v>17</v>
       </c>
@@ -5607,15 +5607,15 @@
         <v>1</v>
       </c>
       <c r="O90" s="1">
-        <f>J90*B90</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P90" s="1">
-        <f>K90*C90</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q90" s="1">
-        <f>L90*D90</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T90" s="1">
@@ -5624,11 +5624,11 @@
       </c>
       <c r="U90" s="1">
         <f>SUMIF(C$74:C90,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V90" s="1">
         <f>SUMIF(D$74:D90,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.56666666666666665</v>
+        <v>0.36956521739130432</v>
       </c>
       <c r="Y90" s="4">
         <v>0</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" ht="14.5">
+    <row r="91" spans="1:29">
       <c r="A91" s="1">
         <v>18</v>
       </c>
@@ -5672,15 +5672,15 @@
         <v>1</v>
       </c>
       <c r="O91" s="1">
-        <f>J91*B91</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P91" s="1">
-        <f>K91*C91</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q91" s="1">
-        <f>L91*D91</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T91" s="1">
@@ -5689,29 +5689,29 @@
       </c>
       <c r="U91" s="1">
         <f>SUMIF(C$74:C91,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V91" s="1">
         <f>SUMIF(D$74:D91,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.6</v>
+        <v>0.39130434782608697</v>
       </c>
       <c r="Y91" s="4">
         <v>0.1</v>
       </c>
       <c r="Z91" s="1">
-        <f t="shared" ref="Z91:AB91" si="24">(1 + $Y$2^2) * (Z75*$Y75/($Y$2^2 * Z75 +$Y75))</f>
+        <f t="shared" ref="Z91:AB91" si="38">(1 + $Y$2^2) * (Z75*$Y75/($Y$2^2 * Z75 +$Y75))</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="AA91" s="1">
-        <f t="shared" si="24"/>
-        <v>0.11538461538461538</v>
+        <f t="shared" si="38"/>
+        <v>0.12</v>
       </c>
       <c r="AB91" s="1">
-        <f t="shared" si="24"/>
+        <f t="shared" si="38"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="92" spans="1:29" ht="14.5">
+    <row r="92" spans="1:29">
       <c r="A92" s="1">
         <v>19</v>
       </c>
@@ -5737,15 +5737,15 @@
         <v>1</v>
       </c>
       <c r="O92" s="1">
-        <f>J92*B92</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P92" s="1">
-        <f>K92*C92</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q92" s="1">
-        <f>L92*D92</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T92" s="1">
@@ -5754,29 +5754,29 @@
       </c>
       <c r="U92" s="1">
         <f>SUMIF(C$74:C92,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V92" s="1">
         <f>SUMIF(D$74:D92,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.6333333333333333</v>
+        <v>0.41304347826086957</v>
       </c>
       <c r="Y92" s="4">
         <v>0.2</v>
       </c>
       <c r="Z92" s="1">
-        <f t="shared" ref="Z92:AB92" si="25">(1 + $Y$2^2) * (Z76*$Y76/($Y$2^2 * Z76 +$Y76))</f>
+        <f t="shared" ref="Z92:AB92" si="39">(1 + $Y$2^2) * (Z76*$Y76/($Y$2^2 * Z76 +$Y76))</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="AA92" s="1">
-        <f t="shared" si="25"/>
-        <v>0.16216216216216214</v>
+        <f t="shared" si="39"/>
+        <v>0.17142857142857143</v>
       </c>
       <c r="AB92" s="1">
-        <f t="shared" si="25"/>
+        <f t="shared" si="39"/>
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="93" spans="1:29" ht="14.5">
+    <row r="93" spans="1:29">
       <c r="A93" s="1">
         <v>20</v>
       </c>
@@ -5802,15 +5802,15 @@
         <v>1</v>
       </c>
       <c r="O93" s="1">
-        <f>J93*B93</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P93" s="1">
-        <f>K93*C93</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q93" s="1">
-        <f>L93*D93</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T93" s="1">
@@ -5819,29 +5819,29 @@
       </c>
       <c r="U93" s="1">
         <f>SUMIF(C$74:C93,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V93" s="1">
         <f>SUMIF(D$74:D93,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.43478260869565216</v>
       </c>
       <c r="Y93" s="4">
         <v>0.3</v>
       </c>
       <c r="Z93" s="1">
-        <f t="shared" ref="Z93:AB93" si="26">(1 + $Y$2^2) * (Z77*$Y77/($Y$2^2 * Z77 +$Y77))</f>
+        <f t="shared" ref="Z93:AB93" si="40">(1 + $Y$2^2) * (Z77*$Y77/($Y$2^2 * Z77 +$Y77))</f>
         <v>0.46153846153846151</v>
       </c>
       <c r="AA93" s="1">
-        <f t="shared" si="26"/>
-        <v>0.18749999999999997</v>
+        <f t="shared" si="40"/>
+        <v>0.2</v>
       </c>
       <c r="AB93" s="1">
-        <f t="shared" si="26"/>
+        <f t="shared" si="40"/>
         <v>0.46153846153846151</v>
       </c>
     </row>
-    <row r="94" spans="1:29" ht="14.5">
+    <row r="94" spans="1:29">
       <c r="A94" s="1">
         <v>21</v>
       </c>
@@ -5867,15 +5867,15 @@
         <v>1</v>
       </c>
       <c r="O94" s="1">
-        <f>J94*B94</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P94" s="1">
-        <f>K94*C94</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q94" s="1">
-        <f>L94*D94</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T94" s="1">
@@ -5884,29 +5884,29 @@
       </c>
       <c r="U94" s="1">
         <f>SUMIF(C$74:C94,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>0.66666666666666663</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="V94" s="1">
         <f>SUMIF(D$74:D94,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.7</v>
+        <v>0.45652173913043476</v>
       </c>
       <c r="Y94" s="4">
         <v>0.4</v>
       </c>
       <c r="Z94" s="1">
-        <f t="shared" ref="Z94:AB94" si="27">(1 + $Y$2^2) * (Z78*$Y78/($Y$2^2 * Z78 +$Y78))</f>
+        <f t="shared" ref="Z94:AB94" si="41">(1 + $Y$2^2) * (Z78*$Y78/($Y$2^2 * Z78 +$Y78))</f>
         <v>0.57142857142857151</v>
       </c>
       <c r="AA94" s="1">
-        <f t="shared" si="27"/>
-        <v>0.20338983050847456</v>
+        <f t="shared" si="41"/>
+        <v>0.21818181818181814</v>
       </c>
       <c r="AB94" s="1">
-        <f t="shared" si="27"/>
+        <f t="shared" si="41"/>
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="95" spans="1:29" ht="14.5">
+    <row r="95" spans="1:29">
       <c r="A95" s="1">
         <v>22</v>
       </c>
@@ -5932,15 +5932,15 @@
         <v>1</v>
       </c>
       <c r="O95" s="1">
-        <f>J95*B95</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P95" s="1">
-        <f>K95*C95</f>
+        <f t="shared" si="33"/>
         <v>0.13636363636363635</v>
       </c>
       <c r="Q95" s="1">
-        <f>L95*D95</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T95" s="1">
@@ -5949,29 +5949,29 @@
       </c>
       <c r="U95" s="1">
         <f>SUMIF(C$74:C95,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V95" s="1">
         <f>SUMIF(D$74:D95,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.73333333333333328</v>
+        <v>0.47826086956521741</v>
       </c>
       <c r="Y95" s="4">
         <v>0.5</v>
       </c>
       <c r="Z95" s="1">
-        <f t="shared" ref="Z95:AB95" si="28">(1 + $Y$2^2) * (Z79*$Y79/($Y$2^2 * Z79 +$Y79))</f>
+        <f t="shared" ref="Z95:AB95" si="42">(1 + $Y$2^2) * (Z79*$Y79/($Y$2^2 * Z79 +$Y79))</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="AA95" s="1">
-        <f t="shared" si="28"/>
-        <v>0.21428571428571427</v>
+        <f t="shared" si="42"/>
+        <v>0.23076923076923075</v>
       </c>
       <c r="AB95" s="1">
-        <f t="shared" si="28"/>
+        <f t="shared" si="42"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="96" spans="1:29" ht="14.5">
+    <row r="96" spans="1:29">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -5997,15 +5997,15 @@
         <v>1</v>
       </c>
       <c r="O96" s="1">
-        <f>J96*B96</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P96" s="1">
-        <f>K96*C96</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q96" s="1">
-        <f>L96*D96</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T96" s="1">
@@ -6014,29 +6014,29 @@
       </c>
       <c r="U96" s="1">
         <f>SUMIF(C$74:C96,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V96" s="1">
         <f>SUMIF(D$74:D96,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.76666666666666672</v>
+        <v>0.5</v>
       </c>
       <c r="Y96" s="4">
         <v>0.6</v>
       </c>
       <c r="Z96" s="1">
-        <f t="shared" ref="Z96:AB96" si="29">(1 + $Y$2^2) * (Z80*$Y80/($Y$2^2 * Z80 +$Y80))</f>
+        <f t="shared" ref="Z96:AB96" si="43">(1 + $Y$2^2) * (Z80*$Y80/($Y$2^2 * Z80 +$Y80))</f>
         <v>0.74999999999999989</v>
       </c>
       <c r="AA96" s="1">
-        <f t="shared" si="29"/>
-        <v>0.22222222222222218</v>
+        <f t="shared" si="43"/>
+        <v>0.24</v>
       </c>
       <c r="AB96" s="1">
-        <f t="shared" si="29"/>
+        <f t="shared" si="43"/>
         <v>0.74999999999999989</v>
       </c>
     </row>
-    <row r="97" spans="1:28" ht="14.5">
+    <row r="97" spans="1:28">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -6062,15 +6062,15 @@
         <v>1</v>
       </c>
       <c r="O97" s="1">
-        <f>J97*B97</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P97" s="1">
-        <f>K97*C97</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q97" s="1">
-        <f>L97*D97</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T97" s="1">
@@ -6079,29 +6079,29 @@
       </c>
       <c r="U97" s="1">
         <f>SUMIF(C$74:C97,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V97" s="1">
         <f>SUMIF(D$74:D97,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.8</v>
+        <v>0.52173913043478259</v>
       </c>
       <c r="Y97" s="4">
         <v>0.7</v>
       </c>
       <c r="Z97" s="1">
-        <f t="shared" ref="Z97:AB97" si="30">(1 + $Y$2^2) * (Z81*$Y81/($Y$2^2 * Z81 +$Y81))</f>
+        <f t="shared" ref="Z97:AB97" si="44">(1 + $Y$2^2) * (Z81*$Y81/($Y$2^2 * Z81 +$Y81))</f>
         <v>0.8034782608695652</v>
       </c>
       <c r="AA97" s="1">
-        <f t="shared" si="30"/>
-        <v>0.22826086956521738</v>
+        <f t="shared" si="44"/>
+        <v>0.24705882352941178</v>
       </c>
       <c r="AB97" s="1">
-        <f t="shared" si="30"/>
-        <v>0.82352941176470584</v>
-      </c>
-    </row>
-    <row r="98" spans="1:28" ht="14.5">
+        <f t="shared" si="44"/>
+        <v>0.8034782608695652</v>
+      </c>
+    </row>
+    <row r="98" spans="1:28">
       <c r="A98" s="1">
         <v>25</v>
       </c>
@@ -6127,15 +6127,15 @@
         <v>1</v>
       </c>
       <c r="O98" s="1">
-        <f>J98*B98</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P98" s="1">
-        <f>K98*C98</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q98" s="1">
-        <f>L98*D98</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T98" s="1">
@@ -6144,29 +6144,29 @@
       </c>
       <c r="U98" s="1">
         <f>SUMIF(C$74:C98,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V98" s="1">
         <f>SUMIF(D$74:D98,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.83333333333333337</v>
+        <v>0.54347826086956519</v>
       </c>
       <c r="Y98" s="4">
         <v>0.8</v>
       </c>
       <c r="Z98" s="1">
-        <f t="shared" ref="Z98:AB98" si="31">(1 + $Y$2^2) * (Z82*$Y82/($Y$2^2 * Z82 +$Y82))</f>
+        <f t="shared" ref="Z98:AB98" si="45">(1 + $Y$2^2) * (Z82*$Y82/($Y$2^2 * Z82 +$Y82))</f>
         <v>0.8519480519480519</v>
       </c>
       <c r="AA98" s="1">
-        <f t="shared" si="31"/>
-        <v>0.23300970873786406</v>
+        <f t="shared" si="45"/>
+        <v>0.25263157894736837</v>
       </c>
       <c r="AB98" s="1">
-        <f t="shared" si="31"/>
-        <v>0.88888888888888895</v>
-      </c>
-    </row>
-    <row r="99" spans="1:28" ht="14.5">
+        <f t="shared" si="45"/>
+        <v>0.8519480519480519</v>
+      </c>
+    </row>
+    <row r="99" spans="1:28">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -6192,15 +6192,15 @@
         <v>1</v>
       </c>
       <c r="O99" s="1">
-        <f>J99*B99</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P99" s="1">
-        <f>K99*C99</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q99" s="1">
-        <f>L99*D99</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T99" s="1">
@@ -6209,29 +6209,29 @@
       </c>
       <c r="U99" s="1">
         <f>SUMIF(C$74:C99,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V99" s="1">
         <f>SUMIF(D$74:D99,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.8666666666666667</v>
+        <v>0.56521739130434778</v>
       </c>
       <c r="Y99" s="4">
         <v>0.9</v>
       </c>
       <c r="Z99" s="1">
-        <f t="shared" ref="Z99:AB99" si="32">(1 + $Y$2^2) * (Z83*$Y83/($Y$2^2 * Z83 +$Y83))</f>
+        <f t="shared" ref="Z99:AB99" si="46">(1 + $Y$2^2) * (Z83*$Y83/($Y$2^2 * Z83 +$Y83))</f>
         <v>0.89679715302491092</v>
       </c>
       <c r="AA99" s="1">
-        <f t="shared" si="32"/>
-        <v>0.23684210526315788</v>
+        <f t="shared" si="46"/>
+        <v>0.20655737704918037</v>
       </c>
       <c r="AB99" s="1">
-        <f t="shared" si="32"/>
-        <v>0.94736842105263164</v>
-      </c>
-    </row>
-    <row r="100" spans="1:28" ht="14.5">
+        <f t="shared" si="46"/>
+        <v>0.89679715302491092</v>
+      </c>
+    </row>
+    <row r="100" spans="1:28">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -6257,15 +6257,15 @@
         <v>1</v>
       </c>
       <c r="O100" s="1">
-        <f>J100*B100</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P100" s="1">
-        <f>K100*C100</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q100" s="1">
-        <f>L100*D100</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T100" s="1">
@@ -6274,26 +6274,26 @@
       </c>
       <c r="U100" s="1">
         <f>SUMIF(C$74:C100,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V100" s="1">
         <f>SUMIF(D$74:D100,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.9</v>
+        <v>0.58695652173913049</v>
       </c>
       <c r="Y100" s="4">
         <v>1</v>
       </c>
       <c r="Z100" s="1">
-        <f t="shared" ref="Z100:AB100" si="33">(1 + $Y$2^2) * (Z84*$Y84/($Y$2^2 * Z84 +$Y84))</f>
+        <f t="shared" ref="Z100:AB100" si="47">(1 + $Y$2^2) * (Z84*$Y84/($Y$2^2 * Z84 +$Y84))</f>
         <v>0.86792452830188693</v>
       </c>
       <c r="AA100" s="1">
-        <f t="shared" si="33"/>
-        <v>0.24000000000000002</v>
+        <f t="shared" si="47"/>
+        <v>0.20895522388059701</v>
       </c>
       <c r="AB100" s="1">
-        <f t="shared" si="33"/>
-        <v>1</v>
+        <f t="shared" si="47"/>
+        <v>0.86792452830188693</v>
       </c>
     </row>
     <row r="101" spans="1:28">
@@ -6322,15 +6322,15 @@
         <v>1</v>
       </c>
       <c r="O101" s="1">
-        <f>J101*B101</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P101" s="1">
-        <f>K101*C101</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q101" s="1">
-        <f>L101*D101</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T101" s="1">
@@ -6339,11 +6339,11 @@
       </c>
       <c r="U101" s="1">
         <f>SUMIF(C$74:C101,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V101" s="1">
         <f>SUMIF(D$74:D101,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.93333333333333335</v>
+        <v>0.60869565217391308</v>
       </c>
     </row>
     <row r="102" spans="1:28">
@@ -6372,15 +6372,15 @@
         <v>1</v>
       </c>
       <c r="O102" s="1">
-        <f>J102*B102</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P102" s="1">
-        <f>K102*C102</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q102" s="1">
-        <f>L102*D102</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T102" s="1">
@@ -6389,11 +6389,11 @@
       </c>
       <c r="U102" s="1">
         <f>SUMIF(C$74:C102,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V102" s="1">
         <f>SUMIF(D$74:D102,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>0.96666666666666667</v>
+        <v>0.63043478260869568</v>
       </c>
     </row>
     <row r="103" spans="1:28">
@@ -6422,15 +6422,15 @@
         <v>1</v>
       </c>
       <c r="O103" s="1">
-        <f>J103*B103</f>
+        <f t="shared" si="32"/>
         <v>1</v>
       </c>
       <c r="P103" s="1">
-        <f>K103*C103</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q103" s="1">
-        <f>L103*D103</f>
+        <f t="shared" si="34"/>
         <v>1</v>
       </c>
       <c r="T103" s="1">
@@ -6439,11 +6439,11 @@
       </c>
       <c r="U103" s="1">
         <f>SUMIF(C$74:C103,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V103" s="1">
         <f>SUMIF(D$74:D103,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="104" spans="1:28">
@@ -6453,6 +6453,12 @@
       <c r="B104" s="1">
         <v>0</v>
       </c>
+      <c r="C104" s="1">
+        <v>0</v>
+      </c>
+      <c r="D104" s="1">
+        <v>0</v>
+      </c>
       <c r="J104" s="1">
         <f>SUM(B$74:B104)/A104</f>
         <v>0.967741935483871</v>
@@ -6466,15 +6472,15 @@
         <v>0.967741935483871</v>
       </c>
       <c r="O104" s="1">
-        <f>J104*B104</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P104" s="1">
-        <f>K104*C104</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q104" s="1">
-        <f>L104*D104</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T104" s="1">
@@ -6483,11 +6489,11 @@
       </c>
       <c r="U104" s="1">
         <f>SUMIF(C$74:C104,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V104" s="1">
         <f>SUMIF(D$74:D104,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="105" spans="1:28">
@@ -6497,6 +6503,12 @@
       <c r="B105" s="1">
         <v>0</v>
       </c>
+      <c r="C105" s="1">
+        <v>0</v>
+      </c>
+      <c r="D105" s="1">
+        <v>0</v>
+      </c>
       <c r="J105" s="1">
         <f>SUM(B$74:B105)/A105</f>
         <v>0.9375</v>
@@ -6510,15 +6522,15 @@
         <v>0.9375</v>
       </c>
       <c r="O105" s="1">
-        <f>J105*B105</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="P105" s="1">
-        <f>K105*C105</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="Q105" s="1">
-        <f>L105*D105</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="T105" s="1">
@@ -6527,11 +6539,11 @@
       </c>
       <c r="U105" s="1">
         <f>SUMIF(C$74:C105,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V105" s="1">
         <f>SUMIF(D$74:D105,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.65217391304347827</v>
       </c>
     </row>
     <row r="106" spans="1:28">
@@ -6541,6 +6553,12 @@
       <c r="B106" s="1">
         <v>1</v>
       </c>
+      <c r="C106" s="1">
+        <v>0</v>
+      </c>
+      <c r="D106" s="1">
+        <v>1</v>
+      </c>
       <c r="J106" s="1">
         <f>SUM(B$74:B106)/A106</f>
         <v>0.93939393939393945</v>
@@ -6551,19 +6569,19 @@
       </c>
       <c r="L106" s="1">
         <f>SUM(D$74:D106)/$A106</f>
-        <v>0.90909090909090906</v>
+        <v>0.93939393939393945</v>
       </c>
       <c r="O106" s="1">
-        <f>J106*B106</f>
+        <f t="shared" ref="O106:O133" si="48">J106*B106</f>
         <v>0.93939393939393945</v>
       </c>
       <c r="P106" s="1">
-        <f>K106*C106</f>
+        <f t="shared" ref="P106:P133" si="49">K106*C106</f>
         <v>0</v>
       </c>
       <c r="Q106" s="1">
-        <f>L106*D106</f>
-        <v>0</v>
+        <f t="shared" ref="Q106:Q133" si="50">L106*D106</f>
+        <v>0.93939393939393945</v>
       </c>
       <c r="T106" s="1">
         <f>SUMIF(B$74:B106,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6571,11 +6589,11 @@
       </c>
       <c r="U106" s="1">
         <f>SUMIF(C$74:C106,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V106" s="1">
         <f>SUMIF(D$74:D106,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.67391304347826086</v>
       </c>
     </row>
     <row r="107" spans="1:28">
@@ -6585,6 +6603,12 @@
       <c r="B107" s="1">
         <v>1</v>
       </c>
+      <c r="C107" s="1">
+        <v>0</v>
+      </c>
+      <c r="D107" s="1">
+        <v>1</v>
+      </c>
       <c r="J107" s="1">
         <f>SUM(B$74:B107)/A107</f>
         <v>0.94117647058823528</v>
@@ -6595,19 +6619,19 @@
       </c>
       <c r="L107" s="1">
         <f>SUM(D$74:D107)/$A107</f>
-        <v>0.88235294117647056</v>
+        <v>0.94117647058823528</v>
       </c>
       <c r="O107" s="1">
-        <f>J107*B107</f>
+        <f t="shared" si="48"/>
         <v>0.94117647058823528</v>
       </c>
       <c r="P107" s="1">
-        <f>K107*C107</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q107" s="1">
-        <f>L107*D107</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.94117647058823528</v>
       </c>
       <c r="T107" s="1">
         <f>SUMIF(B$74:B107,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6615,11 +6639,11 @@
       </c>
       <c r="U107" s="1">
         <f>SUMIF(C$74:C107,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.42857142857142855</v>
       </c>
       <c r="V107" s="1">
         <f>SUMIF(D$74:D107,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.69565217391304346</v>
       </c>
     </row>
     <row r="108" spans="1:28">
@@ -6629,29 +6653,35 @@
       <c r="B108" s="1">
         <v>1</v>
       </c>
+      <c r="C108" s="1">
+        <v>1</v>
+      </c>
+      <c r="D108" s="1">
+        <v>1</v>
+      </c>
       <c r="J108" s="1">
         <f>SUM(B$74:B108)/A108</f>
         <v>0.94285714285714284</v>
       </c>
       <c r="K108" s="1">
         <f>SUM(C$74:C108)/A108</f>
-        <v>8.5714285714285715E-2</v>
+        <v>0.11428571428571428</v>
       </c>
       <c r="L108" s="1">
         <f>SUM(D$74:D108)/$A108</f>
-        <v>0.8571428571428571</v>
+        <v>0.94285714285714284</v>
       </c>
       <c r="O108" s="1">
-        <f>J108*B108</f>
+        <f t="shared" si="48"/>
         <v>0.94285714285714284</v>
       </c>
       <c r="P108" s="1">
-        <f>K108*C108</f>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>0.11428571428571428</v>
       </c>
       <c r="Q108" s="1">
-        <f>L108*D108</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.94285714285714284</v>
       </c>
       <c r="T108" s="1">
         <f>SUMIF(B$74:B108,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6659,11 +6689,11 @@
       </c>
       <c r="U108" s="1">
         <f>SUMIF(C$74:C108,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V108" s="1">
         <f>SUMIF(D$74:D108,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="109" spans="1:28">
@@ -6673,28 +6703,34 @@
       <c r="B109" s="1">
         <v>0</v>
       </c>
+      <c r="C109" s="1">
+        <v>0</v>
+      </c>
+      <c r="D109" s="1">
+        <v>0</v>
+      </c>
       <c r="J109" s="1">
         <f>SUM(B$74:B109)/A109</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="K109" s="1">
         <f>SUM(C$74:C109)/A109</f>
-        <v>8.3333333333333329E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L109" s="1">
         <f>SUM(D$74:D109)/$A109</f>
-        <v>0.83333333333333337</v>
+        <v>0.91666666666666663</v>
       </c>
       <c r="O109" s="1">
-        <f>J109*B109</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P109" s="1">
-        <f>K109*C109</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q109" s="1">
-        <f>L109*D109</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T109" s="1">
@@ -6703,11 +6739,11 @@
       </c>
       <c r="U109" s="1">
         <f>SUMIF(C$74:C109,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V109" s="1">
         <f>SUMIF(D$74:D109,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="110" spans="1:28">
@@ -6717,28 +6753,34 @@
       <c r="B110" s="1">
         <v>0</v>
       </c>
+      <c r="C110" s="1">
+        <v>0</v>
+      </c>
+      <c r="D110" s="1">
+        <v>0</v>
+      </c>
       <c r="J110" s="1">
         <f>SUM(B$74:B110)/A110</f>
         <v>0.89189189189189189</v>
       </c>
       <c r="K110" s="1">
         <f>SUM(C$74:C110)/A110</f>
-        <v>8.1081081081081086E-2</v>
+        <v>0.10810810810810811</v>
       </c>
       <c r="L110" s="1">
         <f>SUM(D$74:D110)/$A110</f>
-        <v>0.81081081081081086</v>
+        <v>0.89189189189189189</v>
       </c>
       <c r="O110" s="1">
-        <f>J110*B110</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P110" s="1">
-        <f>K110*C110</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q110" s="1">
-        <f>L110*D110</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T110" s="1">
@@ -6747,11 +6789,11 @@
       </c>
       <c r="U110" s="1">
         <f>SUMIF(C$74:C110,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="V110" s="1">
         <f>SUMIF(D$74:D110,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.71739130434782605</v>
       </c>
     </row>
     <row r="111" spans="1:28">
@@ -6761,29 +6803,35 @@
       <c r="B111" s="1">
         <v>1</v>
       </c>
+      <c r="C111" s="1">
+        <v>1</v>
+      </c>
+      <c r="D111" s="1">
+        <v>1</v>
+      </c>
       <c r="J111" s="1">
         <f>SUM(B$74:B111)/A111</f>
         <v>0.89473684210526316</v>
       </c>
       <c r="K111" s="1">
         <f>SUM(C$74:C111)/A111</f>
-        <v>7.8947368421052627E-2</v>
+        <v>0.13157894736842105</v>
       </c>
       <c r="L111" s="1">
         <f>SUM(D$74:D111)/$A111</f>
-        <v>0.78947368421052633</v>
+        <v>0.89473684210526316</v>
       </c>
       <c r="O111" s="1">
-        <f>J111*B111</f>
+        <f t="shared" si="48"/>
         <v>0.89473684210526316</v>
       </c>
       <c r="P111" s="1">
-        <f>K111*C111</f>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>0.13157894736842105</v>
       </c>
       <c r="Q111" s="1">
-        <f>L111*D111</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.89473684210526316</v>
       </c>
       <c r="T111" s="1">
         <f>SUMIF(B$74:B111,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6791,11 +6839,11 @@
       </c>
       <c r="U111" s="1">
         <f>SUMIF(C$74:C111,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V111" s="1">
         <f>SUMIF(D$74:D111,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.73913043478260865</v>
       </c>
     </row>
     <row r="112" spans="1:28">
@@ -6805,29 +6853,35 @@
       <c r="B112" s="1">
         <v>1</v>
       </c>
+      <c r="C112" s="1">
+        <v>0</v>
+      </c>
+      <c r="D112" s="1">
+        <v>1</v>
+      </c>
       <c r="J112" s="1">
         <f>SUM(B$74:B112)/A112</f>
         <v>0.89743589743589747</v>
       </c>
       <c r="K112" s="1">
         <f>SUM(C$74:C112)/A112</f>
-        <v>7.6923076923076927E-2</v>
+        <v>0.12820512820512819</v>
       </c>
       <c r="L112" s="1">
         <f>SUM(D$74:D112)/$A112</f>
-        <v>0.76923076923076927</v>
+        <v>0.89743589743589747</v>
       </c>
       <c r="O112" s="1">
-        <f>J112*B112</f>
+        <f t="shared" si="48"/>
         <v>0.89743589743589747</v>
       </c>
       <c r="P112" s="1">
-        <f>K112*C112</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q112" s="1">
-        <f>L112*D112</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.89743589743589747</v>
       </c>
       <c r="T112" s="1">
         <f>SUMIF(B$74:B112,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6835,11 +6889,11 @@
       </c>
       <c r="U112" s="1">
         <f>SUMIF(C$74:C112,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="V112" s="1">
         <f>SUMIF(D$74:D112,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.76086956521739135</v>
       </c>
     </row>
     <row r="113" spans="1:22">
@@ -6849,29 +6903,35 @@
       <c r="B113" s="1">
         <v>1</v>
       </c>
+      <c r="C113" s="1">
+        <v>1</v>
+      </c>
+      <c r="D113" s="1">
+        <v>1</v>
+      </c>
       <c r="J113" s="1">
         <f>SUM(B$74:B113)/A113</f>
         <v>0.9</v>
       </c>
       <c r="K113" s="1">
         <f>SUM(C$74:C113)/A113</f>
-        <v>7.4999999999999997E-2</v>
+        <v>0.15</v>
       </c>
       <c r="L113" s="1">
         <f>SUM(D$74:D113)/$A113</f>
-        <v>0.75</v>
+        <v>0.9</v>
       </c>
       <c r="O113" s="1">
-        <f>J113*B113</f>
+        <f t="shared" si="48"/>
         <v>0.9</v>
       </c>
       <c r="P113" s="1">
-        <f>K113*C113</f>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>0.15</v>
       </c>
       <c r="Q113" s="1">
-        <f>L113*D113</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.9</v>
       </c>
       <c r="T113" s="1">
         <f>SUMIF(B$74:B113,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6879,11 +6939,11 @@
       </c>
       <c r="U113" s="1">
         <f>SUMIF(C$74:C113,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V113" s="1">
         <f>SUMIF(D$74:D113,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.78260869565217395</v>
       </c>
     </row>
     <row r="114" spans="1:22">
@@ -6893,29 +6953,35 @@
       <c r="B114" s="1">
         <v>1</v>
       </c>
+      <c r="C114" s="1">
+        <v>0</v>
+      </c>
+      <c r="D114" s="1">
+        <v>1</v>
+      </c>
       <c r="J114" s="1">
         <f>SUM(B$74:B114)/A114</f>
         <v>0.90243902439024393</v>
       </c>
       <c r="K114" s="1">
         <f>SUM(C$74:C114)/A114</f>
-        <v>7.3170731707317069E-2</v>
+        <v>0.14634146341463414</v>
       </c>
       <c r="L114" s="1">
         <f>SUM(D$74:D114)/$A114</f>
-        <v>0.73170731707317072</v>
+        <v>0.90243902439024393</v>
       </c>
       <c r="O114" s="1">
-        <f>J114*B114</f>
+        <f t="shared" si="48"/>
         <v>0.90243902439024393</v>
       </c>
       <c r="P114" s="1">
-        <f>K114*C114</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q114" s="1">
-        <f>L114*D114</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.90243902439024393</v>
       </c>
       <c r="T114" s="1">
         <f>SUMIF(B$74:B114,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6923,11 +6989,11 @@
       </c>
       <c r="U114" s="1">
         <f>SUMIF(C$74:C114,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V114" s="1">
         <f>SUMIF(D$74:D114,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.80434782608695654</v>
       </c>
     </row>
     <row r="115" spans="1:22">
@@ -6937,29 +7003,35 @@
       <c r="B115" s="1">
         <v>1</v>
       </c>
+      <c r="C115" s="1">
+        <v>0</v>
+      </c>
+      <c r="D115" s="1">
+        <v>1</v>
+      </c>
       <c r="J115" s="1">
         <f>SUM(B$74:B115)/A115</f>
         <v>0.90476190476190477</v>
       </c>
       <c r="K115" s="1">
         <f>SUM(C$74:C115)/A115</f>
-        <v>7.1428571428571425E-2</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="L115" s="1">
         <f>SUM(D$74:D115)/$A115</f>
-        <v>0.7142857142857143</v>
+        <v>0.90476190476190477</v>
       </c>
       <c r="O115" s="1">
-        <f>J115*B115</f>
+        <f t="shared" si="48"/>
         <v>0.90476190476190477</v>
       </c>
       <c r="P115" s="1">
-        <f>K115*C115</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q115" s="1">
-        <f>L115*D115</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.90476190476190477</v>
       </c>
       <c r="T115" s="1">
         <f>SUMIF(B$74:B115,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -6967,11 +7039,11 @@
       </c>
       <c r="U115" s="1">
         <f>SUMIF(C$74:C115,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V115" s="1">
         <f>SUMIF(D$74:D115,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.82608695652173914</v>
       </c>
     </row>
     <row r="116" spans="1:22">
@@ -6981,29 +7053,35 @@
       <c r="B116" s="1">
         <v>1</v>
       </c>
+      <c r="C116" s="1">
+        <v>0</v>
+      </c>
+      <c r="D116" s="1">
+        <v>1</v>
+      </c>
       <c r="J116" s="1">
         <f>SUM(B$74:B116)/A116</f>
         <v>0.90697674418604646</v>
       </c>
       <c r="K116" s="1">
         <f>SUM(C$74:C116)/A116</f>
-        <v>6.9767441860465115E-2</v>
+        <v>0.13953488372093023</v>
       </c>
       <c r="L116" s="1">
         <f>SUM(D$74:D116)/$A116</f>
-        <v>0.69767441860465118</v>
+        <v>0.90697674418604646</v>
       </c>
       <c r="O116" s="1">
-        <f>J116*B116</f>
+        <f t="shared" si="48"/>
         <v>0.90697674418604646</v>
       </c>
       <c r="P116" s="1">
-        <f>K116*C116</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q116" s="1">
-        <f>L116*D116</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.90697674418604646</v>
       </c>
       <c r="T116" s="1">
         <f>SUMIF(B$74:B116,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7011,11 +7089,11 @@
       </c>
       <c r="U116" s="1">
         <f>SUMIF(C$74:C116,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V116" s="1">
         <f>SUMIF(D$74:D116,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.84782608695652173</v>
       </c>
     </row>
     <row r="117" spans="1:22">
@@ -7025,29 +7103,35 @@
       <c r="B117" s="1">
         <v>1</v>
       </c>
+      <c r="C117" s="1">
+        <v>0</v>
+      </c>
+      <c r="D117" s="1">
+        <v>1</v>
+      </c>
       <c r="J117" s="1">
         <f>SUM(B$74:B117)/A117</f>
         <v>0.90909090909090906</v>
       </c>
       <c r="K117" s="1">
         <f>SUM(C$74:C117)/A117</f>
-        <v>6.8181818181818177E-2</v>
+        <v>0.13636363636363635</v>
       </c>
       <c r="L117" s="1">
         <f>SUM(D$74:D117)/$A117</f>
-        <v>0.68181818181818177</v>
+        <v>0.90909090909090906</v>
       </c>
       <c r="O117" s="1">
-        <f>J117*B117</f>
+        <f t="shared" si="48"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="P117" s="1">
-        <f>K117*C117</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q117" s="1">
-        <f>L117*D117</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.90909090909090906</v>
       </c>
       <c r="T117" s="1">
         <f>SUMIF(B$74:B117,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7055,11 +7139,11 @@
       </c>
       <c r="U117" s="1">
         <f>SUMIF(C$74:C117,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V117" s="1">
         <f>SUMIF(D$74:D117,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.86956521739130432</v>
       </c>
     </row>
     <row r="118" spans="1:22">
@@ -7069,29 +7153,35 @@
       <c r="B118" s="1">
         <v>1</v>
       </c>
+      <c r="C118" s="1">
+        <v>0</v>
+      </c>
+      <c r="D118" s="1">
+        <v>1</v>
+      </c>
       <c r="J118" s="1">
         <f>SUM(B$74:B118)/A118</f>
         <v>0.91111111111111109</v>
       </c>
       <c r="K118" s="1">
         <f>SUM(C$74:C118)/A118</f>
-        <v>6.6666666666666666E-2</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="L118" s="1">
         <f>SUM(D$74:D118)/$A118</f>
-        <v>0.66666666666666663</v>
+        <v>0.91111111111111109</v>
       </c>
       <c r="O118" s="1">
-        <f>J118*B118</f>
+        <f t="shared" si="48"/>
         <v>0.91111111111111109</v>
       </c>
       <c r="P118" s="1">
-        <f>K118*C118</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q118" s="1">
-        <f>L118*D118</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.91111111111111109</v>
       </c>
       <c r="T118" s="1">
         <f>SUMIF(B$74:B118,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7099,11 +7189,11 @@
       </c>
       <c r="U118" s="1">
         <f>SUMIF(C$74:C118,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V118" s="1">
         <f>SUMIF(D$74:D118,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.89130434782608692</v>
       </c>
     </row>
     <row r="119" spans="1:22">
@@ -7113,28 +7203,34 @@
       <c r="B119" s="1">
         <v>0</v>
       </c>
+      <c r="C119" s="1">
+        <v>0</v>
+      </c>
+      <c r="D119" s="1">
+        <v>0</v>
+      </c>
       <c r="J119" s="1">
         <f>SUM(B$74:B119)/A119</f>
         <v>0.89130434782608692</v>
       </c>
       <c r="K119" s="1">
         <f>SUM(C$74:C119)/A119</f>
-        <v>6.5217391304347824E-2</v>
+        <v>0.13043478260869565</v>
       </c>
       <c r="L119" s="1">
         <f>SUM(D$74:D119)/$A119</f>
-        <v>0.65217391304347827</v>
+        <v>0.89130434782608692</v>
       </c>
       <c r="O119" s="1">
-        <f>J119*B119</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P119" s="1">
-        <f>K119*C119</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q119" s="1">
-        <f>L119*D119</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T119" s="1">
@@ -7143,11 +7239,11 @@
       </c>
       <c r="U119" s="1">
         <f>SUMIF(C$74:C119,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V119" s="1">
         <f>SUMIF(D$74:D119,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.89130434782608692</v>
       </c>
     </row>
     <row r="120" spans="1:22">
@@ -7157,29 +7253,35 @@
       <c r="B120" s="1">
         <v>1</v>
       </c>
+      <c r="C120" s="1">
+        <v>0</v>
+      </c>
+      <c r="D120" s="1">
+        <v>1</v>
+      </c>
       <c r="J120" s="1">
         <f>SUM(B$74:B120)/A120</f>
         <v>0.8936170212765957</v>
       </c>
       <c r="K120" s="1">
         <f>SUM(C$74:C120)/A120</f>
-        <v>6.3829787234042548E-2</v>
+        <v>0.1276595744680851</v>
       </c>
       <c r="L120" s="1">
         <f>SUM(D$74:D120)/$A120</f>
-        <v>0.63829787234042556</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="O120" s="1">
-        <f>J120*B120</f>
+        <f t="shared" si="48"/>
         <v>0.8936170212765957</v>
       </c>
       <c r="P120" s="1">
-        <f>K120*C120</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q120" s="1">
-        <f>L120*D120</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.8936170212765957</v>
       </c>
       <c r="T120" s="1">
         <f>SUMIF(B$74:B120,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7187,11 +7289,11 @@
       </c>
       <c r="U120" s="1">
         <f>SUMIF(C$74:C120,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V120" s="1">
         <f>SUMIF(D$74:D120,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="121" spans="1:22">
@@ -7201,28 +7303,34 @@
       <c r="B121" s="1">
         <v>0</v>
       </c>
+      <c r="C121" s="1">
+        <v>0</v>
+      </c>
+      <c r="D121" s="1">
+        <v>0</v>
+      </c>
       <c r="J121" s="1">
         <f>SUM(B$74:B121)/A121</f>
         <v>0.875</v>
       </c>
       <c r="K121" s="1">
         <f>SUM(C$74:C121)/A121</f>
-        <v>6.25E-2</v>
+        <v>0.125</v>
       </c>
       <c r="L121" s="1">
         <f>SUM(D$74:D121)/$A121</f>
-        <v>0.625</v>
+        <v>0.875</v>
       </c>
       <c r="O121" s="1">
-        <f>J121*B121</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P121" s="1">
-        <f>K121*C121</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q121" s="1">
-        <f>L121*D121</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T121" s="1">
@@ -7231,11 +7339,11 @@
       </c>
       <c r="U121" s="1">
         <f>SUMIF(C$74:C121,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V121" s="1">
         <f>SUMIF(D$74:D121,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="122" spans="1:22">
@@ -7245,28 +7353,34 @@
       <c r="B122" s="1">
         <v>0</v>
       </c>
+      <c r="C122" s="1">
+        <v>0</v>
+      </c>
+      <c r="D122" s="1">
+        <v>0</v>
+      </c>
       <c r="J122" s="1">
         <f>SUM(B$74:B122)/A122</f>
         <v>0.8571428571428571</v>
       </c>
       <c r="K122" s="1">
         <f>SUM(C$74:C122)/A122</f>
-        <v>6.1224489795918366E-2</v>
+        <v>0.12244897959183673</v>
       </c>
       <c r="L122" s="1">
         <f>SUM(D$74:D122)/$A122</f>
-        <v>0.61224489795918369</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="O122" s="1">
-        <f>J122*B122</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P122" s="1">
-        <f>K122*C122</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q122" s="1">
-        <f>L122*D122</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T122" s="1">
@@ -7275,11 +7389,11 @@
       </c>
       <c r="U122" s="1">
         <f>SUMIF(C$74:C122,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V122" s="1">
         <f>SUMIF(D$74:D122,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="123" spans="1:22">
@@ -7289,28 +7403,34 @@
       <c r="B123" s="1">
         <v>0</v>
       </c>
+      <c r="C123" s="1">
+        <v>0</v>
+      </c>
+      <c r="D123" s="1">
+        <v>0</v>
+      </c>
       <c r="J123" s="1">
         <f>SUM(B$74:B123)/A123</f>
         <v>0.84</v>
       </c>
       <c r="K123" s="1">
         <f>SUM(C$74:C123)/A123</f>
-        <v>0.06</v>
+        <v>0.12</v>
       </c>
       <c r="L123" s="1">
         <f>SUM(D$74:D123)/$A123</f>
-        <v>0.6</v>
+        <v>0.84</v>
       </c>
       <c r="O123" s="1">
-        <f>J123*B123</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P123" s="1">
-        <f>K123*C123</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q123" s="1">
-        <f>L123*D123</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T123" s="1">
@@ -7319,11 +7439,11 @@
       </c>
       <c r="U123" s="1">
         <f>SUMIF(C$74:C123,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V123" s="1">
         <f>SUMIF(D$74:D123,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="124" spans="1:22">
@@ -7333,28 +7453,34 @@
       <c r="B124" s="1">
         <v>0</v>
       </c>
+      <c r="C124" s="1">
+        <v>0</v>
+      </c>
+      <c r="D124" s="1">
+        <v>0</v>
+      </c>
       <c r="J124" s="1">
         <f>SUM(B$74:B124)/A124</f>
         <v>0.82352941176470584</v>
       </c>
       <c r="K124" s="1">
         <f>SUM(C$74:C124)/A124</f>
-        <v>5.8823529411764705E-2</v>
+        <v>0.11764705882352941</v>
       </c>
       <c r="L124" s="1">
         <f>SUM(D$74:D124)/$A124</f>
-        <v>0.58823529411764708</v>
+        <v>0.82352941176470584</v>
       </c>
       <c r="O124" s="1">
-        <f>J124*B124</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P124" s="1">
-        <f>K124*C124</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q124" s="1">
-        <f>L124*D124</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T124" s="1">
@@ -7363,11 +7489,11 @@
       </c>
       <c r="U124" s="1">
         <f>SUMIF(C$74:C124,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V124" s="1">
         <f>SUMIF(D$74:D124,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="125" spans="1:22">
@@ -7377,28 +7503,34 @@
       <c r="B125" s="1">
         <v>0</v>
       </c>
+      <c r="C125" s="1">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1">
+        <v>0</v>
+      </c>
       <c r="J125" s="1">
         <f>SUM(B$74:B125)/A125</f>
         <v>0.80769230769230771</v>
       </c>
       <c r="K125" s="1">
         <f>SUM(C$74:C125)/A125</f>
-        <v>5.7692307692307696E-2</v>
+        <v>0.11538461538461539</v>
       </c>
       <c r="L125" s="1">
         <f>SUM(D$74:D125)/$A125</f>
-        <v>0.57692307692307687</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="O125" s="1">
-        <f>J125*B125</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P125" s="1">
-        <f>K125*C125</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q125" s="1">
-        <f>L125*D125</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T125" s="1">
@@ -7407,11 +7539,11 @@
       </c>
       <c r="U125" s="1">
         <f>SUMIF(C$74:C125,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V125" s="1">
         <f>SUMIF(D$74:D125,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="126" spans="1:22">
@@ -7421,28 +7553,34 @@
       <c r="B126" s="1">
         <v>0</v>
       </c>
+      <c r="C126" s="1">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1">
+        <v>0</v>
+      </c>
       <c r="J126" s="1">
         <f>SUM(B$74:B126)/A126</f>
         <v>0.79245283018867929</v>
       </c>
       <c r="K126" s="1">
         <f>SUM(C$74:C126)/A126</f>
-        <v>5.6603773584905662E-2</v>
+        <v>0.11320754716981132</v>
       </c>
       <c r="L126" s="1">
         <f>SUM(D$74:D126)/$A126</f>
-        <v>0.56603773584905659</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="O126" s="1">
-        <f>J126*B126</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P126" s="1">
-        <f>K126*C126</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q126" s="1">
-        <f>L126*D126</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T126" s="1">
@@ -7451,11 +7589,11 @@
       </c>
       <c r="U126" s="1">
         <f>SUMIF(C$74:C126,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V126" s="1">
         <f>SUMIF(D$74:D126,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.91304347826086951</v>
       </c>
     </row>
     <row r="127" spans="1:22">
@@ -7465,29 +7603,35 @@
       <c r="B127" s="1">
         <v>1</v>
       </c>
+      <c r="C127" s="1">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1">
+        <v>1</v>
+      </c>
       <c r="J127" s="1">
         <f>SUM(B$74:B127)/A127</f>
         <v>0.79629629629629628</v>
       </c>
       <c r="K127" s="1">
         <f>SUM(C$74:C127)/A127</f>
-        <v>5.5555555555555552E-2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="L127" s="1">
         <f>SUM(D$74:D127)/$A127</f>
-        <v>0.55555555555555558</v>
+        <v>0.79629629629629628</v>
       </c>
       <c r="O127" s="1">
-        <f>J127*B127</f>
+        <f t="shared" si="48"/>
         <v>0.79629629629629628</v>
       </c>
       <c r="P127" s="1">
-        <f>K127*C127</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q127" s="1">
-        <f>L127*D127</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.79629629629629628</v>
       </c>
       <c r="T127" s="1">
         <f>SUMIF(B$74:B127,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7495,11 +7639,11 @@
       </c>
       <c r="U127" s="1">
         <f>SUMIF(C$74:C127,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V127" s="1">
         <f>SUMIF(D$74:D127,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="128" spans="1:22">
@@ -7509,28 +7653,34 @@
       <c r="B128" s="1">
         <v>0</v>
       </c>
+      <c r="C128" s="1">
+        <v>0</v>
+      </c>
+      <c r="D128" s="1">
+        <v>0</v>
+      </c>
       <c r="J128" s="1">
         <f>SUM(B$74:B128)/A128</f>
         <v>0.78181818181818186</v>
       </c>
       <c r="K128" s="1">
         <f>SUM(C$74:C128)/A128</f>
-        <v>5.4545454545454543E-2</v>
+        <v>0.10909090909090909</v>
       </c>
       <c r="L128" s="1">
         <f>SUM(D$74:D128)/$A128</f>
-        <v>0.54545454545454541</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="O128" s="1">
-        <f>J128*B128</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P128" s="1">
-        <f>K128*C128</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q128" s="1">
-        <f>L128*D128</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T128" s="1">
@@ -7539,11 +7689,11 @@
       </c>
       <c r="U128" s="1">
         <f>SUMIF(C$74:C128,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V128" s="1">
         <f>SUMIF(D$74:D128,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.93478260869565222</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -7553,29 +7703,35 @@
       <c r="B129" s="1">
         <v>1</v>
       </c>
+      <c r="C129" s="1">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1">
+        <v>1</v>
+      </c>
       <c r="J129" s="1">
         <f>SUM(B$74:B129)/A129</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="K129" s="1">
         <f>SUM(C$74:C129)/A129</f>
-        <v>5.3571428571428568E-2</v>
+        <v>0.10714285714285714</v>
       </c>
       <c r="L129" s="1">
         <f>SUM(D$74:D129)/$A129</f>
-        <v>0.5357142857142857</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="O129" s="1">
-        <f>J129*B129</f>
+        <f t="shared" si="48"/>
         <v>0.7857142857142857</v>
       </c>
       <c r="P129" s="1">
-        <f>K129*C129</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q129" s="1">
-        <f>L129*D129</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.7857142857142857</v>
       </c>
       <c r="T129" s="1">
         <f>SUMIF(B$74:B129,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7583,11 +7739,11 @@
       </c>
       <c r="U129" s="1">
         <f>SUMIF(C$74:C129,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V129" s="1">
         <f>SUMIF(D$74:D129,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="130" spans="1:29">
@@ -7597,28 +7753,34 @@
       <c r="B130" s="1">
         <v>0</v>
       </c>
+      <c r="C130" s="1">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1">
+        <v>0</v>
+      </c>
       <c r="J130" s="1">
         <f>SUM(B$74:B130)/A130</f>
         <v>0.77192982456140347</v>
       </c>
       <c r="K130" s="1">
         <f>SUM(C$74:C130)/A130</f>
-        <v>5.2631578947368418E-2</v>
+        <v>0.10526315789473684</v>
       </c>
       <c r="L130" s="1">
         <f>SUM(D$74:D130)/$A130</f>
-        <v>0.52631578947368418</v>
+        <v>0.77192982456140347</v>
       </c>
       <c r="O130" s="1">
-        <f>J130*B130</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P130" s="1">
-        <f>K130*C130</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q130" s="1">
-        <f>L130*D130</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T130" s="1">
@@ -7627,11 +7789,11 @@
       </c>
       <c r="U130" s="1">
         <f>SUMIF(C$74:C130,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V130" s="1">
         <f>SUMIF(D$74:D130,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="131" spans="1:29">
@@ -7641,28 +7803,34 @@
       <c r="B131" s="1">
         <v>0</v>
       </c>
+      <c r="C131" s="1">
+        <v>0</v>
+      </c>
+      <c r="D131" s="1">
+        <v>0</v>
+      </c>
       <c r="J131" s="1">
         <f>SUM(B$74:B131)/A131</f>
         <v>0.75862068965517238</v>
       </c>
       <c r="K131" s="1">
         <f>SUM(C$74:C131)/A131</f>
-        <v>5.1724137931034482E-2</v>
+        <v>0.10344827586206896</v>
       </c>
       <c r="L131" s="1">
         <f>SUM(D$74:D131)/$A131</f>
-        <v>0.51724137931034486</v>
+        <v>0.75862068965517238</v>
       </c>
       <c r="O131" s="1">
-        <f>J131*B131</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="P131" s="1">
-        <f>K131*C131</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q131" s="1">
-        <f>L131*D131</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="T131" s="1">
@@ -7671,11 +7839,11 @@
       </c>
       <c r="U131" s="1">
         <f>SUMIF(C$74:C131,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V131" s="1">
         <f>SUMIF(D$74:D131,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.95652173913043481</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -7685,29 +7853,35 @@
       <c r="B132" s="1">
         <v>1</v>
       </c>
+      <c r="C132" s="1">
+        <v>0</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
       <c r="J132" s="1">
         <f>SUM(B$74:B132)/A132</f>
         <v>0.76271186440677963</v>
       </c>
       <c r="K132" s="1">
         <f>SUM(C$74:C132)/A132</f>
-        <v>5.0847457627118647E-2</v>
+        <v>0.10169491525423729</v>
       </c>
       <c r="L132" s="1">
         <f>SUM(D$74:D132)/$A132</f>
-        <v>0.50847457627118642</v>
+        <v>0.76271186440677963</v>
       </c>
       <c r="O132" s="1">
-        <f>J132*B132</f>
+        <f t="shared" si="48"/>
         <v>0.76271186440677963</v>
       </c>
       <c r="P132" s="1">
-        <f>K132*C132</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Q132" s="1">
-        <f>L132*D132</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.76271186440677963</v>
       </c>
       <c r="T132" s="1">
         <f>SUMIF(B$74:B132,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7715,11 +7889,11 @@
       </c>
       <c r="U132" s="1">
         <f>SUMIF(C$74:C132,"=1")/SUMIF(C$74:C$133,"=1")</f>
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="V132" s="1">
         <f>SUMIF(D$74:D132,"=1")/SUMIF(D$74:D$133,"=1")</f>
-        <v>1</v>
+        <v>0.97826086956521741</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -7729,29 +7903,35 @@
       <c r="B133" s="1">
         <v>1</v>
       </c>
+      <c r="C133" s="1">
+        <v>1</v>
+      </c>
+      <c r="D133" s="1">
+        <v>1</v>
+      </c>
       <c r="J133" s="1">
         <f>SUM(B$74:B133)/A133</f>
         <v>0.76666666666666672</v>
       </c>
       <c r="K133" s="1">
         <f>SUM(C$74:C133)/A133</f>
-        <v>0.05</v>
+        <v>0.11666666666666667</v>
       </c>
       <c r="L133" s="1">
         <f>SUM(D$74:D133)/$A133</f>
-        <v>0.5</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="O133" s="1">
-        <f>J133*B133</f>
+        <f t="shared" si="48"/>
         <v>0.76666666666666672</v>
       </c>
       <c r="P133" s="1">
-        <f>K133*C133</f>
-        <v>0</v>
+        <f t="shared" si="49"/>
+        <v>0.11666666666666667</v>
       </c>
       <c r="Q133" s="1">
-        <f>L133*D133</f>
-        <v>0</v>
+        <f t="shared" si="50"/>
+        <v>0.76666666666666672</v>
       </c>
       <c r="T133" s="1">
         <f>SUMIF(B$74:B133,"=1")/SUMIF(B$74:B$133,"=1")</f>
@@ -7766,7 +7946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:29" ht="14.75">
+    <row r="134" spans="1:29" ht="15">
       <c r="I134" s="5" t="s">
         <v>8</v>
       </c>
@@ -7776,11 +7956,11 @@
       </c>
       <c r="K134" s="5">
         <f>AVERAGE(K74:K133)</f>
-        <v>7.263610663343914E-2</v>
+        <v>9.7351750838745851E-2</v>
       </c>
       <c r="L134" s="5">
         <f>AVERAGE(L74:L133)</f>
-        <v>0.84244164101567331</v>
+        <v>0.93280461774955226</v>
       </c>
       <c r="M134" s="5"/>
     </row>
@@ -7790,34 +7970,34 @@
       </c>
     </row>
     <row r="137" spans="1:29" ht="15" customHeight="1">
-      <c r="J137" s="8" t="s">
+      <c r="J137" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="K137" s="8"/>
-      <c r="L137" s="8"/>
-      <c r="M137" s="8"/>
-      <c r="O137" s="8" t="s">
+      <c r="K137" s="9"/>
+      <c r="L137" s="9"/>
+      <c r="M137" s="9"/>
+      <c r="O137" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="P137" s="8"/>
-      <c r="Q137" s="8"/>
-      <c r="R137" s="8"/>
-      <c r="T137" s="8" t="s">
+      <c r="P137" s="9"/>
+      <c r="Q137" s="9"/>
+      <c r="R137" s="9"/>
+      <c r="T137" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="U137" s="8"/>
-      <c r="V137" s="8"/>
-      <c r="W137" s="8"/>
-      <c r="X137" s="9"/>
-      <c r="Y137" s="9"/>
-      <c r="Z137" s="8" t="s">
+      <c r="U137" s="9"/>
+      <c r="V137" s="9"/>
+      <c r="W137" s="9"/>
+      <c r="X137" s="8"/>
+      <c r="Y137" s="8"/>
+      <c r="Z137" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="AA137" s="8"/>
-      <c r="AB137" s="8"/>
-      <c r="AC137" s="8"/>
-    </row>
-    <row r="138" spans="1:29" ht="14.5">
+      <c r="AA137" s="9"/>
+      <c r="AB137" s="9"/>
+      <c r="AC137" s="9"/>
+    </row>
+    <row r="138" spans="1:29">
       <c r="A138" s="2" t="s">
         <v>0</v>
       </c>
@@ -7885,7 +8065,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:29" ht="14.5">
+    <row r="139" spans="1:29">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -7911,15 +8091,15 @@
         <v>1</v>
       </c>
       <c r="O139" s="1">
-        <f>J139*B139</f>
+        <f t="shared" ref="O139:O168" si="51">J139*B139</f>
         <v>1</v>
       </c>
       <c r="P139" s="1">
-        <f>K139*C139</f>
+        <f t="shared" ref="P139:P168" si="52">K139*C139</f>
         <v>1</v>
       </c>
       <c r="Q139" s="1">
-        <f>L139*D139</f>
+        <f t="shared" ref="Q139:Q168" si="53">L139*D139</f>
         <v>1</v>
       </c>
       <c r="T139" s="1">
@@ -7938,19 +8118,19 @@
         <v>0</v>
       </c>
       <c r="Z139" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y139)</f>
+        <f t="shared" ref="Z139:Z149" si="54">_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y139)</f>
         <v>1</v>
       </c>
       <c r="AA139" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y139)</f>
+        <f t="shared" ref="AA139:AA149" si="55">_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y139)</f>
         <v>1</v>
       </c>
       <c r="AB139" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y139)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:29" ht="14.5">
+        <f t="shared" ref="AB139:AB149" si="56">_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y139)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:29">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -7976,15 +8156,15 @@
         <v>1</v>
       </c>
       <c r="O140" s="1">
-        <f>J140*B140</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="P140" s="1">
-        <f>K140*C140</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q140" s="1">
-        <f>L140*D140</f>
+        <f t="shared" si="53"/>
         <v>1</v>
       </c>
       <c r="T140" s="1">
@@ -8003,19 +8183,19 @@
         <v>0.1</v>
       </c>
       <c r="Z140" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y140)</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AA140" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y140)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AB140" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y140)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:29" ht="14.5">
+        <f t="shared" si="56"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:29">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -8041,15 +8221,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="O141" s="1">
-        <f>J141*B141</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="P141" s="1">
-        <f>K141*C141</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q141" s="1">
-        <f>L141*D141</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T141" s="1">
@@ -8068,19 +8248,19 @@
         <v>0.2</v>
       </c>
       <c r="Z141" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y141)</f>
+        <f t="shared" si="54"/>
         <v>1</v>
       </c>
       <c r="AA141" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y141)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AB141" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y141)</f>
+        <f t="shared" si="56"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="142" spans="1:29" ht="14.5">
+    <row r="142" spans="1:29">
       <c r="A142" s="1">
         <v>4</v>
       </c>
@@ -8106,15 +8286,15 @@
         <v>0.75</v>
       </c>
       <c r="O142" s="1">
-        <f>J142*B142</f>
+        <f t="shared" si="51"/>
         <v>1</v>
       </c>
       <c r="P142" s="1">
-        <f>K142*C142</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q142" s="1">
-        <f>L142*D142</f>
+        <f t="shared" si="53"/>
         <v>0.75</v>
       </c>
       <c r="T142" s="1">
@@ -8133,19 +8313,19 @@
         <v>0.3</v>
       </c>
       <c r="Z142" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y142)</f>
+        <f t="shared" si="54"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="AA142" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y142)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AB142" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y142)</f>
+        <f t="shared" si="56"/>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="143" spans="1:29" ht="14.5">
+    <row r="143" spans="1:29">
       <c r="A143" s="1">
         <v>5</v>
       </c>
@@ -8171,15 +8351,15 @@
         <v>0.8</v>
       </c>
       <c r="O143" s="1">
-        <f>J143*B143</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P143" s="1">
-        <f>K143*C143</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q143" s="1">
-        <f>L143*D143</f>
+        <f t="shared" si="53"/>
         <v>0.8</v>
       </c>
       <c r="T143" s="1">
@@ -8198,19 +8378,19 @@
         <v>0.4</v>
       </c>
       <c r="Z143" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y143)</f>
+        <f t="shared" si="54"/>
         <v>0.7</v>
       </c>
       <c r="AA143" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y143)</f>
+        <f t="shared" si="55"/>
         <v>1</v>
       </c>
       <c r="AB143" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y143)</f>
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="144" spans="1:29" ht="14.5">
+    <row r="144" spans="1:29">
       <c r="A144" s="1">
         <v>6</v>
       </c>
@@ -8236,15 +8416,15 @@
         <v>0.83333333333333337</v>
       </c>
       <c r="O144" s="1">
-        <f>J144*B144</f>
+        <f t="shared" si="51"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="P144" s="1">
-        <f>K144*C144</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q144" s="1">
-        <f>L144*D144</f>
+        <f t="shared" si="53"/>
         <v>0.83333333333333337</v>
       </c>
       <c r="T144" s="1">
@@ -8263,19 +8443,19 @@
         <v>0.5</v>
       </c>
       <c r="Z144" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y144)</f>
+        <f t="shared" si="54"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="AA144" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y144)</f>
+        <f t="shared" si="55"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="AB144" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y144)</f>
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="145" spans="1:29" ht="14.5">
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>7</v>
       </c>
@@ -8301,15 +8481,15 @@
         <v>0.7142857142857143</v>
       </c>
       <c r="O145" s="1">
-        <f>J145*B145</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P145" s="1">
-        <f>K145*C145</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q145" s="1">
-        <f>L145*D145</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T145" s="1">
@@ -8328,19 +8508,19 @@
         <v>0.6</v>
       </c>
       <c r="Z145" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y145)</f>
+        <f t="shared" si="54"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="AA145" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y145)</f>
+        <f t="shared" si="55"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="AB145" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y145)</f>
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="146" spans="1:29" ht="14.5">
+    <row r="146" spans="1:29">
       <c r="A146" s="1">
         <v>8</v>
       </c>
@@ -8366,15 +8546,15 @@
         <v>0.625</v>
       </c>
       <c r="O146" s="1">
-        <f>J146*B146</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P146" s="1">
-        <f>K146*C146</f>
+        <f t="shared" si="52"/>
         <v>1</v>
       </c>
       <c r="Q146" s="1">
-        <f>L146*D146</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T146" s="1">
@@ -8393,19 +8573,19 @@
         <v>0.7</v>
       </c>
       <c r="Z146" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y146)</f>
+        <f t="shared" si="54"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="AA146" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y146)</f>
+        <f t="shared" si="55"/>
         <v>0.75</v>
       </c>
       <c r="AB146" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y146)</f>
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="147" spans="1:29" ht="14.5">
+    <row r="147" spans="1:29">
       <c r="A147" s="1">
         <v>9</v>
       </c>
@@ -8431,15 +8611,15 @@
         <v>0.55555555555555558</v>
       </c>
       <c r="O147" s="1">
-        <f>J147*B147</f>
+        <f t="shared" si="51"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="P147" s="1">
-        <f>K147*C147</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q147" s="1">
-        <f>L147*D147</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T147" s="1">
@@ -8458,19 +8638,19 @@
         <v>0.8</v>
       </c>
       <c r="Z147" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y147)</f>
+        <f t="shared" si="54"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="AA147" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y147)</f>
+        <f t="shared" si="55"/>
         <v>0.72</v>
       </c>
       <c r="AB147" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y147)</f>
+        <f t="shared" si="56"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="148" spans="1:29" ht="14.5">
+    <row r="148" spans="1:29">
       <c r="A148" s="1">
         <v>10</v>
       </c>
@@ -8496,15 +8676,15 @@
         <v>0.6</v>
       </c>
       <c r="O148" s="1">
-        <f>J148*B148</f>
+        <f t="shared" si="51"/>
         <v>0.7</v>
       </c>
       <c r="P148" s="1">
-        <f>K148*C148</f>
+        <f t="shared" si="52"/>
         <v>0.9</v>
       </c>
       <c r="Q148" s="1">
-        <f>L148*D148</f>
+        <f t="shared" si="53"/>
         <v>0.6</v>
       </c>
       <c r="T148" s="1">
@@ -8523,19 +8703,19 @@
         <v>0.9</v>
       </c>
       <c r="Z148" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y148)</f>
+        <f t="shared" si="54"/>
         <v>0.60869565217391308</v>
       </c>
       <c r="AA148" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y148)</f>
+        <f t="shared" si="55"/>
         <v>0.72</v>
       </c>
       <c r="AB148" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y148)</f>
+        <f t="shared" si="56"/>
         <v>0.56521739130434778</v>
       </c>
     </row>
-    <row r="149" spans="1:29" ht="14.5">
+    <row r="149" spans="1:29">
       <c r="A149" s="1">
         <v>11</v>
       </c>
@@ -8561,15 +8741,15 @@
         <v>0.63636363636363635</v>
       </c>
       <c r="O149" s="1">
-        <f>J149*B149</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P149" s="1">
-        <f>K149*C149</f>
+        <f t="shared" si="52"/>
         <v>0.90909090909090906</v>
       </c>
       <c r="Q149" s="1">
-        <f>L149*D149</f>
+        <f t="shared" si="53"/>
         <v>0.63636363636363635</v>
       </c>
       <c r="T149" s="1">
@@ -8588,15 +8768,15 @@
         <v>1</v>
       </c>
       <c r="Z149" s="1">
-        <f>_xlfn.MAXIFS(J$139:J$168,T$139:T$168,"&gt;="&amp;$Y149)</f>
+        <f t="shared" si="54"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="AA149" s="1">
-        <f>_xlfn.MAXIFS(K$139:K$168,U$139:U$168,"&gt;="&amp;$Y149)</f>
+        <f t="shared" si="55"/>
         <v>0.68965517241379315</v>
       </c>
       <c r="AB149" s="1">
-        <f>_xlfn.MAXIFS(L$139:L$168,V$139:V$168,"&gt;="&amp;$Y149)</f>
+        <f t="shared" si="56"/>
         <v>0.56000000000000005</v>
       </c>
     </row>
@@ -8626,15 +8806,15 @@
         <v>0.58333333333333337</v>
       </c>
       <c r="O150" s="1">
-        <f>J150*B150</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P150" s="1">
-        <f>K150*C150</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q150" s="1">
-        <f>L150*D150</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T150" s="1">
@@ -8676,15 +8856,15 @@
         <v>0.61538461538461542</v>
       </c>
       <c r="O151" s="1">
-        <f>J151*B151</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P151" s="1">
-        <f>K151*C151</f>
+        <f t="shared" si="52"/>
         <v>0.84615384615384615</v>
       </c>
       <c r="Q151" s="1">
-        <f>L151*D151</f>
+        <f t="shared" si="53"/>
         <v>0.61538461538461542</v>
       </c>
       <c r="T151" s="1">
@@ -8726,15 +8906,15 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="O152" s="1">
-        <f>J152*B152</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P152" s="1">
-        <f>K152*C152</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q152" s="1">
-        <f>L152*D152</f>
+        <f t="shared" si="53"/>
         <v>0.6428571428571429</v>
       </c>
       <c r="T152" s="1">
@@ -8750,7 +8930,7 @@
         <v>0.6428571428571429</v>
       </c>
     </row>
-    <row r="153" spans="1:29" ht="14.5">
+    <row r="153" spans="1:29">
       <c r="A153" s="1">
         <v>15</v>
       </c>
@@ -8776,15 +8956,15 @@
         <v>0.6</v>
       </c>
       <c r="O153" s="1">
-        <f>J153*B153</f>
+        <f t="shared" si="51"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="P153" s="1">
-        <f>K153*C153</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q153" s="1">
-        <f>L153*D153</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T153" s="1">
@@ -8799,14 +8979,14 @@
         <f>SUMIF(D$139:D153,"=1")/SUMIF(D$139:D$168,"=1")</f>
         <v>0.6428571428571429</v>
       </c>
-      <c r="Z153" s="8" t="s">
+      <c r="Z153" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="AA153" s="8"/>
-      <c r="AB153" s="8"/>
-      <c r="AC153" s="8"/>
-    </row>
-    <row r="154" spans="1:29" ht="14.5">
+      <c r="AA153" s="9"/>
+      <c r="AB153" s="9"/>
+      <c r="AC153" s="9"/>
+    </row>
+    <row r="154" spans="1:29">
       <c r="A154" s="1">
         <v>16</v>
       </c>
@@ -8832,15 +9012,15 @@
         <v>0.625</v>
       </c>
       <c r="O154" s="1">
-        <f>J154*B154</f>
+        <f t="shared" si="51"/>
         <v>0.5625</v>
       </c>
       <c r="P154" s="1">
-        <f>K154*C154</f>
+        <f t="shared" si="52"/>
         <v>0.75</v>
       </c>
       <c r="Q154" s="1">
-        <f>L154*D154</f>
+        <f t="shared" si="53"/>
         <v>0.625</v>
       </c>
       <c r="T154" s="1">
@@ -8871,7 +9051,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:29" ht="14.5">
+    <row r="155" spans="1:29">
       <c r="A155" s="1">
         <v>17</v>
       </c>
@@ -8897,15 +9077,15 @@
         <v>0.6470588235294118</v>
       </c>
       <c r="O155" s="1">
-        <f>J155*B155</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P155" s="1">
-        <f>K155*C155</f>
+        <f t="shared" si="52"/>
         <v>0.76470588235294112</v>
       </c>
       <c r="Q155" s="1">
-        <f>L155*D155</f>
+        <f t="shared" si="53"/>
         <v>0.6470588235294118</v>
       </c>
       <c r="T155" s="1">
@@ -8936,7 +9116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:29" ht="14.5">
+    <row r="156" spans="1:29">
       <c r="A156" s="1">
         <v>18</v>
       </c>
@@ -8962,15 +9142,15 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="O156" s="1">
-        <f>J156*B156</f>
+        <f t="shared" si="51"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="P156" s="1">
-        <f>K156*C156</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q156" s="1">
-        <f>L156*D156</f>
+        <f t="shared" si="53"/>
         <v>0.66666666666666663</v>
       </c>
       <c r="T156" s="1">
@@ -8989,19 +9169,19 @@
         <v>0.1</v>
       </c>
       <c r="Z156" s="1">
-        <f t="shared" ref="Z156:AB156" si="34">(1 + $Y$2^2) * (Z140*$Y140/($Y$2^2 * Z140 +$Y140))</f>
+        <f t="shared" ref="Z156:AB156" si="57">(1 + $Y$2^2) * (Z140*$Y140/($Y$2^2 * Z140 +$Y140))</f>
         <v>0.18181818181818182</v>
       </c>
       <c r="AA156" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>0.18181818181818182</v>
       </c>
       <c r="AB156" s="1">
-        <f t="shared" si="34"/>
+        <f t="shared" si="57"/>
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="157" spans="1:29" ht="14.5">
+    <row r="157" spans="1:29">
       <c r="A157" s="1">
         <v>19</v>
       </c>
@@ -9027,15 +9207,15 @@
         <v>0.63157894736842102</v>
       </c>
       <c r="O157" s="1">
-        <f>J157*B157</f>
+        <f t="shared" si="51"/>
         <v>0.57894736842105265</v>
       </c>
       <c r="P157" s="1">
-        <f>K157*C157</f>
+        <f t="shared" si="52"/>
         <v>0.73684210526315785</v>
       </c>
       <c r="Q157" s="1">
-        <f>L157*D157</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T157" s="1">
@@ -9054,19 +9234,19 @@
         <v>0.2</v>
       </c>
       <c r="Z157" s="1">
-        <f t="shared" ref="Z157:AB157" si="35">(1 + $Y$2^2) * (Z141*$Y141/($Y$2^2 * Z141 +$Y141))</f>
+        <f t="shared" ref="Z157:AB157" si="58">(1 + $Y$2^2) * (Z141*$Y141/($Y$2^2 * Z141 +$Y141))</f>
         <v>0.33333333333333337</v>
       </c>
       <c r="AA157" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>0.33333333333333337</v>
       </c>
       <c r="AB157" s="1">
-        <f t="shared" si="35"/>
+        <f t="shared" si="58"/>
         <v>0.32258064516129031</v>
       </c>
     </row>
-    <row r="158" spans="1:29" ht="14.5">
+    <row r="158" spans="1:29">
       <c r="A158" s="1">
         <v>20</v>
       </c>
@@ -9092,15 +9272,15 @@
         <v>0.6</v>
       </c>
       <c r="O158" s="1">
-        <f>J158*B158</f>
+        <f t="shared" si="51"/>
         <v>0.6</v>
       </c>
       <c r="P158" s="1">
-        <f>K158*C158</f>
+        <f t="shared" si="52"/>
         <v>0.75</v>
       </c>
       <c r="Q158" s="1">
-        <f>L158*D158</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T158" s="1">
@@ -9119,19 +9299,19 @@
         <v>0.3</v>
       </c>
       <c r="Z158" s="1">
-        <f t="shared" ref="Z158:AB158" si="36">(1 + $Y$2^2) * (Z142*$Y142/($Y$2^2 * Z142 +$Y142))</f>
+        <f t="shared" ref="Z158:AB158" si="59">(1 + $Y$2^2) * (Z142*$Y142/($Y$2^2 * Z142 +$Y142))</f>
         <v>0.44117647058823528</v>
       </c>
       <c r="AA158" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="59"/>
         <v>0.46153846153846151</v>
       </c>
       <c r="AB158" s="1">
-        <f t="shared" si="36"/>
+        <f t="shared" si="59"/>
         <v>0.44117647058823528</v>
       </c>
     </row>
-    <row r="159" spans="1:29" ht="14.5">
+    <row r="159" spans="1:29">
       <c r="A159" s="1">
         <v>21</v>
       </c>
@@ -9157,15 +9337,15 @@
         <v>0.5714285714285714</v>
       </c>
       <c r="O159" s="1">
-        <f>J159*B159</f>
+        <f t="shared" si="51"/>
         <v>0.61904761904761907</v>
       </c>
       <c r="P159" s="1">
-        <f>K159*C159</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q159" s="1">
-        <f>L159*D159</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T159" s="1">
@@ -9184,19 +9364,19 @@
         <v>0.4</v>
       </c>
       <c r="Z159" s="1">
-        <f t="shared" ref="Z159:AB159" si="37">(1 + $Y$2^2) * (Z143*$Y143/($Y$2^2 * Z143 +$Y143))</f>
+        <f t="shared" ref="Z159:AB159" si="60">(1 + $Y$2^2) * (Z143*$Y143/($Y$2^2 * Z143 +$Y143))</f>
         <v>0.50909090909090904</v>
       </c>
       <c r="AA159" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="60"/>
         <v>0.57142857142857151</v>
       </c>
       <c r="AB159" s="1">
-        <f t="shared" si="37"/>
+        <f t="shared" si="60"/>
         <v>0.5</v>
       </c>
     </row>
-    <row r="160" spans="1:29" ht="14.5">
+    <row r="160" spans="1:29">
       <c r="A160" s="1">
         <v>22</v>
       </c>
@@ -9222,15 +9402,15 @@
         <v>0.54545454545454541</v>
       </c>
       <c r="O160" s="1">
-        <f>J160*B160</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P160" s="1">
-        <f>K160*C160</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q160" s="1">
-        <f>L160*D160</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T160" s="1">
@@ -9249,19 +9429,19 @@
         <v>0.5</v>
       </c>
       <c r="Z160" s="1">
-        <f t="shared" ref="Z160:AB160" si="38">(1 + $Y$2^2) * (Z144*$Y144/($Y$2^2 * Z144 +$Y144))</f>
+        <f t="shared" ref="Z160:AB160" si="61">(1 + $Y$2^2) * (Z144*$Y144/($Y$2^2 * Z144 +$Y144))</f>
         <v>0.55319148936170215</v>
       </c>
       <c r="AA160" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="61"/>
         <v>0.64516129032258063</v>
       </c>
       <c r="AB160" s="1">
-        <f t="shared" si="38"/>
+        <f t="shared" si="61"/>
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="161" spans="1:28" ht="14.5">
+    <row r="161" spans="1:28">
       <c r="A161" s="1">
         <v>23</v>
       </c>
@@ -9287,15 +9467,15 @@
         <v>0.56521739130434778</v>
       </c>
       <c r="O161" s="1">
-        <f>J161*B161</f>
+        <f t="shared" si="51"/>
         <v>0.60869565217391308</v>
       </c>
       <c r="P161" s="1">
-        <f>K161*C161</f>
+        <f t="shared" si="52"/>
         <v>0.69565217391304346</v>
       </c>
       <c r="Q161" s="1">
-        <f>L161*D161</f>
+        <f t="shared" si="53"/>
         <v>0.56521739130434778</v>
       </c>
       <c r="T161" s="1">
@@ -9314,19 +9494,19 @@
         <v>0.6</v>
       </c>
       <c r="Z161" s="1">
-        <f t="shared" ref="Z161:AB161" si="39">(1 + $Y$2^2) * (Z145*$Y145/($Y$2^2 * Z145 +$Y145))</f>
+        <f t="shared" ref="Z161:AB161" si="62">(1 + $Y$2^2) * (Z145*$Y145/($Y$2^2 * Z145 +$Y145))</f>
         <v>0.609375</v>
       </c>
       <c r="AA161" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="62"/>
         <v>0.67241379310344818</v>
       </c>
       <c r="AB161" s="1">
-        <f t="shared" si="39"/>
+        <f t="shared" si="62"/>
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="162" spans="1:28" ht="14.5">
+    <row r="162" spans="1:28">
       <c r="A162" s="1">
         <v>24</v>
       </c>
@@ -9352,15 +9532,15 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="O162" s="1">
-        <f>J162*B162</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P162" s="1">
-        <f>K162*C162</f>
+        <f t="shared" si="52"/>
         <v>0.70833333333333337</v>
       </c>
       <c r="Q162" s="1">
-        <f>L162*D162</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T162" s="1">
@@ -9379,19 +9559,19 @@
         <v>0.7</v>
       </c>
       <c r="Z162" s="1">
-        <f t="shared" ref="Z162:AB162" si="40">(1 + $Y$2^2) * (Z146*$Y146/($Y$2^2 * Z146 +$Y146))</f>
+        <f t="shared" ref="Z162:AB162" si="63">(1 + $Y$2^2) * (Z146*$Y146/($Y$2^2 * Z146 +$Y146))</f>
         <v>0.65703971119133575</v>
       </c>
       <c r="AA162" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="63"/>
         <v>0.72413793103448265</v>
       </c>
       <c r="AB162" s="1">
-        <f t="shared" si="40"/>
+        <f t="shared" si="63"/>
         <v>0.68292682926829262</v>
       </c>
     </row>
-    <row r="163" spans="1:28" ht="14.5">
+    <row r="163" spans="1:28">
       <c r="A163" s="1">
         <v>25</v>
       </c>
@@ -9417,15 +9597,15 @@
         <v>0.56000000000000005</v>
       </c>
       <c r="O163" s="1">
-        <f>J163*B163</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P163" s="1">
-        <f>K163*C163</f>
+        <f t="shared" si="52"/>
         <v>0.72</v>
       </c>
       <c r="Q163" s="1">
-        <f>L163*D163</f>
+        <f t="shared" si="53"/>
         <v>0.56000000000000005</v>
       </c>
       <c r="T163" s="1">
@@ -9444,19 +9624,19 @@
         <v>0.8</v>
       </c>
       <c r="Z163" s="1">
-        <f t="shared" ref="Z163:AB163" si="41">(1 + $Y$2^2) * (Z147*$Y147/($Y$2^2 * Z147 +$Y147))</f>
+        <f t="shared" ref="Z163:AB163" si="64">(1 + $Y$2^2) * (Z147*$Y147/($Y$2^2 * Z147 +$Y147))</f>
         <v>0.69798657718120805</v>
       </c>
       <c r="AA163" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>0.75789473684210518</v>
       </c>
       <c r="AB163" s="1">
-        <f t="shared" si="41"/>
+        <f t="shared" si="64"/>
         <v>0.72727272727272718</v>
       </c>
     </row>
-    <row r="164" spans="1:28" ht="14.5">
+    <row r="164" spans="1:28">
       <c r="A164" s="1">
         <v>26</v>
       </c>
@@ -9482,15 +9662,15 @@
         <v>0.53846153846153844</v>
       </c>
       <c r="O164" s="1">
-        <f>J164*B164</f>
+        <f t="shared" si="51"/>
         <v>0.57692307692307687</v>
       </c>
       <c r="P164" s="1">
-        <f>K164*C164</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q164" s="1">
-        <f>L164*D164</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T164" s="1">
@@ -9509,19 +9689,19 @@
         <v>0.9</v>
       </c>
       <c r="Z164" s="1">
-        <f t="shared" ref="Z164:AB164" si="42">(1 + $Y$2^2) * (Z148*$Y148/($Y$2^2 * Z148 +$Y148))</f>
+        <f t="shared" ref="Z164:AB164" si="65">(1 + $Y$2^2) * (Z148*$Y148/($Y$2^2 * Z148 +$Y148))</f>
         <v>0.72622478386167155</v>
       </c>
       <c r="AA164" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="65"/>
         <v>0.79999999999999993</v>
       </c>
       <c r="AB164" s="1">
-        <f t="shared" si="42"/>
+        <f t="shared" si="65"/>
         <v>0.6943620178041543</v>
       </c>
     </row>
-    <row r="165" spans="1:28" ht="14.5">
+    <row r="165" spans="1:28">
       <c r="A165" s="1">
         <v>27</v>
       </c>
@@ -9547,15 +9727,15 @@
         <v>0.51851851851851849</v>
       </c>
       <c r="O165" s="1">
-        <f>J165*B165</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P165" s="1">
-        <f>K165*C165</f>
+        <f t="shared" si="52"/>
         <v>0.70370370370370372</v>
       </c>
       <c r="Q165" s="1">
-        <f>L165*D165</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T165" s="1">
@@ -9574,15 +9754,15 @@
         <v>1</v>
       </c>
       <c r="Z165" s="1">
-        <f t="shared" ref="Z165:AB165" si="43">(1 + $Y$2^2) * (Z149*$Y149/($Y$2^2 * Z149 +$Y149))</f>
+        <f t="shared" ref="Z165:AB165" si="66">(1 + $Y$2^2) * (Z149*$Y149/($Y$2^2 * Z149 +$Y149))</f>
         <v>0.73170731707317072</v>
       </c>
       <c r="AA165" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="66"/>
         <v>0.81632653061224492</v>
       </c>
       <c r="AB165" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="66"/>
         <v>0.71794871794871795</v>
       </c>
     </row>
@@ -9612,15 +9792,15 @@
         <v>0.5</v>
       </c>
       <c r="O166" s="1">
-        <f>J166*B166</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P166" s="1">
-        <f>K166*C166</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q166" s="1">
-        <f>L166*D166</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T166" s="1">
@@ -9662,15 +9842,15 @@
         <v>0.48275862068965519</v>
       </c>
       <c r="O167" s="1">
-        <f>J167*B167</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P167" s="1">
-        <f>K167*C167</f>
+        <f t="shared" si="52"/>
         <v>0.68965517241379315</v>
       </c>
       <c r="Q167" s="1">
-        <f>L167*D167</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T167" s="1">
@@ -9712,15 +9892,15 @@
         <v>0.46666666666666667</v>
       </c>
       <c r="O168" s="1">
-        <f>J168*B168</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="P168" s="1">
-        <f>K168*C168</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="Q168" s="1">
-        <f>L168*D168</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="T168" s="1">
@@ -9736,7 +9916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:28" ht="14.75">
+    <row r="169" spans="1:28" ht="15">
       <c r="I169" s="5" t="s">
         <v>8</v>
       </c>
@@ -9759,7 +9939,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:28" ht="14.75">
+    <row r="172" spans="1:28" ht="15">
       <c r="I172" s="6" t="s">
         <v>13</v>
       </c>
@@ -9769,11 +9949,11 @@
       </c>
       <c r="K172" s="5">
         <f>AVERAGE(K169,K134,K69,K34)</f>
-        <v>0.50133217106844707</v>
+        <v>0.5075110821197738</v>
       </c>
       <c r="L172" s="5">
         <f>AVERAGE(L169,L134,L69,L34)</f>
-        <v>0.63105188355927022</v>
+        <v>0.65364262774273985</v>
       </c>
       <c r="M172" s="5"/>
     </row>
@@ -9787,15 +9967,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:28" ht="14.5">
-      <c r="F175" s="8" t="s">
+    <row r="175" spans="1:28">
+      <c r="F175" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G175" s="8"/>
-      <c r="H175" s="8"/>
-      <c r="I175" s="8"/>
-    </row>
-    <row r="176" spans="1:28" ht="14.5">
+      <c r="G175" s="9"/>
+      <c r="H175" s="9"/>
+      <c r="I175" s="9"/>
+    </row>
+    <row r="176" spans="1:28">
       <c r="E176" s="3" t="s">
         <v>11</v>
       </c>
@@ -9812,247 +9992,242 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="5:11" ht="14.5">
+    <row r="177" spans="5:11">
       <c r="E177" s="4">
         <v>0</v>
       </c>
       <c r="F177" s="1">
-        <f t="shared" ref="F177:F187" si="44">AVERAGE(Z4,Z39,Z74,Z139)</f>
+        <f t="shared" ref="F177:F187" si="67">AVERAGE(Z4,Z39,Z74,Z139)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="G177" s="1">
-        <f t="shared" ref="G177:H187" si="45">AVERAGE(AA4,AA39,AA74,AA139)</f>
-        <v>0.72853535353535348</v>
+        <f t="shared" ref="G177:H187" si="68">AVERAGE(AA4,AA39,AA74,AA139)</f>
+        <v>0.7319444444444444</v>
       </c>
       <c r="H177" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0.91666666666666663</v>
       </c>
-      <c r="J177" s="8"/>
-      <c r="K177" s="8"/>
-    </row>
-    <row r="178" spans="5:11" ht="14.5">
+      <c r="J177" s="9"/>
+      <c r="K177" s="9"/>
+    </row>
+    <row r="178" spans="5:11">
       <c r="E178" s="4">
         <v>0.1</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="G178" s="1">
-        <f t="shared" si="45"/>
-        <v>0.72853535353535348</v>
+        <f t="shared" si="68"/>
+        <v>0.7319444444444444</v>
       </c>
       <c r="H178" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="5:11" ht="14.5">
+    <row r="179" spans="5:11">
       <c r="E179" s="4">
         <v>0.2</v>
       </c>
       <c r="F179" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="G179" s="1">
-        <f t="shared" si="45"/>
-        <v>0.68686868686868685</v>
+        <f t="shared" si="68"/>
+        <v>0.69027777777777777</v>
       </c>
       <c r="H179" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="180" spans="5:11" ht="14.5">
+    <row r="180" spans="5:11">
       <c r="E180" s="4">
         <v>0.3</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.875</v>
       </c>
       <c r="G180" s="1">
-        <f t="shared" si="45"/>
-        <v>0.68686868686868685</v>
+        <f t="shared" si="68"/>
+        <v>0.69027777777777777</v>
       </c>
       <c r="H180" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0.875</v>
       </c>
     </row>
-    <row r="181" spans="5:11" ht="14.5">
+    <row r="181" spans="5:11">
       <c r="E181" s="4">
         <v>0.4</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.77916666666666679</v>
       </c>
       <c r="G181" s="1">
-        <f t="shared" si="45"/>
-        <v>0.66603535353535348</v>
+        <f t="shared" si="68"/>
+        <v>0.6694444444444444</v>
       </c>
       <c r="H181" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0.77083333333333337</v>
       </c>
     </row>
-    <row r="182" spans="5:11" ht="14.5">
+    <row r="182" spans="5:11">
       <c r="E182" s="4">
         <v>0.5</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.71726190476190477</v>
       </c>
       <c r="G182" s="1">
-        <f t="shared" si="45"/>
-        <v>0.61652236652236658</v>
+        <f t="shared" si="68"/>
+        <v>0.61993145743145739</v>
       </c>
       <c r="H182" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0.72916666666666663</v>
       </c>
     </row>
-    <row r="183" spans="5:11" ht="14.5">
+    <row r="183" spans="5:11">
       <c r="E183" s="4">
         <v>0.6</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.69642857142857151</v>
       </c>
       <c r="G183" s="1">
-        <f t="shared" si="45"/>
-        <v>0.51756061276185117</v>
+        <f t="shared" si="68"/>
+        <v>0.52096970367094197</v>
       </c>
       <c r="H183" s="1">
-        <f t="shared" si="45"/>
+        <f t="shared" si="68"/>
         <v>0.66529304029304026</v>
       </c>
     </row>
-    <row r="184" spans="5:11" ht="14.5">
+    <row r="184" spans="5:11">
       <c r="E184" s="4">
         <v>0.7</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.6241718426501035</v>
       </c>
       <c r="G184" s="1">
-        <f t="shared" si="45"/>
-        <v>0.50022867998874188</v>
+        <f t="shared" si="68"/>
+        <v>0.50363777089783279</v>
       </c>
       <c r="H184" s="1">
-        <f t="shared" si="45"/>
-        <v>0.66306089743589747</v>
-      </c>
-    </row>
-    <row r="185" spans="5:11" ht="14.5">
+        <f t="shared" si="68"/>
+        <v>0.64877518315018312</v>
+      </c>
+    </row>
+    <row r="185" spans="5:11">
       <c r="E185" s="4">
         <v>0.8</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.61623533471359559</v>
       </c>
       <c r="G185" s="1">
-        <f t="shared" si="45"/>
-        <v>0.45085199283475147</v>
+        <f t="shared" si="68"/>
+        <v>0.45426108374384233</v>
       </c>
       <c r="H185" s="1">
-        <f t="shared" si="45"/>
-        <v>0.66132478632478631</v>
-      </c>
-    </row>
-    <row r="186" spans="5:11" ht="14.5">
+        <f t="shared" si="68"/>
+        <v>0.63910256410256405</v>
+      </c>
+    </row>
+    <row r="186" spans="5:11">
       <c r="E186" s="4">
         <v>0.9</v>
       </c>
       <c r="F186" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.60927382053654022</v>
       </c>
       <c r="G186" s="1">
-        <f t="shared" si="45"/>
-        <v>0.45085199283475147</v>
+        <f t="shared" si="68"/>
+        <v>0.44592775041050903</v>
       </c>
       <c r="H186" s="1">
-        <f t="shared" si="45"/>
-        <v>0.61165691192865101</v>
-      </c>
-    </row>
-    <row r="187" spans="5:11" ht="14.5">
+        <f t="shared" si="68"/>
+        <v>0.5850611672478</v>
+      </c>
+    </row>
+    <row r="187" spans="5:11">
       <c r="E187" s="4">
         <v>1</v>
       </c>
       <c r="F187" s="1">
-        <f t="shared" si="44"/>
+        <f t="shared" si="67"/>
         <v>0.53596357346357348</v>
       </c>
       <c r="G187" s="1">
-        <f t="shared" si="45"/>
-        <v>0.44326578593819976</v>
+        <f t="shared" si="68"/>
+        <v>0.43834154351395732</v>
       </c>
       <c r="H187" s="1">
-        <f t="shared" si="45"/>
-        <v>0.5971428571428572</v>
-      </c>
-    </row>
-    <row r="199" spans="5:7" ht="14.5">
-      <c r="F199" s="8"/>
-      <c r="G199" s="8"/>
-    </row>
-    <row r="200" spans="5:7" ht="14.5">
+        <f t="shared" si="68"/>
+        <v>0.53880952380952385</v>
+      </c>
+    </row>
+    <row r="199" spans="5:7">
+      <c r="F199" s="9"/>
+      <c r="G199" s="9"/>
+    </row>
+    <row r="200" spans="5:7">
       <c r="E200" s="3"/>
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
     </row>
-    <row r="201" spans="5:7" ht="14.5">
+    <row r="201" spans="5:7">
       <c r="E201" s="4"/>
     </row>
-    <row r="202" spans="5:7" ht="14.5">
+    <row r="202" spans="5:7">
       <c r="E202" s="4"/>
     </row>
-    <row r="203" spans="5:7" ht="14.5">
+    <row r="203" spans="5:7">
       <c r="E203" s="4"/>
     </row>
-    <row r="204" spans="5:7" ht="14.5">
+    <row r="204" spans="5:7">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:7" ht="14.5">
+    <row r="205" spans="5:7">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:7" ht="14.5">
+    <row r="206" spans="5:7">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:7" ht="14.5">
+    <row r="207" spans="5:7">
       <c r="E207" s="4"/>
     </row>
-    <row r="208" spans="5:7" ht="14.5">
+    <row r="208" spans="5:7">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" ht="14.5">
+    <row r="209" spans="5:5">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" ht="14.5">
+    <row r="210" spans="5:5">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" ht="14.5">
+    <row r="211" spans="5:5">
       <c r="E211" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="Z137:AC137"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z53:AC53"/>
     <mergeCell ref="F199:G199"/>
     <mergeCell ref="J177:K177"/>
     <mergeCell ref="Z18:AC18"/>
@@ -10069,6 +10244,11 @@
     <mergeCell ref="T72:W72"/>
     <mergeCell ref="Z72:AC72"/>
     <mergeCell ref="J137:M137"/>
+    <mergeCell ref="Z137:AC137"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="Z88:AC88"/>
+    <mergeCell ref="Z53:AC53"/>
     <mergeCell ref="O137:R137"/>
     <mergeCell ref="T137:W137"/>
   </mergeCells>

--- a/solr/EvaluationM3.xlsx
+++ b/solr/EvaluationM3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utilizador\Documents\GitHub\PRI\solr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PRI\solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C09115-FA96-4B8A-83FF-B86122CD623A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14EE1B50-A87F-438F-848D-9BFB68828424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="21">
   <si>
     <t>Rank</t>
   </si>
@@ -106,10 +106,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,7 +206,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -224,6 +225,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="167" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -2842,7 +2844,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -2950,7 +2952,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3206,7 +3208,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3428,7 +3430,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3536,7 +3538,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -3806,7 +3808,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4096,7 +4098,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4204,7 +4206,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4460,7 +4462,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4660,7 +4662,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -4768,7 +4770,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5024,7 +5026,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5224,7 +5226,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5332,7 +5334,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5588,7 +5590,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5810,7 +5812,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -5918,7 +5920,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -6188,7 +6190,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7463,7 +7465,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7571,7 +7573,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -7827,7 +7829,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -8049,7 +8051,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8157,7 +8159,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -8427,7 +8429,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -10620,7 +10622,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -10728,7 +10730,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$4:$V$14</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -10984,7 +10986,7 @@
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -11206,7 +11208,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -11314,7 +11316,7 @@
             <c:numRef>
               <c:f>[1]Sheet1!$V$20:$V$30</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
@@ -11584,7 +11586,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -12285,9 +12287,6 @@
           <cell r="W3" t="str">
             <v>V1</v>
           </cell>
-          <cell r="X3" t="str">
-            <v>V2</v>
-          </cell>
         </row>
         <row r="4">
           <cell r="A4">
@@ -12503,378 +12502,6 @@
         <row r="33">
           <cell r="A33">
             <v>30</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="J139">
-            <v>1</v>
-          </cell>
-          <cell r="K139">
-            <v>1</v>
-          </cell>
-          <cell r="W139">
-            <v>1</v>
-          </cell>
-          <cell r="X139">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="J140">
-            <v>1</v>
-          </cell>
-          <cell r="K140">
-            <v>1</v>
-          </cell>
-          <cell r="W140">
-            <v>1</v>
-          </cell>
-          <cell r="X140">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="J141">
-            <v>0.66666666666666663</v>
-          </cell>
-          <cell r="K141">
-            <v>1</v>
-          </cell>
-          <cell r="W141">
-            <v>1</v>
-          </cell>
-          <cell r="X141">
-            <v>1</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="J142">
-            <v>0.5</v>
-          </cell>
-          <cell r="K142">
-            <v>1</v>
-          </cell>
-          <cell r="W142">
-            <v>1</v>
-          </cell>
-          <cell r="X142">
-            <v>0.83333333333333337</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="J143">
-            <v>0.6</v>
-          </cell>
-          <cell r="K143">
-            <v>0.8</v>
-          </cell>
-          <cell r="W143">
-            <v>1</v>
-          </cell>
-          <cell r="X143">
-            <v>0.7</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="J144">
-            <v>0.5</v>
-          </cell>
-          <cell r="K144">
-            <v>0.83333333333333337</v>
-          </cell>
-          <cell r="W144">
-            <v>0.6</v>
-          </cell>
-          <cell r="X144">
-            <v>0.61904761904761907</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="J145">
-            <v>0.42857142857142855</v>
-          </cell>
-          <cell r="K145">
-            <v>0.7142857142857143</v>
-          </cell>
-          <cell r="W145">
-            <v>0.6</v>
-          </cell>
-          <cell r="X145">
-            <v>0.61904761904761907</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="J146">
-            <v>0.375</v>
-          </cell>
-          <cell r="K146">
-            <v>0.625</v>
-          </cell>
-          <cell r="W146">
-            <v>0.4</v>
-          </cell>
-          <cell r="X146">
-            <v>0.61904761904761907</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="J147">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="K147">
-            <v>0.66666666666666663</v>
-          </cell>
-          <cell r="W147">
-            <v>0.4</v>
-          </cell>
-          <cell r="X147">
-            <v>0.61904761904761907</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="J148">
-            <v>0.4</v>
-          </cell>
-          <cell r="K148">
-            <v>0.7</v>
-          </cell>
-          <cell r="W148">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="X148">
-            <v>0.60869565217391308</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="J149">
-            <v>0.36363636363636365</v>
-          </cell>
-          <cell r="K149">
-            <v>0.63636363636363635</v>
-          </cell>
-          <cell r="W149">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="X149">
-            <v>0.57692307692307687</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="J150">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="K150">
-            <v>0.58333333333333337</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="J151">
-            <v>0.30769230769230771</v>
-          </cell>
-          <cell r="K151">
-            <v>0.53846153846153844</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="J152">
-            <v>0.2857142857142857</v>
-          </cell>
-          <cell r="K152">
-            <v>0.5</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="J153">
-            <v>0.33333333333333331</v>
-          </cell>
-          <cell r="K153">
-            <v>0.53333333333333333</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="J154">
-            <v>0.3125</v>
-          </cell>
-          <cell r="K154">
-            <v>0.5625</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="J155">
-            <v>0.29411764705882354</v>
-          </cell>
-          <cell r="K155">
-            <v>0.52941176470588236</v>
-          </cell>
-          <cell r="W155">
-            <v>0</v>
-          </cell>
-          <cell r="X155">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="J156">
-            <v>0.27777777777777779</v>
-          </cell>
-          <cell r="K156">
-            <v>0.55555555555555558</v>
-          </cell>
-          <cell r="W156">
-            <v>0.18181818181818182</v>
-          </cell>
-          <cell r="X156">
-            <v>0.18181818181818182</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="J157">
-            <v>0.26315789473684209</v>
-          </cell>
-          <cell r="K157">
-            <v>0.57894736842105265</v>
-          </cell>
-          <cell r="W157">
-            <v>0.33333333333333337</v>
-          </cell>
-          <cell r="X157">
-            <v>0.33333333333333337</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="J158">
-            <v>0.25</v>
-          </cell>
-          <cell r="K158">
-            <v>0.6</v>
-          </cell>
-          <cell r="W158">
-            <v>0.46153846153846151</v>
-          </cell>
-          <cell r="X158">
-            <v>0.44117647058823528</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="J159">
-            <v>0.23809523809523808</v>
-          </cell>
-          <cell r="K159">
-            <v>0.61904761904761907</v>
-          </cell>
-          <cell r="W159">
-            <v>0.57142857142857151</v>
-          </cell>
-          <cell r="X159">
-            <v>0.50909090909090904</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="J160">
-            <v>0.22727272727272727</v>
-          </cell>
-          <cell r="K160">
-            <v>0.59090909090909094</v>
-          </cell>
-          <cell r="W160">
-            <v>0.54545454545454541</v>
-          </cell>
-          <cell r="X160">
-            <v>0.55319148936170215</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="J161">
-            <v>0.21739130434782608</v>
-          </cell>
-          <cell r="K161">
-            <v>0.60869565217391308</v>
-          </cell>
-          <cell r="W161">
-            <v>0.6</v>
-          </cell>
-          <cell r="X161">
-            <v>0.609375</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="J162">
-            <v>0.20833333333333334</v>
-          </cell>
-          <cell r="K162">
-            <v>0.58333333333333337</v>
-          </cell>
-          <cell r="W162">
-            <v>0.50909090909090904</v>
-          </cell>
-          <cell r="X162">
-            <v>0.65703971119133575</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="J163">
-            <v>0.2</v>
-          </cell>
-          <cell r="K163">
-            <v>0.56000000000000005</v>
-          </cell>
-          <cell r="W163">
-            <v>0.53333333333333333</v>
-          </cell>
-          <cell r="X163">
-            <v>0.69798657718120805</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="J164">
-            <v>0.19230769230769232</v>
-          </cell>
-          <cell r="K164">
-            <v>0.57692307692307687</v>
-          </cell>
-          <cell r="W164">
-            <v>0.48648648648648646</v>
-          </cell>
-          <cell r="X164">
-            <v>0.72622478386167155</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="J165">
-            <v>0.18518518518518517</v>
-          </cell>
-          <cell r="K165">
-            <v>0.55555555555555558</v>
-          </cell>
-          <cell r="W165">
-            <v>0.5</v>
-          </cell>
-          <cell r="X165">
-            <v>0.73170731707317072</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="J166">
-            <v>0.17857142857142858</v>
-          </cell>
-          <cell r="K166">
-            <v>0.5357142857142857</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="J167">
-            <v>0.17241379310344829</v>
-          </cell>
-          <cell r="K167">
-            <v>0.51724137931034486</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="J168">
-            <v>0.16666666666666666</v>
-          </cell>
-          <cell r="K168">
-            <v>0.5</v>
           </cell>
         </row>
       </sheetData>
@@ -13182,20 +12809,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
   <dimension ref="A1:AC211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X207" sqref="X207"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H207" sqref="H207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="25" width="9.140625" style="1"/>
     <col min="26" max="26" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:29">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -13203,7 +12830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:29" ht="15">
       <c r="J2" s="9" t="s">
         <v>7</v>
       </c>
@@ -13235,7 +12862,7 @@
       <c r="AB2" s="9"/>
       <c r="AC2" s="9"/>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:29">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -13303,7 +12930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:29">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -13387,7 +13014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:29">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -13471,7 +13098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:29">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -13555,7 +13182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:29">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -13639,7 +13266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:29">
       <c r="A8" s="1">
         <v>5</v>
       </c>
@@ -13723,7 +13350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:29">
       <c r="A9" s="1">
         <v>6</v>
       </c>
@@ -13807,7 +13434,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:29">
       <c r="A10" s="1">
         <v>7</v>
       </c>
@@ -13891,7 +13518,7 @@
         <v>0.6470588235294118</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:29">
       <c r="A11" s="1">
         <v>8</v>
       </c>
@@ -13975,7 +13602,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:29">
       <c r="A12" s="1">
         <v>9</v>
       </c>
@@ -14059,7 +13686,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:29">
       <c r="A13" s="1">
         <v>10</v>
       </c>
@@ -14143,7 +13770,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:29">
       <c r="A14" s="1">
         <v>11</v>
       </c>
@@ -14227,7 +13854,7 @@
         <v>0.58620689655172409</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:29">
       <c r="A15" s="1">
         <v>12</v>
       </c>
@@ -14292,7 +13919,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:29">
       <c r="A16" s="1">
         <v>13</v>
       </c>
@@ -14357,7 +13984,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:29">
       <c r="A17" s="1">
         <v>14</v>
       </c>
@@ -14422,7 +14049,7 @@
         <v>0.52941176470588236</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:29">
       <c r="A18" s="1">
         <v>15</v>
       </c>
@@ -14493,7 +14120,7 @@
       <c r="AB18" s="9"/>
       <c r="AC18" s="9"/>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:29">
       <c r="A19" s="1">
         <v>16</v>
       </c>
@@ -14573,7 +14200,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:29">
       <c r="A20" s="1">
         <v>17</v>
       </c>
@@ -14657,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:29">
       <c r="A21" s="1">
         <v>18</v>
       </c>
@@ -14741,7 +14368,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:29">
       <c r="A22" s="1">
         <v>19</v>
       </c>
@@ -14825,7 +14452,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:29">
       <c r="A23" s="1">
         <v>20</v>
       </c>
@@ -14909,7 +14536,7 @@
         <v>0.46153846153846151</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:29">
       <c r="A24" s="1">
         <v>21</v>
       </c>
@@ -14993,7 +14620,7 @@
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:29">
       <c r="A25" s="1">
         <v>22</v>
       </c>
@@ -15077,7 +14704,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:29">
       <c r="A26" s="1">
         <v>23</v>
       </c>
@@ -15161,7 +14788,7 @@
         <v>0.62264150943396224</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:29">
       <c r="A27" s="1">
         <v>24</v>
       </c>
@@ -15245,7 +14872,7 @@
         <v>0.66403162055335962</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:29">
       <c r="A28" s="1">
         <v>25</v>
       </c>
@@ -15329,7 +14956,7 @@
         <v>0.6766169154228856</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:29">
       <c r="A29" s="1">
         <v>26</v>
       </c>
@@ -15413,7 +15040,7 @@
         <v>0.7099767981438514</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:29">
       <c r="A30" s="1">
         <v>27</v>
       </c>
@@ -15497,7 +15124,7 @@
         <v>0.73913043478260865</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:29">
       <c r="A31" s="1">
         <v>28</v>
       </c>
@@ -15562,7 +15189,7 @@
         <v>0.94117647058823528</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:29">
       <c r="A32" s="1">
         <v>29</v>
       </c>
@@ -15627,7 +15254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:29">
       <c r="A33" s="1">
         <v>30</v>
       </c>
@@ -15692,7 +15319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:29" ht="15">
       <c r="I34" s="5" t="s">
         <v>8</v>
       </c>
@@ -15713,12 +15340,12 @@
         <v>0.72710483381485191</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:29">
       <c r="A36" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:29" ht="15" customHeight="1">
       <c r="J37" s="9" t="s">
         <v>7</v>
       </c>
@@ -15746,7 +15373,7 @@
       <c r="AB37" s="9"/>
       <c r="AC37" s="9"/>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:29">
       <c r="A38" s="2" t="s">
         <v>0</v>
       </c>
@@ -15814,7 +15441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:29">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -15898,7 +15525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:29">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -15982,7 +15609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:29">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -16066,7 +15693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:29">
       <c r="A42" s="1">
         <v>4</v>
       </c>
@@ -16150,7 +15777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:29">
       <c r="A43" s="1">
         <v>5</v>
       </c>
@@ -16234,7 +15861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:29">
       <c r="A44" s="1">
         <v>6</v>
       </c>
@@ -16318,7 +15945,7 @@
         <v>0.76923076923076927</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:29">
       <c r="A45" s="1">
         <v>7</v>
       </c>
@@ -16402,7 +16029,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:29">
       <c r="A46" s="1">
         <v>8</v>
       </c>
@@ -16486,7 +16113,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:29">
       <c r="A47" s="1">
         <v>9</v>
       </c>
@@ -16570,7 +16197,7 @@
         <v>0.7142857142857143</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:29">
       <c r="A48" s="1">
         <v>10</v>
       </c>
@@ -16654,7 +16281,7 @@
         <v>0.65384615384615385</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:29">
       <c r="A49" s="1">
         <v>11</v>
       </c>
@@ -16738,7 +16365,7 @@
         <v>0.62068965517241381</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:29">
       <c r="A50" s="1">
         <v>12</v>
       </c>
@@ -16803,7 +16430,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:29">
       <c r="A51" s="1">
         <v>13</v>
       </c>
@@ -16868,7 +16495,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:29">
       <c r="A52" s="1">
         <v>14</v>
       </c>
@@ -16933,7 +16560,7 @@
         <v>0.55555555555555558</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:29">
       <c r="A53" s="1">
         <v>15</v>
       </c>
@@ -17004,7 +16631,7 @@
       <c r="AB53" s="9"/>
       <c r="AC53" s="9"/>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:29">
       <c r="A54" s="1">
         <v>16</v>
       </c>
@@ -17084,7 +16711,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:29">
       <c r="A55" s="1">
         <v>17</v>
       </c>
@@ -17168,7 +16795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:29">
       <c r="A56" s="1">
         <v>18</v>
       </c>
@@ -17252,7 +16879,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:29">
       <c r="A57" s="1">
         <v>19</v>
       </c>
@@ -17336,7 +16963,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:29">
       <c r="A58" s="1">
         <v>20</v>
       </c>
@@ -17420,7 +17047,7 @@
         <v>0.46153846153846151</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:29">
       <c r="A59" s="1">
         <v>21</v>
       </c>
@@ -17504,7 +17131,7 @@
         <v>0.57142857142857151</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:29">
       <c r="A60" s="1">
         <v>22</v>
       </c>
@@ -17588,7 +17215,7 @@
         <v>0.60606060606060608</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:29">
       <c r="A61" s="1">
         <v>23</v>
       </c>
@@ -17672,7 +17299,7 @@
         <v>0.65217391304347827</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:29">
       <c r="A62" s="1">
         <v>24</v>
       </c>
@@ -17756,7 +17383,7 @@
         <v>0.70707070707070718</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:29">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -17840,7 +17467,7 @@
         <v>0.75471698113207564</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:29">
       <c r="A64" s="1">
         <v>26</v>
       </c>
@@ -17924,7 +17551,7 @@
         <v>0.75742574257425743</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:29">
       <c r="A65" s="1">
         <v>27</v>
       </c>
@@ -18008,7 +17635,7 @@
         <v>0.76595744680851074</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:29">
       <c r="A66" s="1">
         <v>28</v>
       </c>
@@ -18073,7 +17700,7 @@
         <v>0.94444444444444442</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:29">
       <c r="A67" s="1">
         <v>29</v>
       </c>
@@ -18138,7 +17765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:29">
       <c r="A68" s="1">
         <v>30</v>
       </c>
@@ -18203,7 +17830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:29" ht="15">
       <c r="I69" s="5" t="s">
         <v>8</v>
       </c>
@@ -18224,12 +17851,12 @@
         <v>0.77018445181539108</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:29">
       <c r="A71" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="72" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:29" ht="15" customHeight="1">
       <c r="J72" s="9" t="s">
         <v>7</v>
       </c>
@@ -18257,7 +17884,7 @@
       <c r="AB72" s="9"/>
       <c r="AC72" s="9"/>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:29">
       <c r="A73" s="2" t="s">
         <v>0</v>
       </c>
@@ -18325,7 +17952,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:29">
       <c r="A74" s="1">
         <v>1</v>
       </c>
@@ -18409,7 +18036,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:29">
       <c r="A75" s="1">
         <v>2</v>
       </c>
@@ -18493,7 +18120,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:29">
       <c r="A76" s="1">
         <v>3</v>
       </c>
@@ -18577,7 +18204,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:29">
       <c r="A77" s="1">
         <v>4</v>
       </c>
@@ -18661,7 +18288,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:29">
       <c r="A78" s="1">
         <v>5</v>
       </c>
@@ -18745,7 +18372,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:29">
       <c r="A79" s="1">
         <v>6</v>
       </c>
@@ -18829,7 +18456,7 @@
         <v>0.2857142857142857</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:29">
       <c r="A80" s="1">
         <v>7</v>
       </c>
@@ -18913,7 +18540,7 @@
         <v>0.25925925925925924</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:29">
       <c r="A81" s="1">
         <v>8</v>
       </c>
@@ -18997,7 +18624,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:29">
       <c r="A82" s="1">
         <v>9</v>
       </c>
@@ -19081,7 +18708,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:29">
       <c r="A83" s="1">
         <v>10</v>
       </c>
@@ -19165,7 +18792,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:29">
       <c r="A84" s="1">
         <v>11</v>
       </c>
@@ -19249,7 +18876,7 @@
         <v>0.18333333333333332</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:29">
       <c r="A85" s="1">
         <v>12</v>
       </c>
@@ -19314,7 +18941,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:29">
       <c r="A86" s="1">
         <v>13</v>
       </c>
@@ -19379,7 +19006,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="87" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:29">
       <c r="A87" s="1">
         <v>14</v>
       </c>
@@ -19444,7 +19071,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="88" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:29">
       <c r="A88" s="1">
         <v>15</v>
       </c>
@@ -19515,7 +19142,7 @@
       <c r="AB88" s="9"/>
       <c r="AC88" s="9"/>
     </row>
-    <row r="89" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:29">
       <c r="A89" s="1">
         <v>16</v>
       </c>
@@ -19595,7 +19222,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="90" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:29">
       <c r="A90" s="1">
         <v>17</v>
       </c>
@@ -19679,7 +19306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:29">
       <c r="A91" s="1">
         <v>18</v>
       </c>
@@ -19763,7 +19390,7 @@
         <v>0.14814814814814817</v>
       </c>
     </row>
-    <row r="92" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:29">
       <c r="A92" s="1">
         <v>19</v>
       </c>
@@ -19847,7 +19474,7 @@
         <v>0.23529411764705882</v>
       </c>
     </row>
-    <row r="93" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:29">
       <c r="A93" s="1">
         <v>20</v>
       </c>
@@ -19931,7 +19558,7 @@
         <v>0.29268292682926828</v>
       </c>
     </row>
-    <row r="94" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:29">
       <c r="A94" s="1">
         <v>21</v>
       </c>
@@ -20015,7 +19642,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="95" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:29">
       <c r="A95" s="1">
         <v>22</v>
       </c>
@@ -20099,7 +19726,7 @@
         <v>0.36363636363636365</v>
       </c>
     </row>
-    <row r="96" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:29">
       <c r="A96" s="1">
         <v>23</v>
       </c>
@@ -20183,7 +19810,7 @@
         <v>0.36206896551724138</v>
       </c>
     </row>
-    <row r="97" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:29">
       <c r="A97" s="1">
         <v>24</v>
       </c>
@@ -20267,7 +19894,7 @@
         <v>0.36842105263157893</v>
       </c>
     </row>
-    <row r="98" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:29">
       <c r="A98" s="1">
         <v>25</v>
       </c>
@@ -20351,7 +19978,7 @@
         <v>0.38095238095238093</v>
       </c>
     </row>
-    <row r="99" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:29">
       <c r="A99" s="1">
         <v>26</v>
       </c>
@@ -20435,7 +20062,7 @@
         <v>0.39130434782608697</v>
       </c>
     </row>
-    <row r="100" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:29">
       <c r="A100" s="1">
         <v>27</v>
       </c>
@@ -20519,7 +20146,7 @@
         <v>0.30985915492957744</v>
       </c>
     </row>
-    <row r="101" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:29">
       <c r="A101" s="1">
         <v>28</v>
       </c>
@@ -20584,7 +20211,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="102" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:29">
       <c r="A102" s="1">
         <v>29</v>
       </c>
@@ -20649,7 +20276,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="103" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:29">
       <c r="A103" s="1">
         <v>30</v>
       </c>
@@ -20714,7 +20341,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="104" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:29">
       <c r="A104" s="1">
         <v>31</v>
       </c>
@@ -20779,7 +20406,7 @@
         <v>0.63636363636363635</v>
       </c>
     </row>
-    <row r="105" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:29">
       <c r="A105" s="1">
         <v>32</v>
       </c>
@@ -20844,7 +20471,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="106" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:29">
       <c r="A106" s="1">
         <v>33</v>
       </c>
@@ -20909,7 +20536,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="107" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:29">
       <c r="A107" s="1">
         <v>34</v>
       </c>
@@ -20974,7 +20601,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="108" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:29">
       <c r="A108" s="1">
         <v>35</v>
       </c>
@@ -21039,7 +20666,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="109" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:29">
       <c r="A109" s="1">
         <v>36</v>
       </c>
@@ -21104,7 +20731,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="110" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:29">
       <c r="A110" s="1">
         <v>37</v>
       </c>
@@ -21169,7 +20796,7 @@
         <v>0.72727272727272729</v>
       </c>
     </row>
-    <row r="111" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:29">
       <c r="A111" s="1">
         <v>38</v>
       </c>
@@ -21234,7 +20861,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="112" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:29">
       <c r="A112" s="1">
         <v>39</v>
       </c>
@@ -21299,7 +20926,7 @@
         <v>0.81818181818181823</v>
       </c>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:23">
       <c r="A113" s="1">
         <v>40</v>
       </c>
@@ -21364,7 +20991,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:23">
       <c r="A114" s="1">
         <v>41</v>
       </c>
@@ -21429,7 +21056,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:23">
       <c r="A115" s="1">
         <v>42</v>
       </c>
@@ -21494,7 +21121,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:23">
       <c r="A116" s="1">
         <v>43</v>
       </c>
@@ -21559,7 +21186,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:23">
       <c r="A117" s="1">
         <v>44</v>
       </c>
@@ -21624,7 +21251,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:23">
       <c r="A118" s="1">
         <v>45</v>
       </c>
@@ -21689,7 +21316,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:23">
       <c r="A119" s="1">
         <v>46</v>
       </c>
@@ -21754,7 +21381,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:23">
       <c r="A120" s="1">
         <v>47</v>
       </c>
@@ -21819,7 +21446,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:23">
       <c r="A121" s="1">
         <v>48</v>
       </c>
@@ -21884,7 +21511,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:23">
       <c r="A122" s="1">
         <v>49</v>
       </c>
@@ -21949,7 +21576,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:23">
       <c r="A123" s="1">
         <v>50</v>
       </c>
@@ -22014,7 +21641,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:23">
       <c r="A124" s="1">
         <v>51</v>
       </c>
@@ -22079,7 +21706,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:23">
       <c r="A125" s="1">
         <v>52</v>
       </c>
@@ -22144,7 +21771,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:23">
       <c r="A126" s="1">
         <v>53</v>
       </c>
@@ -22209,7 +21836,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:23">
       <c r="A127" s="1">
         <v>54</v>
       </c>
@@ -22274,7 +21901,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:23">
       <c r="A128" s="1">
         <v>55</v>
       </c>
@@ -22339,7 +21966,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="129" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:29">
       <c r="A129" s="1">
         <v>56</v>
       </c>
@@ -22404,7 +22031,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="130" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:29">
       <c r="A130" s="1">
         <v>57</v>
       </c>
@@ -22469,7 +22096,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="131" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:29">
       <c r="A131" s="1">
         <v>58</v>
       </c>
@@ -22534,7 +22161,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="132" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:29">
       <c r="A132" s="1">
         <v>59</v>
       </c>
@@ -22599,7 +22226,7 @@
         <v>0.90909090909090906</v>
       </c>
     </row>
-    <row r="133" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:29">
       <c r="A133" s="1">
         <v>60</v>
       </c>
@@ -22664,7 +22291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:29" ht="15">
       <c r="I134" s="5" t="s">
         <v>8</v>
       </c>
@@ -22685,12 +22312,12 @@
         <v>0.18615186949696205</v>
       </c>
     </row>
-    <row r="136" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:29">
       <c r="A136" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:29" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:29" ht="15" customHeight="1">
       <c r="J137" s="9" t="s">
         <v>7</v>
       </c>
@@ -22718,7 +22345,7 @@
       <c r="AB137" s="9"/>
       <c r="AC137" s="9"/>
     </row>
-    <row r="138" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:29">
       <c r="A138" s="2" t="s">
         <v>0</v>
       </c>
@@ -22786,7 +22413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:29">
       <c r="A139" s="1">
         <v>1</v>
       </c>
@@ -22870,7 +22497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:29">
       <c r="A140" s="1">
         <v>2</v>
       </c>
@@ -22954,7 +22581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:29">
       <c r="A141" s="1">
         <v>3</v>
       </c>
@@ -23038,7 +22665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:29">
       <c r="A142" s="1">
         <v>4</v>
       </c>
@@ -23122,7 +22749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:29">
       <c r="A143" s="1">
         <v>5</v>
       </c>
@@ -23206,7 +22833,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="144" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:29">
       <c r="A144" s="1">
         <v>6</v>
       </c>
@@ -23290,7 +22917,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="145" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:29">
       <c r="A145" s="1">
         <v>7</v>
       </c>
@@ -23374,7 +23001,7 @@
         <v>0.8571428571428571</v>
       </c>
     </row>
-    <row r="146" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:29">
       <c r="A146" s="1">
         <v>8</v>
       </c>
@@ -23458,7 +23085,7 @@
         <v>0.78947368421052633</v>
       </c>
     </row>
-    <row r="147" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:29">
       <c r="A147" s="1">
         <v>9</v>
       </c>
@@ -23542,7 +23169,7 @@
         <v>0.76190476190476186</v>
       </c>
     </row>
-    <row r="148" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:29">
       <c r="A148" s="1">
         <v>10</v>
       </c>
@@ -23626,7 +23253,7 @@
         <v>0.70370370370370372</v>
       </c>
     </row>
-    <row r="149" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:29">
       <c r="A149" s="1">
         <v>11</v>
       </c>
@@ -23710,7 +23337,7 @@
         <v>0.68965517241379315</v>
       </c>
     </row>
-    <row r="150" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:29">
       <c r="A150" s="1">
         <v>12</v>
       </c>
@@ -23775,7 +23402,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="151" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:29">
       <c r="A151" s="1">
         <v>13</v>
       </c>
@@ -23840,7 +23467,7 @@
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="152" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:29">
       <c r="A152" s="1">
         <v>14</v>
       </c>
@@ -23905,7 +23532,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="153" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:29">
       <c r="A153" s="1">
         <v>15</v>
       </c>
@@ -23976,7 +23603,7 @@
       <c r="AB153" s="9"/>
       <c r="AC153" s="9"/>
     </row>
-    <row r="154" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:29">
       <c r="A154" s="1">
         <v>16</v>
       </c>
@@ -24056,7 +23683,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="155" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:29">
       <c r="A155" s="1">
         <v>17</v>
       </c>
@@ -24140,7 +23767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:29">
       <c r="A156" s="1">
         <v>18</v>
       </c>
@@ -24224,7 +23851,7 @@
         <v>0.18181818181818182</v>
       </c>
     </row>
-    <row r="157" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:29">
       <c r="A157" s="1">
         <v>19</v>
       </c>
@@ -24308,7 +23935,7 @@
         <v>0.33333333333333337</v>
       </c>
     </row>
-    <row r="158" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:29">
       <c r="A158" s="1">
         <v>20</v>
       </c>
@@ -24392,7 +24019,7 @@
         <v>0.46153846153846151</v>
       </c>
     </row>
-    <row r="159" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:29">
       <c r="A159" s="1">
         <v>21</v>
       </c>
@@ -24476,7 +24103,7 @@
         <v>0.55384615384615388</v>
       </c>
     </row>
-    <row r="160" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:29">
       <c r="A160" s="1">
         <v>22</v>
       </c>
@@ -24560,7 +24187,7 @@
         <v>0.63157894736842102</v>
       </c>
     </row>
-    <row r="161" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:29">
       <c r="A161" s="1">
         <v>23</v>
       </c>
@@ -24644,7 +24271,7 @@
         <v>0.70588235294117641</v>
       </c>
     </row>
-    <row r="162" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:29">
       <c r="A162" s="1">
         <v>24</v>
       </c>
@@ -24728,7 +24355,7 @@
         <v>0.74204946996466425</v>
       </c>
     </row>
-    <row r="163" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:29">
       <c r="A163" s="1">
         <v>25</v>
       </c>
@@ -24812,7 +24439,7 @@
         <v>0.78048780487804881</v>
       </c>
     </row>
-    <row r="164" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:29">
       <c r="A164" s="1">
         <v>26</v>
       </c>
@@ -24896,7 +24523,7 @@
         <v>0.78983833718244822</v>
       </c>
     </row>
-    <row r="165" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:29">
       <c r="A165" s="1">
         <v>27</v>
       </c>
@@ -24980,7 +24607,7 @@
         <v>0.81632653061224492</v>
       </c>
     </row>
-    <row r="166" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:29">
       <c r="A166" s="1">
         <v>28</v>
       </c>
@@ -25045,7 +24672,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="167" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:29">
       <c r="A167" s="1">
         <v>29</v>
       </c>
@@ -25110,7 +24737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:29">
       <c r="A168" s="1">
         <v>30</v>
       </c>
@@ -25175,7 +24802,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:29" ht="15">
       <c r="I169" s="5" t="s">
         <v>8</v>
       </c>
@@ -25196,12 +24823,12 @@
         <v>0.81775673128684445</v>
       </c>
     </row>
-    <row r="171" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:29">
       <c r="E171" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:29" ht="15">
       <c r="I172" s="6" t="s">
         <v>13</v>
       </c>
@@ -25222,17 +24849,17 @@
         <v>0.6252994716035124</v>
       </c>
     </row>
-    <row r="173" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:29">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:29">
       <c r="A174" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="175" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:29">
       <c r="F175" s="9" t="s">
         <v>10</v>
       </c>
@@ -25240,7 +24867,7 @@
       <c r="H175" s="9"/>
       <c r="I175" s="9"/>
     </row>
-    <row r="176" spans="1:29" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:29">
       <c r="E176" s="3" t="s">
         <v>11</v>
       </c>
@@ -25257,7 +24884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="177" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="177" spans="4:11">
       <c r="E177" s="4">
         <v>0</v>
       </c>
@@ -25280,7 +24907,7 @@
       <c r="J177" s="9"/>
       <c r="K177" s="9"/>
     </row>
-    <row r="178" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="178" spans="4:11">
       <c r="E178" s="4">
         <v>0.1</v>
       </c>
@@ -25303,7 +24930,7 @@
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
     </row>
-    <row r="179" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="179" spans="4:11">
       <c r="E179" s="4">
         <v>0.2</v>
       </c>
@@ -25324,7 +24951,7 @@
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="180" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="180" spans="4:11">
       <c r="E180" s="4">
         <v>0.3</v>
       </c>
@@ -25345,7 +24972,7 @@
         <v>0.8214285714285714</v>
       </c>
     </row>
-    <row r="181" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="181" spans="4:11">
       <c r="E181" s="4">
         <v>0.4</v>
       </c>
@@ -25366,7 +24993,7 @@
         <v>0.79642857142857137</v>
       </c>
     </row>
-    <row r="182" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="182" spans="4:11">
       <c r="E182" s="4">
         <v>0.5</v>
       </c>
@@ -25387,7 +25014,7 @@
         <v>0.66552197802197799</v>
       </c>
     </row>
-    <row r="183" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="183" spans="4:11">
       <c r="E183" s="4">
         <v>0.6</v>
       </c>
@@ -25408,7 +25035,7 @@
         <v>0.6194366635543106</v>
       </c>
     </row>
-    <row r="184" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="184" spans="4:11">
       <c r="E184" s="4">
         <v>0.7</v>
       </c>
@@ -25429,7 +25056,7 @@
         <v>0.59633458646616533</v>
       </c>
     </row>
-    <row r="185" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="185" spans="4:11">
       <c r="E185" s="4">
         <v>0.8</v>
       </c>
@@ -25450,7 +25077,7 @@
         <v>0.57809934318555012</v>
       </c>
     </row>
-    <row r="186" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="186" spans="4:11">
       <c r="E186" s="4">
         <v>0.9</v>
       </c>
@@ -25471,7 +25098,7 @@
         <v>0.54843918852539542</v>
       </c>
     </row>
-    <row r="187" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="187" spans="4:11">
       <c r="E187" s="4">
         <v>1</v>
       </c>
@@ -25492,12 +25119,12 @@
         <v>0.51997126436781604</v>
       </c>
     </row>
-    <row r="189" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="189" spans="4:11">
       <c r="D189" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="191" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="191" spans="4:11">
       <c r="F191" s="9" t="s">
         <v>10</v>
       </c>
@@ -25505,7 +25132,7 @@
       <c r="H191" s="9"/>
       <c r="I191" s="9"/>
     </row>
-    <row r="192" spans="4:11" x14ac:dyDescent="0.5">
+    <row r="192" spans="4:11">
       <c r="E192" s="3" t="s">
         <v>11</v>
       </c>
@@ -25522,7 +25149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="193" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="193" spans="4:9">
       <c r="E193" s="4">
         <v>0</v>
       </c>
@@ -25543,7 +25170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="194" spans="4:9">
       <c r="E194" s="4">
         <v>0.1</v>
       </c>
@@ -25564,7 +25191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="195" spans="4:9">
       <c r="E195" s="4">
         <v>0.2</v>
       </c>
@@ -25585,7 +25212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="196" spans="4:9">
       <c r="E196" s="4">
         <v>0.3</v>
       </c>
@@ -25606,7 +25233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="197" spans="4:9">
       <c r="E197" s="4">
         <v>0.4</v>
       </c>
@@ -25627,7 +25254,7 @@
         <v>0.96666666666666667</v>
       </c>
     </row>
-    <row r="198" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="198" spans="4:9">
       <c r="E198" s="4">
         <v>0.5</v>
       </c>
@@ -25648,7 +25275,7 @@
         <v>0.79212454212454209</v>
       </c>
     </row>
-    <row r="199" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="199" spans="4:9">
       <c r="E199" s="4">
         <v>0.6</v>
       </c>
@@ -25669,7 +25296,7 @@
         <v>0.73949579831932777</v>
       </c>
     </row>
-    <row r="200" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="200" spans="4:9">
       <c r="E200" s="4">
         <v>0.7</v>
       </c>
@@ -25690,7 +25317,7 @@
         <v>0.71177944862155373</v>
       </c>
     </row>
-    <row r="201" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="201" spans="4:9">
       <c r="E201" s="4">
         <v>0.8</v>
       </c>
@@ -25711,7 +25338,7 @@
         <v>0.68746579091406679</v>
       </c>
     </row>
-    <row r="202" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="202" spans="4:9">
       <c r="E202" s="4">
         <v>0.9</v>
       </c>
@@ -25732,7 +25359,7 @@
         <v>0.64791891803386059</v>
       </c>
     </row>
-    <row r="203" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="203" spans="4:9">
       <c r="E203" s="4">
         <v>1</v>
       </c>
@@ -25753,42 +25380,50 @@
         <v>0.63218390804597702</v>
       </c>
     </row>
-    <row r="204" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="204" spans="4:9">
       <c r="E204" s="4"/>
     </row>
-    <row r="205" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="205" spans="4:9">
       <c r="E205" s="4"/>
     </row>
-    <row r="206" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="206" spans="4:9">
       <c r="E206" s="4"/>
     </row>
-    <row r="207" spans="5:9" x14ac:dyDescent="0.5">
-      <c r="E207" s="4"/>
+    <row r="207" spans="4:9" ht="15">
+      <c r="D207" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E207" s="10">
+        <f>AVERAGE(J169,J69,J34)</f>
+        <v>0.55669508166485171</v>
+      </c>
+      <c r="F207" s="10">
+        <f t="shared" ref="F207:H207" si="77">AVERAGE(K169,K69,K34)</f>
+        <v>0.64423085921344969</v>
+      </c>
+      <c r="G207" s="10">
+        <f t="shared" si="77"/>
+        <v>0.56058863107380252</v>
+      </c>
+      <c r="H207" s="10">
+        <f t="shared" si="77"/>
+        <v>0.77168200563902911</v>
+      </c>
     </row>
-    <row r="208" spans="5:9" x14ac:dyDescent="0.5">
+    <row r="208" spans="4:9">
       <c r="E208" s="4"/>
     </row>
-    <row r="209" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="209" spans="5:5">
       <c r="E209" s="4"/>
     </row>
-    <row r="210" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="210" spans="5:5">
       <c r="E210" s="4"/>
     </row>
-    <row r="211" spans="5:5" x14ac:dyDescent="0.5">
+    <row r="211" spans="5:5">
       <c r="E211" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="F191:I191"/>
-    <mergeCell ref="Z137:AC137"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="Z153:AC153"/>
-    <mergeCell ref="Z88:AC88"/>
-    <mergeCell ref="Z53:AC53"/>
-    <mergeCell ref="O137:R137"/>
-    <mergeCell ref="T137:W137"/>
-    <mergeCell ref="J177:K177"/>
-    <mergeCell ref="Z18:AC18"/>
     <mergeCell ref="Z2:AC2"/>
     <mergeCell ref="T2:W2"/>
     <mergeCell ref="O2:R2"/>
@@ -25797,11 +25432,21 @@
     <mergeCell ref="O37:R37"/>
     <mergeCell ref="T37:W37"/>
     <mergeCell ref="Z37:AC37"/>
+    <mergeCell ref="Z53:AC53"/>
+    <mergeCell ref="O137:R137"/>
+    <mergeCell ref="T137:W137"/>
+    <mergeCell ref="J177:K177"/>
+    <mergeCell ref="Z18:AC18"/>
     <mergeCell ref="J72:M72"/>
     <mergeCell ref="O72:R72"/>
     <mergeCell ref="T72:W72"/>
     <mergeCell ref="Z72:AC72"/>
     <mergeCell ref="J137:M137"/>
+    <mergeCell ref="F191:I191"/>
+    <mergeCell ref="Z137:AC137"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="Z153:AC153"/>
+    <mergeCell ref="Z88:AC88"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/solr/EvaluationM3.xlsx
+++ b/solr/EvaluationM3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PRI\solr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pedrofonseca/Documents/FEUP/PRI/PRI/solr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4587DEF9-1E4A-4A6B-94FA-6E6E524F8DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025F160A-AEAD-444B-9E02-AE2C50557AF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="44660" windowHeight="23720" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -255,7 +255,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1218,7 +1218,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -1324,7 +1324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -1365,7 +1365,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1395,7 +1395,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1409,7 +1409,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2930,7 +2930,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -3036,7 +3036,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -3077,7 +3077,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3107,7 +3107,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3121,7 +3121,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3719,7 +3719,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -3825,7 +3825,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -3866,7 +3866,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3896,7 +3896,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3910,7 +3910,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4521,7 +4521,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -4627,7 +4627,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -4668,7 +4668,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4698,7 +4698,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4712,7 +4712,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5310,7 +5310,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -5416,7 +5416,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -5457,7 +5457,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5487,7 +5487,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5501,7 +5501,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6099,7 +6099,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -6205,7 +6205,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -6246,7 +6246,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6276,7 +6276,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6290,7 +6290,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7811,7 +7811,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -7917,7 +7917,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -7958,7 +7958,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7988,7 +7988,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8002,7 +8002,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8384,59 +8384,47 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:prstDash val="solid"/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$AF$139:$AF$149</c:f>
+              <c:f>Sheet1!$AF$174:$AF$184</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>0.66666666666666663</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.42857142857142855</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.9</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8571428571428571</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.78947368421052633</c:v>
+                  <c:v>0.35</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.76190476190476186</c:v>
+                  <c:v>0.34782608695652173</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.70370370370370372</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.68965517241379315</c:v>
+                  <c:v>0.33333333333333331</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8600,7 +8588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -8706,7 +8694,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -8747,7 +8735,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8777,7 +8765,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8791,7 +8779,7 @@
 <file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -9402,7 +9390,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -9508,7 +9496,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -9549,7 +9537,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9579,7 +9567,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9593,7 +9581,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10191,7 +10179,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -10297,7 +10285,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -10338,7 +10326,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10368,7 +10356,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10382,7 +10370,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10993,7 +10981,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -11099,7 +11087,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -11140,7 +11128,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -11170,7 +11158,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11184,7 +11172,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12147,7 +12135,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -12253,7 +12241,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -12294,7 +12282,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12324,7 +12312,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12338,7 +12326,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12936,7 +12924,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -13042,7 +13030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -13083,7 +13071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13113,7 +13101,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13127,7 +13115,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13738,7 +13726,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -13844,7 +13832,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -13885,7 +13873,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13915,7 +13903,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13929,7 +13917,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -15900,7 +15888,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -16006,7 +15994,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -16047,7 +16035,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16077,7 +16065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16091,7 +16079,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -16689,7 +16677,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -16795,7 +16783,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -16836,7 +16824,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -16866,7 +16854,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16880,7 +16868,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -17491,7 +17479,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1331152447"/>
@@ -17597,7 +17585,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1361606489"/>
@@ -17638,7 +17626,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="en-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -17668,7 +17656,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="en-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -18777,21 +18765,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
   <dimension ref="A1:HW246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H206" sqref="H206"/>
+    <sheetView tabSelected="1" topLeftCell="C175" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N207" sqref="N207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="5" width="9.140625" style="1"/>
-    <col min="6" max="6" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="14" width="9.140625" style="1"/>
-    <col min="15" max="15" width="9.140625" style="1" customWidth="1"/>
-    <col min="16" max="25" width="9.140625" style="1"/>
-    <col min="26" max="26" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="9.140625" style="1"/>
-    <col min="29" max="29" width="9.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="5" width="9.1640625" style="1"/>
+    <col min="6" max="6" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="14" width="9.1640625" style="1"/>
+    <col min="15" max="15" width="9.1640625" style="1" customWidth="1"/>
+    <col min="16" max="25" width="9.1640625" style="1"/>
+    <col min="26" max="26" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="9.1640625" style="1"/>
+    <col min="29" max="29" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -18802,7 +18790,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:33" ht="15">
+    <row r="2" spans="1:33">
       <c r="J2" s="11" t="s">
         <v>7</v>
       </c>
@@ -21852,7 +21840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="15">
+    <row r="34" spans="1:33">
       <c r="I34" s="5" t="s">
         <v>8</v>
       </c>
@@ -24928,7 +24916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:33" ht="15">
+    <row r="69" spans="1:33">
       <c r="I69" s="5" t="s">
         <v>8</v>
       </c>
@@ -30404,7 +30392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:33" ht="15">
+    <row r="134" spans="1:33">
       <c r="I134" s="5" t="s">
         <v>8</v>
       </c>
@@ -33480,7 +33468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:231" ht="15">
+    <row r="169" spans="1:231">
       <c r="I169" s="5" t="s">
         <v>8</v>
       </c>
@@ -33510,7 +33498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:231" ht="15">
+    <row r="171" spans="1:231">
       <c r="A171" s="1" t="s">
         <v>22</v>
       </c>
@@ -33545,7 +33533,7 @@
       <c r="HV171" s="11"/>
       <c r="HW171" s="11"/>
     </row>
-    <row r="172" spans="1:231" ht="15">
+    <row r="172" spans="1:231">
       <c r="J172" s="11" t="s">
         <v>7</v>
       </c>
@@ -38925,7 +38913,7 @@
         <v>1.45</v>
       </c>
     </row>
-    <row r="203" spans="1:230" ht="15">
+    <row r="203" spans="1:230">
       <c r="A203" s="1">
         <v>30</v>
       </c>
@@ -39025,7 +39013,7 @@
       </c>
       <c r="HD203" s="5"/>
     </row>
-    <row r="204" spans="1:230" ht="15">
+    <row r="204" spans="1:230">
       <c r="I204" s="5" t="s">
         <v>8</v>
       </c>
@@ -39050,7 +39038,7 @@
         <v>0.66885774136247977</v>
       </c>
     </row>
-    <row r="207" spans="1:230" ht="15">
+    <row r="207" spans="1:230">
       <c r="E207" s="1" t="s">
         <v>16</v>
       </c>
@@ -39712,7 +39700,7 @@
     <row r="241" spans="4:9">
       <c r="E241" s="4"/>
     </row>
-    <row r="242" spans="4:9" ht="15">
+    <row r="242" spans="4:9">
       <c r="D242" s="6" t="s">
         <v>13</v>
       </c>
@@ -39751,6 +39739,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="AC188:AG188"/>
+    <mergeCell ref="GZ171:HD171"/>
+    <mergeCell ref="HF171:HJ171"/>
+    <mergeCell ref="HL171:HP171"/>
+    <mergeCell ref="AC2:AG2"/>
+    <mergeCell ref="AC137:AG137"/>
+    <mergeCell ref="AC88:AG88"/>
+    <mergeCell ref="AC153:AG153"/>
+    <mergeCell ref="AC72:AG72"/>
+    <mergeCell ref="AC37:AG37"/>
+    <mergeCell ref="V37:Z37"/>
+    <mergeCell ref="HS171:HW171"/>
+    <mergeCell ref="HS187:HW187"/>
+    <mergeCell ref="AC53:AG53"/>
+    <mergeCell ref="AC18:AG18"/>
+    <mergeCell ref="AC172:AG172"/>
     <mergeCell ref="J2:N2"/>
     <mergeCell ref="V2:Z2"/>
     <mergeCell ref="P2:T2"/>
@@ -39767,22 +39771,6 @@
     <mergeCell ref="J72:N72"/>
     <mergeCell ref="J37:N37"/>
     <mergeCell ref="P37:T37"/>
-    <mergeCell ref="V37:Z37"/>
-    <mergeCell ref="HS171:HW171"/>
-    <mergeCell ref="HS187:HW187"/>
-    <mergeCell ref="AC53:AG53"/>
-    <mergeCell ref="AC18:AG18"/>
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AC137:AG137"/>
-    <mergeCell ref="AC88:AG88"/>
-    <mergeCell ref="AC153:AG153"/>
-    <mergeCell ref="AC72:AG72"/>
-    <mergeCell ref="AC37:AG37"/>
-    <mergeCell ref="AC172:AG172"/>
-    <mergeCell ref="AC188:AG188"/>
-    <mergeCell ref="GZ171:HD171"/>
-    <mergeCell ref="HF171:HJ171"/>
-    <mergeCell ref="HL171:HP171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/solr/EvaluationM3.xlsx
+++ b/solr/EvaluationM3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\PRI\solr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A6348E0-07F9-48D3-9411-C02944E6F372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8FC0071-D352-4D3D-8635-8D1E17C8F70A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1F5A3B19-910C-4A1F-9359-A2D6231D0330}"/>
   </bookViews>
@@ -115,9 +115,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
   </numFmts>
   <fonts count="10">
     <font>
@@ -221,7 +222,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -244,6 +245,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="5" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -20137,8 +20139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E90E2CE5-2754-4DEC-9740-5E5101C42739}">
   <dimension ref="A1:IB246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AW3" sqref="AW3"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="99" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J242" sqref="J242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -20146,7 +20148,9 @@
     <col min="1" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16" width="9.140625" style="1"/>
+    <col min="8" max="10" width="9.140625" style="1"/>
+    <col min="11" max="11" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16" width="9.140625" style="1"/>
     <col min="17" max="17" width="9.140625" style="1" customWidth="1"/>
     <col min="18" max="28" width="9.140625" style="1"/>
     <col min="29" max="29" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -43694,27 +43698,27 @@
       <c r="J207" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="K207" s="5">
+      <c r="K207" s="9">
         <f>AVERAGE(K134,K169,K69,K34,K204)</f>
         <v>0.54916589260645432</v>
       </c>
-      <c r="L207" s="5">
+      <c r="L207" s="9">
         <f t="shared" ref="L207:P207" si="182">AVERAGE(L134,L169,L69,L34,L204)</f>
         <v>0.44426807740547991</v>
       </c>
-      <c r="M207" s="5">
+      <c r="M207" s="9">
         <f t="shared" si="182"/>
         <v>0.55007211277851564</v>
       </c>
-      <c r="N207" s="5">
+      <c r="N207" s="9">
         <f t="shared" si="182"/>
         <v>0.56605343257805008</v>
       </c>
-      <c r="O207" s="5">
+      <c r="O207" s="12">
         <f t="shared" si="182"/>
         <v>0.539780413968315</v>
       </c>
-      <c r="P207" s="5">
+      <c r="P207" s="9">
         <f t="shared" si="182"/>
         <v>0.63401112555530592</v>
       </c>
@@ -43768,27 +43772,27 @@
         <v>0</v>
       </c>
       <c r="G212" s="1">
-        <f>AVERAGE(AG4,AG39,AG74,AG139,AG174)</f>
+        <f t="shared" ref="G212:G222" si="183">AVERAGE(AG4,AG39,AG74,AG139,AG174)</f>
         <v>0.8</v>
       </c>
       <c r="H212" s="1">
-        <f t="shared" ref="H212:L212" si="183">AVERAGE(AH4,AH39,AH74,AH139,AH174)</f>
+        <f t="shared" ref="H212:L212" si="184">AVERAGE(AH4,AH39,AH74,AH139,AH174)</f>
         <v>0.64388888888888884</v>
       </c>
       <c r="I212" s="1">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.79487179487179493</v>
       </c>
       <c r="J212" s="1">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.79047619047619044</v>
       </c>
       <c r="K212" s="1">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.78555555555555556</v>
       </c>
       <c r="L212" s="1">
-        <f t="shared" si="183"/>
+        <f t="shared" si="184"/>
         <v>0.8571428571428571</v>
       </c>
     </row>
@@ -43797,27 +43801,27 @@
         <v>0.1</v>
       </c>
       <c r="G213" s="1">
-        <f>AVERAGE(AG5,AG40,AG75,AG140,AG175)</f>
+        <f t="shared" si="183"/>
         <v>0.8</v>
       </c>
       <c r="H213" s="1">
-        <f t="shared" ref="H213:H222" si="184">AVERAGE(AH5,AH40,AH75,AH140,AH175)</f>
+        <f t="shared" ref="H213:H222" si="185">AVERAGE(AH5,AH40,AH75,AH140,AH175)</f>
         <v>0.64388888888888884</v>
       </c>
       <c r="I213" s="1">
-        <f t="shared" ref="I213:I222" si="185">AVERAGE(AI5,AI40,AI75,AI140,AI175)</f>
+        <f t="shared" ref="I213:I222" si="186">AVERAGE(AI5,AI40,AI75,AI140,AI175)</f>
         <v>0.79487179487179493</v>
       </c>
       <c r="J213" s="1">
-        <f t="shared" ref="J213:J222" si="186">AVERAGE(AJ5,AJ40,AJ75,AJ140,AJ175)</f>
+        <f t="shared" ref="J213:J222" si="187">AVERAGE(AJ5,AJ40,AJ75,AJ140,AJ175)</f>
         <v>0.79047619047619044</v>
       </c>
       <c r="K213" s="1">
-        <f t="shared" ref="K213:L222" si="187">AVERAGE(AK5,AK40,AK75,AK140,AK175)</f>
+        <f t="shared" ref="K213:L222" si="188">AVERAGE(AK5,AK40,AK75,AK140,AK175)</f>
         <v>0.75222222222222224</v>
       </c>
       <c r="L213" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.82380952380952377</v>
       </c>
     </row>
@@ -43826,27 +43830,27 @@
         <v>0.2</v>
       </c>
       <c r="G214" s="1">
-        <f>AVERAGE(AG6,AG41,AG76,AG141,AG176)</f>
+        <f t="shared" si="183"/>
         <v>0.72307692307692306</v>
       </c>
       <c r="H214" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.61055555555555552</v>
       </c>
       <c r="I214" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.70915750915750908</v>
       </c>
       <c r="J214" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.79047619047619044</v>
       </c>
       <c r="K214" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.71888888888888891</v>
       </c>
       <c r="L214" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.82380952380952377</v>
       </c>
     </row>
@@ -43855,27 +43859,27 @@
         <v>0.3</v>
       </c>
       <c r="G215" s="1">
-        <f>AVERAGE(AG7,AG42,AG77,AG142,AG177)</f>
+        <f t="shared" si="183"/>
         <v>0.72307692307692306</v>
       </c>
       <c r="H215" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.61055555555555552</v>
       </c>
       <c r="I215" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.70915750915750908</v>
       </c>
       <c r="J215" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.74285714285714277</v>
       </c>
       <c r="K215" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.71888888888888891</v>
       </c>
       <c r="L215" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.82380952380952377</v>
       </c>
     </row>
@@ -43884,27 +43888,27 @@
         <v>0.4</v>
       </c>
       <c r="G216" s="1">
-        <f>AVERAGE(AG8,AG43,AG78,AG143,AG178)</f>
+        <f t="shared" si="183"/>
         <v>0.67307692307692313</v>
       </c>
       <c r="H216" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.5938888888888888</v>
       </c>
       <c r="I216" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.62582417582417571</v>
       </c>
       <c r="J216" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.70714285714285707</v>
       </c>
       <c r="K216" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.70222222222222219</v>
       </c>
       <c r="L216" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.80380952380952375</v>
       </c>
     </row>
@@ -43913,27 +43917,27 @@
         <v>0.5</v>
       </c>
       <c r="G217" s="1">
-        <f>AVERAGE(AG9,AG44,AG79,AG144,AG179)</f>
+        <f t="shared" si="183"/>
         <v>0.6397435897435898</v>
       </c>
       <c r="H217" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.55427849927849926</v>
       </c>
       <c r="I217" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.62582417582417571</v>
       </c>
       <c r="J217" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.60241758241758236</v>
       </c>
       <c r="K217" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.66261183261183265</v>
       </c>
       <c r="L217" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.69908424908424904</v>
       </c>
     </row>
@@ -43942,27 +43946,27 @@
         <v>0.6</v>
       </c>
       <c r="G218" s="1">
-        <f>AVERAGE(AG10,AG45,AG80,AG145,AG180)</f>
+        <f t="shared" si="183"/>
         <v>0.61761904761904762</v>
       </c>
       <c r="H218" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.47510909627008691</v>
       </c>
       <c r="I218" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.58782051282051273</v>
       </c>
       <c r="J218" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.56554933084344849</v>
       </c>
       <c r="K218" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.56677576293675358</v>
       </c>
       <c r="L218" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.64554933084344845</v>
       </c>
     </row>
@@ -43971,27 +43975,27 @@
         <v>0.7</v>
       </c>
       <c r="G219" s="1">
-        <f>AVERAGE(AG11,AG46,AG81,AG146,AG181)</f>
+        <f t="shared" si="183"/>
         <v>0.55564289283929469</v>
       </c>
       <c r="H219" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.46124355005159956</v>
       </c>
       <c r="I219" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.56805860805860797</v>
       </c>
       <c r="J219" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.54706766917293226</v>
       </c>
       <c r="K219" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.55291021671826623</v>
       </c>
       <c r="L219" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.62706766917293222</v>
       </c>
     </row>
@@ -44000,27 +44004,27 @@
         <v>0.8</v>
       </c>
       <c r="G220" s="1">
-        <f>AVERAGE(AG12,AG47,AG82,AG147,AG182)</f>
+        <f t="shared" si="183"/>
         <v>0.54929368649008825</v>
       </c>
       <c r="H220" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.42174220032840715</v>
       </c>
       <c r="I220" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.55893162393162399</v>
       </c>
       <c r="J220" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.53204469193974435</v>
       </c>
       <c r="K220" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.4834088669950739</v>
       </c>
       <c r="L220" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.58247947454844007</v>
       </c>
     </row>
@@ -44029,27 +44033,27 @@
         <v>0.9</v>
       </c>
       <c r="G221" s="1">
-        <f>AVERAGE(AG13,AG48,AG83,AG148,AG183)</f>
+        <f t="shared" si="183"/>
         <v>0.54579486852318526</v>
       </c>
       <c r="H221" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.4119146141215107</v>
       </c>
       <c r="I221" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.53202010755202234</v>
       </c>
       <c r="J221" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.50541801748698301</v>
       </c>
       <c r="K221" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.47526071884692572</v>
       </c>
       <c r="L221" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.55726986933883482</v>
       </c>
     </row>
@@ -44058,27 +44062,27 @@
         <v>1</v>
       </c>
       <c r="G222" s="1">
-        <f>AVERAGE(AG14,AG49,AG84,AG149,AG184)</f>
+        <f t="shared" si="183"/>
         <v>0.49064404305783621</v>
       </c>
       <c r="H222" s="1">
-        <f t="shared" si="184"/>
+        <f t="shared" si="185"/>
         <v>0.4058456486042693</v>
       </c>
       <c r="I222" s="1">
-        <f t="shared" si="185"/>
+        <f t="shared" si="186"/>
         <v>0.49439560439560443</v>
       </c>
       <c r="J222" s="1">
-        <f t="shared" si="186"/>
+        <f t="shared" si="187"/>
         <v>0.48264367816091952</v>
       </c>
       <c r="K222" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.4640065681444992</v>
       </c>
       <c r="L222" s="1">
-        <f t="shared" si="187"/>
+        <f t="shared" si="188"/>
         <v>0.5293103448275861</v>
       </c>
     </row>
@@ -44126,27 +44130,27 @@
         <v>0</v>
       </c>
       <c r="G228" s="1">
-        <f>AVERAGE(AG139,AG39,AG4,AG174)</f>
+        <f t="shared" ref="G228:G238" si="189">AVERAGE(AG139,AG39,AG4,AG174)</f>
         <v>0.75</v>
       </c>
       <c r="H228" s="1">
-        <f t="shared" ref="H228:L228" si="188">AVERAGE(AH139,AH39,AH4,AH174)</f>
+        <f t="shared" ref="H228:L228" si="190">AVERAGE(AH139,AH39,AH4,AH174)</f>
         <v>0.76736111111111105</v>
       </c>
       <c r="I228" s="1">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.74358974358974361</v>
       </c>
       <c r="J228" s="1">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="K228" s="1">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>0.94444444444444442</v>
       </c>
       <c r="L228" s="1">
-        <f t="shared" si="188"/>
+        <f t="shared" si="190"/>
         <v>1</v>
       </c>
     </row>
@@ -44155,27 +44159,27 @@
         <v>0.1</v>
       </c>
       <c r="G229" s="1">
-        <f>AVERAGE(AG140,AG40,AG5,AG175)</f>
+        <f t="shared" si="189"/>
         <v>0.75</v>
       </c>
       <c r="H229" s="1">
-        <f t="shared" ref="H229:H238" si="189">AVERAGE(AH140,AH40,AH5,AH175)</f>
+        <f t="shared" ref="H229:H238" si="191">AVERAGE(AH140,AH40,AH5,AH175)</f>
         <v>0.76736111111111105</v>
       </c>
       <c r="I229" s="1">
-        <f t="shared" ref="I229:I238" si="190">AVERAGE(AI140,AI40,AI5,AI175)</f>
+        <f t="shared" ref="I229:I238" si="192">AVERAGE(AI140,AI40,AI5,AI175)</f>
         <v>0.74358974358974361</v>
       </c>
       <c r="J229" s="1">
-        <f t="shared" ref="J229:J238" si="191">AVERAGE(AJ140,AJ40,AJ5,AJ175)</f>
+        <f t="shared" ref="J229:J238" si="193">AVERAGE(AJ140,AJ40,AJ5,AJ175)</f>
         <v>0.91666666666666663</v>
       </c>
       <c r="K229" s="1">
-        <f t="shared" ref="K229:L238" si="192">AVERAGE(AK140,AK40,AK5,AK175)</f>
+        <f t="shared" ref="K229:L238" si="194">AVERAGE(AK140,AK40,AK5,AK175)</f>
         <v>0.90277777777777779</v>
       </c>
       <c r="L229" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -44184,27 +44188,27 @@
         <v>0.2</v>
       </c>
       <c r="G230" s="1">
-        <f>AVERAGE(AG141,AG41,AG6,AG176)</f>
+        <f t="shared" si="189"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="H230" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.72569444444444442</v>
       </c>
       <c r="I230" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.63644688644688641</v>
       </c>
       <c r="J230" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.91666666666666663</v>
       </c>
       <c r="K230" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.86111111111111116</v>
       </c>
       <c r="L230" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -44213,27 +44217,27 @@
         <v>0.3</v>
       </c>
       <c r="G231" s="1">
-        <f>AVERAGE(AG142,AG42,AG7,AG177)</f>
+        <f t="shared" si="189"/>
         <v>0.65384615384615385</v>
       </c>
       <c r="H231" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.72569444444444442</v>
       </c>
       <c r="I231" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.63644688644688641</v>
       </c>
       <c r="J231" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.8571428571428571</v>
       </c>
       <c r="K231" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.86111111111111116</v>
       </c>
       <c r="L231" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.95833333333333337</v>
       </c>
     </row>
@@ -44242,27 +44246,27 @@
         <v>0.4</v>
       </c>
       <c r="G232" s="1">
-        <f>AVERAGE(AG143,AG43,AG8,AG178)</f>
+        <f t="shared" si="189"/>
         <v>0.59134615384615397</v>
       </c>
       <c r="H232" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.70486111111111105</v>
       </c>
       <c r="I232" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.53228021978021967</v>
       </c>
       <c r="J232" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.8125</v>
       </c>
       <c r="K232" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.84027777777777779</v>
       </c>
       <c r="L232" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.93333333333333335</v>
       </c>
     </row>
@@ -44271,27 +44275,27 @@
         <v>0.5</v>
       </c>
       <c r="G233" s="1">
-        <f>AVERAGE(AG144,AG44,AG9,AG179)</f>
+        <f t="shared" si="189"/>
         <v>0.54967948717948723</v>
       </c>
       <c r="H233" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.65534812409812404</v>
       </c>
       <c r="I233" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.53228021978021967</v>
       </c>
       <c r="J233" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.68159340659340661</v>
       </c>
       <c r="K233" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.79076479076479078</v>
       </c>
       <c r="L233" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.80242673992673996</v>
       </c>
     </row>
@@ -44300,27 +44304,27 @@
         <v>0.6</v>
       </c>
       <c r="G234" s="1">
-        <f>AVERAGE(AG145,AG45,AG10,AG180)</f>
+        <f t="shared" si="189"/>
         <v>0.52202380952380956</v>
       </c>
       <c r="H234" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.55638637033760863</v>
       </c>
       <c r="I234" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.48477564102564102</v>
       </c>
       <c r="J234" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.64212184873949585</v>
       </c>
       <c r="K234" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.670969703670942</v>
       </c>
       <c r="L234" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.74212184873949583</v>
       </c>
     </row>
@@ -44329,27 +44333,27 @@
         <v>0.7</v>
       </c>
       <c r="G235" s="1">
-        <f>AVERAGE(AG146,AG46,AG11,AG181)</f>
+        <f t="shared" si="189"/>
         <v>0.4588393303348326</v>
       </c>
       <c r="H235" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.53905443756449944</v>
       </c>
       <c r="I235" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.47435897435897434</v>
       </c>
       <c r="J235" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.62133458646616535</v>
       </c>
       <c r="K235" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.65363777089783281</v>
       </c>
       <c r="L235" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.72133458646616533</v>
       </c>
     </row>
@@ -44358,27 +44362,27 @@
         <v>0.8</v>
       </c>
       <c r="G236" s="1">
-        <f>AVERAGE(AG147,AG47,AG12,AG182)</f>
+        <f t="shared" si="189"/>
         <v>0.4588393303348326</v>
       </c>
       <c r="H236" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.48967775041050904</v>
       </c>
       <c r="I236" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.47088675213675213</v>
       </c>
       <c r="J236" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.6025558649246805</v>
       </c>
       <c r="K236" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.56676108374384238</v>
       </c>
       <c r="L236" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.66559934318555014</v>
       </c>
     </row>
@@ -44387,27 +44391,27 @@
         <v>0.9</v>
       </c>
       <c r="G237" s="1">
-        <f>AVERAGE(AG148,AG48,AG13,AG183)</f>
+        <f t="shared" si="189"/>
         <v>0.4588393303348326</v>
       </c>
       <c r="H237" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.48572660098522169</v>
       </c>
       <c r="I237" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.44162087912087911</v>
       </c>
       <c r="J237" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.56927252185872879</v>
       </c>
       <c r="K237" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.56490923189199049</v>
       </c>
       <c r="L237" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.63408733667354356</v>
       </c>
     </row>
@@ -44416,27 +44420,27 @@
         <v>1</v>
       </c>
       <c r="G238" s="1">
-        <f>AVERAGE(AG149,AG49,AG14,AG184)</f>
+        <f t="shared" si="189"/>
         <v>0.42163838715562851</v>
       </c>
       <c r="H238" s="1">
-        <f t="shared" si="189"/>
+        <f t="shared" si="191"/>
         <v>0.47814039408867004</v>
       </c>
       <c r="I238" s="1">
-        <f t="shared" si="190"/>
+        <f t="shared" si="192"/>
         <v>0.42632783882783881</v>
       </c>
       <c r="J238" s="1">
-        <f t="shared" si="191"/>
+        <f t="shared" si="193"/>
         <v>0.55747126436781613</v>
       </c>
       <c r="K238" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.55084154351395731</v>
       </c>
       <c r="L238" s="1">
-        <f t="shared" si="192"/>
+        <f t="shared" si="194"/>
         <v>0.61580459770114948</v>
       </c>
     </row>
@@ -44462,11 +44466,11 @@
         <v>0.53099715904716338</v>
       </c>
       <c r="H242" s="9">
-        <f t="shared" ref="H242:I242" si="193">AVERAGE(M169,M69,M34,M204)</f>
+        <f t="shared" ref="H242:I242" si="195">AVERAGE(M169,M69,M34,M204)</f>
         <v>0.45438898653575638</v>
       </c>
       <c r="I242" s="9">
-        <f t="shared" si="193"/>
+        <f t="shared" si="195"/>
         <v>0.66102882334832203</v>
       </c>
       <c r="J242" s="9">
@@ -44493,17 +44497,11 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="AG188:AL188"/>
-    <mergeCell ref="Y2:AC2"/>
-    <mergeCell ref="Y37:AC37"/>
-    <mergeCell ref="HX171:IB171"/>
-    <mergeCell ref="HX187:IB187"/>
-    <mergeCell ref="AG53:AK53"/>
-    <mergeCell ref="AG18:AK18"/>
-    <mergeCell ref="HE171:HI171"/>
-    <mergeCell ref="HK171:HO171"/>
-    <mergeCell ref="HQ171:HU171"/>
-    <mergeCell ref="AG2:AK2"/>
+    <mergeCell ref="F226:L226"/>
+    <mergeCell ref="F210:L210"/>
+    <mergeCell ref="K37:P37"/>
+    <mergeCell ref="K72:P72"/>
+    <mergeCell ref="R72:W72"/>
     <mergeCell ref="K2:P2"/>
     <mergeCell ref="R2:W2"/>
     <mergeCell ref="AG37:AL37"/>
@@ -44520,11 +44518,17 @@
     <mergeCell ref="Y72:AD72"/>
     <mergeCell ref="AG72:AL72"/>
     <mergeCell ref="AG88:AL88"/>
-    <mergeCell ref="F226:L226"/>
-    <mergeCell ref="F210:L210"/>
-    <mergeCell ref="K37:P37"/>
-    <mergeCell ref="K72:P72"/>
-    <mergeCell ref="R72:W72"/>
+    <mergeCell ref="AG188:AL188"/>
+    <mergeCell ref="Y2:AC2"/>
+    <mergeCell ref="Y37:AC37"/>
+    <mergeCell ref="HX171:IB171"/>
+    <mergeCell ref="HX187:IB187"/>
+    <mergeCell ref="AG53:AK53"/>
+    <mergeCell ref="AG18:AK18"/>
+    <mergeCell ref="HE171:HI171"/>
+    <mergeCell ref="HK171:HO171"/>
+    <mergeCell ref="HQ171:HU171"/>
+    <mergeCell ref="AG2:AK2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
